--- a/BackTest/2020-01-23 BackTest FAB.xlsx
+++ b/BackTest/2020-01-23 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>16.71</v>
       </c>
       <c r="C2" t="n">
-        <v>16.72</v>
+        <v>16.71</v>
       </c>
       <c r="D2" t="n">
-        <v>16.72</v>
+        <v>16.71</v>
       </c>
       <c r="E2" t="n">
         <v>16.71</v>
       </c>
       <c r="F2" t="n">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>16.6965</v>
+        <v>16.69416666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.53</v>
+        <v>16.71</v>
       </c>
       <c r="C3" t="n">
-        <v>16.53</v>
+        <v>16.72</v>
       </c>
       <c r="D3" t="n">
-        <v>16.53</v>
+        <v>16.72</v>
       </c>
       <c r="E3" t="n">
-        <v>16.53</v>
+        <v>16.71</v>
       </c>
       <c r="F3" t="n">
-        <v>5738.6509</v>
+        <v>30000</v>
       </c>
       <c r="G3" t="n">
-        <v>16.69533333333334</v>
+        <v>16.6965</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.52</v>
+        <v>16.53</v>
       </c>
       <c r="C4" t="n">
-        <v>16.51</v>
+        <v>16.53</v>
       </c>
       <c r="D4" t="n">
-        <v>16.52</v>
+        <v>16.53</v>
       </c>
       <c r="E4" t="n">
-        <v>16.51</v>
+        <v>16.53</v>
       </c>
       <c r="F4" t="n">
-        <v>101326.314</v>
+        <v>5738.6509</v>
       </c>
       <c r="G4" t="n">
-        <v>16.69383333333334</v>
+        <v>16.69533333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16.51</v>
+        <v>16.52</v>
       </c>
       <c r="C5" t="n">
         <v>16.51</v>
       </c>
       <c r="D5" t="n">
-        <v>16.51</v>
+        <v>16.52</v>
       </c>
       <c r="E5" t="n">
         <v>16.51</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>101326.314</v>
       </c>
       <c r="G5" t="n">
-        <v>16.69016666666667</v>
+        <v>16.69383333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.53</v>
+        <v>16.51</v>
       </c>
       <c r="C6" t="n">
-        <v>16.53</v>
+        <v>16.51</v>
       </c>
       <c r="D6" t="n">
-        <v>16.53</v>
+        <v>16.51</v>
       </c>
       <c r="E6" t="n">
-        <v>16.53</v>
+        <v>16.51</v>
       </c>
       <c r="F6" t="n">
-        <v>38670.2063</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>16.683</v>
+        <v>16.69016666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>16.53</v>
       </c>
       <c r="F7" t="n">
-        <v>29844.7513</v>
+        <v>38670.2063</v>
       </c>
       <c r="G7" t="n">
-        <v>16.67433333333334</v>
+        <v>16.683</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.52</v>
+        <v>16.53</v>
       </c>
       <c r="C8" t="n">
-        <v>16.45</v>
+        <v>16.53</v>
       </c>
       <c r="D8" t="n">
-        <v>16.52</v>
+        <v>16.53</v>
       </c>
       <c r="E8" t="n">
-        <v>16.45</v>
+        <v>16.53</v>
       </c>
       <c r="F8" t="n">
-        <v>29522.1438</v>
+        <v>29844.7513</v>
       </c>
       <c r="G8" t="n">
-        <v>16.66516666666667</v>
+        <v>16.67433333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.53</v>
+        <v>16.52</v>
       </c>
       <c r="C9" t="n">
-        <v>16.53</v>
+        <v>16.45</v>
       </c>
       <c r="D9" t="n">
-        <v>16.53</v>
+        <v>16.52</v>
       </c>
       <c r="E9" t="n">
-        <v>16.53</v>
+        <v>16.45</v>
       </c>
       <c r="F9" t="n">
-        <v>1316.7986</v>
+        <v>29522.1438</v>
       </c>
       <c r="G9" t="n">
-        <v>16.65733333333334</v>
+        <v>16.66516666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.71</v>
+        <v>16.53</v>
       </c>
       <c r="C10" t="n">
-        <v>16.71</v>
+        <v>16.53</v>
       </c>
       <c r="D10" t="n">
-        <v>16.71</v>
+        <v>16.53</v>
       </c>
       <c r="E10" t="n">
-        <v>16.71</v>
+        <v>16.53</v>
       </c>
       <c r="F10" t="n">
-        <v>321</v>
+        <v>1316.7986</v>
       </c>
       <c r="G10" t="n">
-        <v>16.6525</v>
+        <v>16.65733333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>16.71</v>
       </c>
       <c r="F11" t="n">
-        <v>1474.3322</v>
+        <v>321</v>
       </c>
       <c r="G11" t="n">
-        <v>16.65166666666667</v>
+        <v>16.6525</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16.53</v>
+        <v>16.71</v>
       </c>
       <c r="C12" t="n">
-        <v>16.53</v>
+        <v>16.71</v>
       </c>
       <c r="D12" t="n">
-        <v>16.53</v>
+        <v>16.71</v>
       </c>
       <c r="E12" t="n">
-        <v>16.53</v>
+        <v>16.71</v>
       </c>
       <c r="F12" t="n">
-        <v>202.497</v>
+        <v>1474.3322</v>
       </c>
       <c r="G12" t="n">
-        <v>16.648</v>
+        <v>16.65166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>16.53</v>
       </c>
       <c r="F13" t="n">
-        <v>200000</v>
+        <v>202.497</v>
       </c>
       <c r="G13" t="n">
-        <v>16.64033333333334</v>
+        <v>16.648</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16.71</v>
+        <v>16.53</v>
       </c>
       <c r="C14" t="n">
-        <v>16.75</v>
+        <v>16.53</v>
       </c>
       <c r="D14" t="n">
-        <v>16.75</v>
+        <v>16.53</v>
       </c>
       <c r="E14" t="n">
-        <v>16.71</v>
+        <v>16.53</v>
       </c>
       <c r="F14" t="n">
-        <v>66825.6468</v>
+        <v>200000</v>
       </c>
       <c r="G14" t="n">
-        <v>16.63616666666667</v>
+        <v>16.64033333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16.76</v>
+        <v>16.71</v>
       </c>
       <c r="C15" t="n">
-        <v>16.83</v>
+        <v>16.75</v>
       </c>
       <c r="D15" t="n">
-        <v>16.83</v>
+        <v>16.75</v>
       </c>
       <c r="E15" t="n">
-        <v>16.76</v>
+        <v>16.71</v>
       </c>
       <c r="F15" t="n">
-        <v>50000</v>
+        <v>66825.6468</v>
       </c>
       <c r="G15" t="n">
-        <v>16.63833333333334</v>
+        <v>16.63616666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="C16" t="n">
         <v>16.83</v>
       </c>
-      <c r="C16" t="n">
-        <v>16.99</v>
-      </c>
       <c r="D16" t="n">
-        <v>16.99</v>
+        <v>16.83</v>
       </c>
       <c r="E16" t="n">
-        <v>16.83</v>
+        <v>16.76</v>
       </c>
       <c r="F16" t="n">
-        <v>3807.7087</v>
+        <v>50000</v>
       </c>
       <c r="G16" t="n">
-        <v>16.63983333333334</v>
+        <v>16.63833333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="C17" t="n">
         <v>16.99</v>
       </c>
-      <c r="C17" t="n">
-        <v>17.08</v>
-      </c>
       <c r="D17" t="n">
-        <v>17.08</v>
+        <v>16.99</v>
       </c>
       <c r="E17" t="n">
-        <v>16.99</v>
+        <v>16.83</v>
       </c>
       <c r="F17" t="n">
-        <v>28320.3984</v>
+        <v>3807.7087</v>
       </c>
       <c r="G17" t="n">
-        <v>16.64783333333334</v>
+        <v>16.63983333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="C18" t="n">
         <v>17.08</v>
       </c>
-      <c r="C18" t="n">
-        <v>17.09</v>
-      </c>
       <c r="D18" t="n">
-        <v>17.09</v>
+        <v>17.08</v>
       </c>
       <c r="E18" t="n">
-        <v>17.08</v>
+        <v>16.99</v>
       </c>
       <c r="F18" t="n">
-        <v>20626.3714</v>
+        <v>28320.3984</v>
       </c>
       <c r="G18" t="n">
-        <v>16.65666666666667</v>
+        <v>16.64783333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17.05</v>
+        <v>17.08</v>
       </c>
       <c r="C19" t="n">
         <v>17.09</v>
@@ -1037,13 +1037,13 @@
         <v>17.09</v>
       </c>
       <c r="E19" t="n">
-        <v>17.05</v>
+        <v>17.08</v>
       </c>
       <c r="F19" t="n">
-        <v>15564.2007</v>
+        <v>20626.3714</v>
       </c>
       <c r="G19" t="n">
-        <v>16.66550000000001</v>
+        <v>16.65666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="C20" t="n">
         <v>17.09</v>
       </c>
-      <c r="C20" t="n">
-        <v>17.1</v>
-      </c>
       <c r="D20" t="n">
-        <v>17.1</v>
+        <v>17.09</v>
       </c>
       <c r="E20" t="n">
-        <v>17.09</v>
+        <v>17.05</v>
       </c>
       <c r="F20" t="n">
-        <v>13800.2852</v>
+        <v>15564.2007</v>
       </c>
       <c r="G20" t="n">
-        <v>16.67533333333334</v>
+        <v>16.66550000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17.05</v>
+        <v>17.09</v>
       </c>
       <c r="C21" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="D21" t="n">
-        <v>17.05</v>
+        <v>17.1</v>
       </c>
       <c r="E21" t="n">
-        <v>17.05</v>
+        <v>17.09</v>
       </c>
       <c r="F21" t="n">
-        <v>5165.6584</v>
+        <v>13800.2852</v>
       </c>
       <c r="G21" t="n">
-        <v>16.6855</v>
+        <v>16.67533333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>17.05</v>
       </c>
       <c r="F22" t="n">
-        <v>816.7768</v>
+        <v>5165.6584</v>
       </c>
       <c r="G22" t="n">
-        <v>16.69366666666667</v>
+        <v>16.6855</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16.9</v>
+        <v>17.05</v>
       </c>
       <c r="C23" t="n">
-        <v>16.9</v>
+        <v>17.05</v>
       </c>
       <c r="D23" t="n">
-        <v>16.9</v>
+        <v>17.05</v>
       </c>
       <c r="E23" t="n">
-        <v>16.9</v>
+        <v>17.05</v>
       </c>
       <c r="F23" t="n">
-        <v>2355.7089</v>
+        <v>816.7768</v>
       </c>
       <c r="G23" t="n">
-        <v>16.692</v>
+        <v>16.69366666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16.75</v>
+        <v>16.9</v>
       </c>
       <c r="C24" t="n">
-        <v>16.75</v>
+        <v>16.9</v>
       </c>
       <c r="D24" t="n">
-        <v>16.75</v>
+        <v>16.9</v>
       </c>
       <c r="E24" t="n">
-        <v>16.75</v>
+        <v>16.9</v>
       </c>
       <c r="F24" t="n">
-        <v>5767.0342</v>
+        <v>2355.7089</v>
       </c>
       <c r="G24" t="n">
-        <v>16.69283333333334</v>
+        <v>16.692</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>16.75</v>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>5767.0342</v>
       </c>
       <c r="G25" t="n">
-        <v>16.68883333333334</v>
+        <v>16.69283333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16.58</v>
+        <v>16.75</v>
       </c>
       <c r="C26" t="n">
-        <v>16.58</v>
+        <v>16.75</v>
       </c>
       <c r="D26" t="n">
-        <v>16.58</v>
+        <v>16.75</v>
       </c>
       <c r="E26" t="n">
-        <v>16.58</v>
+        <v>16.75</v>
       </c>
       <c r="F26" t="n">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="n">
-        <v>16.68516666666667</v>
+        <v>16.68883333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16.75</v>
+        <v>16.58</v>
       </c>
       <c r="C27" t="n">
-        <v>16.75</v>
+        <v>16.58</v>
       </c>
       <c r="D27" t="n">
-        <v>16.75</v>
+        <v>16.58</v>
       </c>
       <c r="E27" t="n">
-        <v>16.75</v>
+        <v>16.58</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="G27" t="n">
-        <v>16.68116666666667</v>
+        <v>16.68516666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16.55</v>
+        <v>16.75</v>
       </c>
       <c r="C28" t="n">
-        <v>16.55</v>
+        <v>16.75</v>
       </c>
       <c r="D28" t="n">
-        <v>16.55</v>
+        <v>16.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.55</v>
+        <v>16.75</v>
       </c>
       <c r="F28" t="n">
-        <v>176.4705</v>
+        <v>30</v>
       </c>
       <c r="G28" t="n">
-        <v>16.68033333333334</v>
+        <v>16.68116666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>16.55</v>
       </c>
       <c r="F29" t="n">
-        <v>61.8807</v>
+        <v>176.4705</v>
       </c>
       <c r="G29" t="n">
-        <v>16.681</v>
+        <v>16.68033333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>16.55</v>
       </c>
       <c r="C30" t="n">
-        <v>16.75</v>
+        <v>16.55</v>
       </c>
       <c r="D30" t="n">
-        <v>16.75</v>
+        <v>16.55</v>
       </c>
       <c r="E30" t="n">
-        <v>16.44</v>
+        <v>16.55</v>
       </c>
       <c r="F30" t="n">
-        <v>155467.0369</v>
+        <v>61.8807</v>
       </c>
       <c r="G30" t="n">
-        <v>16.68516666666667</v>
+        <v>16.681</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C31" t="n">
         <v>16.75</v>
       </c>
-      <c r="C31" t="n">
-        <v>16.9</v>
-      </c>
       <c r="D31" t="n">
-        <v>16.9</v>
+        <v>16.75</v>
       </c>
       <c r="E31" t="n">
-        <v>16.75</v>
+        <v>16.44</v>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>155467.0369</v>
       </c>
       <c r="G31" t="n">
-        <v>16.69166666666667</v>
+        <v>16.68516666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16.9</v>
+        <v>16.75</v>
       </c>
       <c r="C32" t="n">
         <v>16.9</v>
@@ -1492,13 +1492,13 @@
         <v>16.9</v>
       </c>
       <c r="E32" t="n">
-        <v>16.9</v>
+        <v>16.75</v>
       </c>
       <c r="F32" t="n">
-        <v>14182.4973</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="n">
-        <v>16.69816666666667</v>
+        <v>16.69166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.92</v>
+        <v>16.9</v>
       </c>
       <c r="C33" t="n">
-        <v>17.29</v>
+        <v>16.9</v>
       </c>
       <c r="D33" t="n">
-        <v>17.29</v>
+        <v>16.9</v>
       </c>
       <c r="E33" t="n">
-        <v>16.92</v>
+        <v>16.9</v>
       </c>
       <c r="F33" t="n">
-        <v>27611.4915</v>
+        <v>14182.4973</v>
       </c>
       <c r="G33" t="n">
-        <v>16.70316666666667</v>
+        <v>16.69816666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17.27</v>
+        <v>16.92</v>
       </c>
       <c r="C34" t="n">
-        <v>17.27</v>
+        <v>17.29</v>
       </c>
       <c r="D34" t="n">
-        <v>17.27</v>
+        <v>17.29</v>
       </c>
       <c r="E34" t="n">
-        <v>17.27</v>
+        <v>16.92</v>
       </c>
       <c r="F34" t="n">
-        <v>25629.8807</v>
+        <v>27611.4915</v>
       </c>
       <c r="G34" t="n">
-        <v>16.70783333333334</v>
+        <v>16.70316666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17.29</v>
+        <v>17.27</v>
       </c>
       <c r="C35" t="n">
-        <v>17.29</v>
+        <v>17.27</v>
       </c>
       <c r="D35" t="n">
-        <v>17.29</v>
+        <v>17.27</v>
       </c>
       <c r="E35" t="n">
-        <v>17.29</v>
+        <v>17.27</v>
       </c>
       <c r="F35" t="n">
-        <v>5097.0174</v>
+        <v>25629.8807</v>
       </c>
       <c r="G35" t="n">
-        <v>16.71283333333334</v>
+        <v>16.70783333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17.27</v>
+        <v>17.29</v>
       </c>
       <c r="C36" t="n">
-        <v>17.27</v>
+        <v>17.29</v>
       </c>
       <c r="D36" t="n">
-        <v>17.27</v>
+        <v>17.29</v>
       </c>
       <c r="E36" t="n">
-        <v>17.27</v>
+        <v>17.29</v>
       </c>
       <c r="F36" t="n">
-        <v>3955.6418</v>
+        <v>5097.0174</v>
       </c>
       <c r="G36" t="n">
-        <v>16.72066666666667</v>
+        <v>16.71283333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>17.27</v>
       </c>
       <c r="C37" t="n">
-        <v>17.01</v>
+        <v>17.27</v>
       </c>
       <c r="D37" t="n">
         <v>17.27</v>
       </c>
       <c r="E37" t="n">
-        <v>17.01</v>
+        <v>17.27</v>
       </c>
       <c r="F37" t="n">
-        <v>29326.8575</v>
+        <v>3955.6418</v>
       </c>
       <c r="G37" t="n">
-        <v>16.72433333333334</v>
+        <v>16.72066666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>17.27</v>
       </c>
       <c r="C38" t="n">
-        <v>17.27</v>
+        <v>17.01</v>
       </c>
       <c r="D38" t="n">
         <v>17.27</v>
       </c>
       <c r="E38" t="n">
-        <v>17.27</v>
+        <v>17.01</v>
       </c>
       <c r="F38" t="n">
-        <v>30</v>
+        <v>29326.8575</v>
       </c>
       <c r="G38" t="n">
-        <v>16.73683333333334</v>
+        <v>16.72433333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17.26</v>
+        <v>17.27</v>
       </c>
       <c r="C39" t="n">
-        <v>17.25</v>
+        <v>17.27</v>
       </c>
       <c r="D39" t="n">
-        <v>17.26</v>
+        <v>17.27</v>
       </c>
       <c r="E39" t="n">
-        <v>17.25</v>
+        <v>17.27</v>
       </c>
       <c r="F39" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G39" t="n">
-        <v>16.749</v>
+        <v>16.73683333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16.62</v>
+        <v>17.26</v>
       </c>
       <c r="C40" t="n">
-        <v>16.62</v>
+        <v>17.25</v>
       </c>
       <c r="D40" t="n">
-        <v>16.62</v>
+        <v>17.26</v>
       </c>
       <c r="E40" t="n">
-        <v>16.62</v>
+        <v>17.25</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="G40" t="n">
-        <v>16.75083333333334</v>
+        <v>16.749</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17.25</v>
+        <v>16.62</v>
       </c>
       <c r="C41" t="n">
-        <v>16.51</v>
+        <v>16.62</v>
       </c>
       <c r="D41" t="n">
-        <v>17.25</v>
+        <v>16.62</v>
       </c>
       <c r="E41" t="n">
-        <v>16.51</v>
+        <v>16.62</v>
       </c>
       <c r="F41" t="n">
-        <v>160032.6574</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="n">
-        <v>16.74616666666667</v>
+        <v>16.75083333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17.23</v>
+        <v>17.25</v>
       </c>
       <c r="C42" t="n">
         <v>16.51</v>
       </c>
       <c r="D42" t="n">
-        <v>17.24</v>
+        <v>17.25</v>
       </c>
       <c r="E42" t="n">
         <v>16.51</v>
       </c>
       <c r="F42" t="n">
-        <v>68000</v>
+        <v>160032.6574</v>
       </c>
       <c r="G42" t="n">
-        <v>16.74583333333334</v>
+        <v>16.74616666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17.21</v>
+        <v>17.23</v>
       </c>
       <c r="C43" t="n">
-        <v>17.21</v>
+        <v>16.51</v>
       </c>
       <c r="D43" t="n">
-        <v>17.21</v>
+        <v>17.24</v>
       </c>
       <c r="E43" t="n">
-        <v>17.21</v>
+        <v>16.51</v>
       </c>
       <c r="F43" t="n">
-        <v>10000</v>
+        <v>68000</v>
       </c>
       <c r="G43" t="n">
-        <v>16.75316666666667</v>
+        <v>16.74583333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17.2</v>
+        <v>17.21</v>
       </c>
       <c r="C44" t="n">
-        <v>17.15</v>
+        <v>17.21</v>
       </c>
       <c r="D44" t="n">
-        <v>17.22</v>
+        <v>17.21</v>
       </c>
       <c r="E44" t="n">
-        <v>17.15</v>
+        <v>17.21</v>
       </c>
       <c r="F44" t="n">
-        <v>32225.5276</v>
+        <v>10000</v>
       </c>
       <c r="G44" t="n">
-        <v>16.7635</v>
+        <v>16.75316666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17.21</v>
+        <v>17.2</v>
       </c>
       <c r="C45" t="n">
-        <v>16.9</v>
+        <v>17.15</v>
       </c>
       <c r="D45" t="n">
-        <v>17.21</v>
+        <v>17.22</v>
       </c>
       <c r="E45" t="n">
-        <v>16.9</v>
+        <v>17.15</v>
       </c>
       <c r="F45" t="n">
-        <v>90000</v>
+        <v>32225.5276</v>
       </c>
       <c r="G45" t="n">
-        <v>16.7695</v>
+        <v>16.7635</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17.1</v>
+        <v>17.21</v>
       </c>
       <c r="C46" t="n">
-        <v>17.22</v>
+        <v>16.9</v>
       </c>
       <c r="D46" t="n">
-        <v>17.22</v>
+        <v>17.21</v>
       </c>
       <c r="E46" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="F46" t="n">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="G46" t="n">
-        <v>16.78083333333334</v>
+        <v>16.7695</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="C47" t="n">
-        <v>17.2</v>
+        <v>17.22</v>
       </c>
       <c r="D47" t="n">
-        <v>17.2</v>
+        <v>17.22</v>
       </c>
       <c r="E47" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="F47" t="n">
-        <v>18538.8024</v>
+        <v>30000</v>
       </c>
       <c r="G47" t="n">
-        <v>16.79100000000001</v>
+        <v>16.78083333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>17.2</v>
       </c>
       <c r="C48" t="n">
-        <v>17.24</v>
+        <v>17.2</v>
       </c>
       <c r="D48" t="n">
-        <v>17.24</v>
+        <v>17.2</v>
       </c>
       <c r="E48" t="n">
         <v>17.2</v>
       </c>
       <c r="F48" t="n">
-        <v>30865.1069</v>
+        <v>18538.8024</v>
       </c>
       <c r="G48" t="n">
-        <v>16.80183333333334</v>
+        <v>16.79100000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17.24</v>
+        <v>17.2</v>
       </c>
       <c r="C49" t="n">
         <v>17.24</v>
@@ -2087,13 +2087,13 @@
         <v>17.24</v>
       </c>
       <c r="E49" t="n">
-        <v>17.24</v>
+        <v>17.2</v>
       </c>
       <c r="F49" t="n">
-        <v>19919.2991</v>
+        <v>30865.1069</v>
       </c>
       <c r="G49" t="n">
-        <v>16.81366666666667</v>
+        <v>16.80183333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17.05</v>
+        <v>17.24</v>
       </c>
       <c r="C50" t="n">
-        <v>17.05</v>
+        <v>17.24</v>
       </c>
       <c r="D50" t="n">
-        <v>17.05</v>
+        <v>17.24</v>
       </c>
       <c r="E50" t="n">
-        <v>17.05</v>
+        <v>17.24</v>
       </c>
       <c r="F50" t="n">
-        <v>15123.5265</v>
+        <v>19919.2991</v>
       </c>
       <c r="G50" t="n">
-        <v>16.822</v>
+        <v>16.81366666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>17.05</v>
       </c>
       <c r="C51" t="n">
-        <v>16.9</v>
+        <v>17.05</v>
       </c>
       <c r="D51" t="n">
         <v>17.05</v>
       </c>
       <c r="E51" t="n">
-        <v>16.9</v>
+        <v>17.05</v>
       </c>
       <c r="F51" t="n">
-        <v>53569.0392</v>
+        <v>15123.5265</v>
       </c>
       <c r="G51" t="n">
-        <v>16.82783333333334</v>
+        <v>16.822</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16.59</v>
+        <v>17.05</v>
       </c>
       <c r="C52" t="n">
         <v>16.9</v>
       </c>
       <c r="D52" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="E52" t="n">
         <v>16.9</v>
       </c>
-      <c r="E52" t="n">
-        <v>16.57</v>
-      </c>
       <c r="F52" t="n">
-        <v>62702.877</v>
+        <v>53569.0392</v>
       </c>
       <c r="G52" t="n">
-        <v>16.83300000000001</v>
+        <v>16.82783333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16.96</v>
+        <v>16.59</v>
       </c>
       <c r="C53" t="n">
-        <v>17.24</v>
+        <v>16.9</v>
       </c>
       <c r="D53" t="n">
-        <v>17.24</v>
+        <v>16.9</v>
       </c>
       <c r="E53" t="n">
-        <v>16.96</v>
+        <v>16.57</v>
       </c>
       <c r="F53" t="n">
-        <v>18460.4735</v>
+        <v>62702.877</v>
       </c>
       <c r="G53" t="n">
-        <v>16.84366666666667</v>
+        <v>16.83300000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17</v>
+        <v>16.96</v>
       </c>
       <c r="C54" t="n">
-        <v>16.57</v>
+        <v>17.24</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>17.24</v>
       </c>
       <c r="E54" t="n">
-        <v>16.57</v>
+        <v>16.96</v>
       </c>
       <c r="F54" t="n">
-        <v>26787.2525</v>
+        <v>18460.4735</v>
       </c>
       <c r="G54" t="n">
-        <v>16.84333333333334</v>
+        <v>16.84366666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.71</v>
+        <v>17</v>
       </c>
       <c r="C55" t="n">
-        <v>16.71</v>
+        <v>16.57</v>
       </c>
       <c r="D55" t="n">
-        <v>16.71</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>16.71</v>
+        <v>16.57</v>
       </c>
       <c r="F55" t="n">
-        <v>3302.9803</v>
+        <v>26787.2525</v>
       </c>
       <c r="G55" t="n">
-        <v>16.846</v>
+        <v>16.84333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16.57</v>
+        <v>16.71</v>
       </c>
       <c r="C56" t="n">
-        <v>16.57</v>
+        <v>16.71</v>
       </c>
       <c r="D56" t="n">
-        <v>16.57</v>
+        <v>16.71</v>
       </c>
       <c r="E56" t="n">
-        <v>16.57</v>
+        <v>16.71</v>
       </c>
       <c r="F56" t="n">
-        <v>22326.9004</v>
+        <v>3302.9803</v>
       </c>
       <c r="G56" t="n">
-        <v>16.84633333333334</v>
+        <v>16.846</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17.1</v>
+        <v>16.57</v>
       </c>
       <c r="C57" t="n">
-        <v>17.1</v>
+        <v>16.57</v>
       </c>
       <c r="D57" t="n">
-        <v>17.1</v>
+        <v>16.57</v>
       </c>
       <c r="E57" t="n">
-        <v>17.1</v>
+        <v>16.57</v>
       </c>
       <c r="F57" t="n">
-        <v>1754.386</v>
+        <v>22326.9004</v>
       </c>
       <c r="G57" t="n">
-        <v>16.8555</v>
+        <v>16.84633333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17.09</v>
+        <v>17.1</v>
       </c>
       <c r="C58" t="n">
-        <v>17.09</v>
+        <v>17.1</v>
       </c>
       <c r="D58" t="n">
-        <v>17.09</v>
+        <v>17.1</v>
       </c>
       <c r="E58" t="n">
-        <v>17.09</v>
+        <v>17.1</v>
       </c>
       <c r="F58" t="n">
-        <v>27744.3132</v>
+        <v>1754.386</v>
       </c>
       <c r="G58" t="n">
-        <v>16.86516666666667</v>
+        <v>16.8555</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>17.09</v>
       </c>
       <c r="F59" t="n">
-        <v>2255.6868</v>
+        <v>27744.3132</v>
       </c>
       <c r="G59" t="n">
-        <v>16.8715</v>
+        <v>16.86516666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17.1</v>
+        <v>17.09</v>
       </c>
       <c r="C60" t="n">
-        <v>17.1</v>
+        <v>17.09</v>
       </c>
       <c r="D60" t="n">
-        <v>17.1</v>
+        <v>17.09</v>
       </c>
       <c r="E60" t="n">
-        <v>17.1</v>
+        <v>17.09</v>
       </c>
       <c r="F60" t="n">
-        <v>30</v>
+        <v>2255.6868</v>
       </c>
       <c r="G60" t="n">
-        <v>16.878</v>
+        <v>16.8715</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16.76</v>
+        <v>17.1</v>
       </c>
       <c r="C61" t="n">
-        <v>16.76</v>
+        <v>17.1</v>
       </c>
       <c r="D61" t="n">
-        <v>16.76</v>
+        <v>17.1</v>
       </c>
       <c r="E61" t="n">
-        <v>16.76</v>
+        <v>17.1</v>
       </c>
       <c r="F61" t="n">
-        <v>522.4483</v>
+        <v>30</v>
       </c>
       <c r="G61" t="n">
-        <v>16.87883333333333</v>
+        <v>16.878</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17.1</v>
+        <v>16.76</v>
       </c>
       <c r="C62" t="n">
-        <v>17.1</v>
+        <v>16.76</v>
       </c>
       <c r="D62" t="n">
-        <v>17.1</v>
+        <v>16.76</v>
       </c>
       <c r="E62" t="n">
-        <v>17.1</v>
+        <v>16.76</v>
       </c>
       <c r="F62" t="n">
-        <v>30</v>
+        <v>522.4483</v>
       </c>
       <c r="G62" t="n">
-        <v>16.88516666666666</v>
+        <v>16.87883333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16.81</v>
+        <v>17.1</v>
       </c>
       <c r="C63" t="n">
-        <v>16.75</v>
+        <v>17.1</v>
       </c>
       <c r="D63" t="n">
-        <v>16.81</v>
+        <v>17.1</v>
       </c>
       <c r="E63" t="n">
-        <v>16.75</v>
+        <v>17.1</v>
       </c>
       <c r="F63" t="n">
-        <v>6628.7647</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>16.88883333333333</v>
+        <v>16.88516666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="C64" t="n">
         <v>16.75</v>
       </c>
-      <c r="C64" t="n">
-        <v>16.8</v>
-      </c>
       <c r="D64" t="n">
-        <v>16.8</v>
+        <v>16.81</v>
       </c>
       <c r="E64" t="n">
         <v>16.75</v>
       </c>
       <c r="F64" t="n">
-        <v>182.6574</v>
+        <v>6628.7647</v>
       </c>
       <c r="G64" t="n">
-        <v>16.89366666666666</v>
+        <v>16.88883333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C65" t="n">
         <v>16.8</v>
       </c>
-      <c r="C65" t="n">
-        <v>17.09</v>
-      </c>
       <c r="D65" t="n">
-        <v>17.09</v>
+        <v>16.8</v>
       </c>
       <c r="E65" t="n">
-        <v>16.8</v>
+        <v>16.75</v>
       </c>
       <c r="F65" t="n">
-        <v>57643.6912</v>
+        <v>182.6574</v>
       </c>
       <c r="G65" t="n">
-        <v>16.90333333333333</v>
+        <v>16.89366666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="C66" t="n">
-        <v>16.9</v>
+        <v>17.09</v>
       </c>
       <c r="D66" t="n">
-        <v>16.9</v>
+        <v>17.09</v>
       </c>
       <c r="E66" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="F66" t="n">
-        <v>3492.4102</v>
+        <v>57643.6912</v>
       </c>
       <c r="G66" t="n">
-        <v>16.90949999999999</v>
+        <v>16.90333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="C67" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="D67" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="E67" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="F67" t="n">
         <v>3492.4102</v>
       </c>
       <c r="G67" t="n">
-        <v>16.91399999999999</v>
+        <v>16.90949999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="C68" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="D68" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="E68" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="F68" t="n">
-        <v>30</v>
+        <v>3492.4102</v>
       </c>
       <c r="G68" t="n">
-        <v>16.92149999999999</v>
+        <v>16.91399999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>16.9</v>
       </c>
       <c r="F69" t="n">
-        <v>13623.3062</v>
+        <v>30</v>
       </c>
       <c r="G69" t="n">
-        <v>16.92766666666666</v>
+        <v>16.92149999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.75</v>
+        <v>16.9</v>
       </c>
       <c r="C70" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="D70" t="n">
-        <v>16.75</v>
+        <v>16.9</v>
       </c>
       <c r="E70" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="F70" t="n">
-        <v>12390.8072</v>
+        <v>13623.3062</v>
       </c>
       <c r="G70" t="n">
-        <v>16.9275</v>
+        <v>16.92766666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.8</v>
+        <v>16.75</v>
       </c>
       <c r="C71" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="D71" t="n">
-        <v>16.8</v>
+        <v>16.75</v>
       </c>
       <c r="E71" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>12390.8072</v>
       </c>
       <c r="G71" t="n">
-        <v>16.92899999999999</v>
+        <v>16.9275</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="C72" t="n">
-        <v>16.57</v>
+        <v>16.8</v>
       </c>
       <c r="D72" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="E72" t="n">
-        <v>16.57</v>
+        <v>16.8</v>
       </c>
       <c r="F72" t="n">
-        <v>100000</v>
+        <v>30</v>
       </c>
       <c r="G72" t="n">
-        <v>16.92966666666666</v>
+        <v>16.92899999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="C73" t="n">
-        <v>17.09</v>
+        <v>16.57</v>
       </c>
       <c r="D73" t="n">
-        <v>17.09</v>
+        <v>16.7</v>
       </c>
       <c r="E73" t="n">
-        <v>16.8</v>
+        <v>16.57</v>
       </c>
       <c r="F73" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G73" t="n">
-        <v>16.939</v>
+        <v>16.92966666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.61</v>
+        <v>16.8</v>
       </c>
       <c r="C74" t="n">
-        <v>16.61</v>
+        <v>17.09</v>
       </c>
       <c r="D74" t="n">
-        <v>16.61</v>
+        <v>17.09</v>
       </c>
       <c r="E74" t="n">
-        <v>16.61</v>
+        <v>16.8</v>
       </c>
       <c r="F74" t="n">
-        <v>715.6205</v>
+        <v>30000</v>
       </c>
       <c r="G74" t="n">
-        <v>16.93666666666666</v>
+        <v>16.939</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17.03</v>
+        <v>16.61</v>
       </c>
       <c r="C75" t="n">
-        <v>17.03</v>
+        <v>16.61</v>
       </c>
       <c r="D75" t="n">
-        <v>17.03</v>
+        <v>16.61</v>
       </c>
       <c r="E75" t="n">
-        <v>17.03</v>
+        <v>16.61</v>
       </c>
       <c r="F75" t="n">
-        <v>16780.5187</v>
+        <v>715.6205</v>
       </c>
       <c r="G75" t="n">
-        <v>16.93999999999999</v>
+        <v>16.93666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.7</v>
+        <v>17.03</v>
       </c>
       <c r="C76" t="n">
-        <v>16.7</v>
+        <v>17.03</v>
       </c>
       <c r="D76" t="n">
-        <v>16.7</v>
+        <v>17.03</v>
       </c>
       <c r="E76" t="n">
-        <v>16.7</v>
+        <v>17.03</v>
       </c>
       <c r="F76" t="n">
-        <v>6762.1837</v>
+        <v>16780.5187</v>
       </c>
       <c r="G76" t="n">
-        <v>16.93516666666666</v>
+        <v>16.93999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>16.7</v>
       </c>
       <c r="F77" t="n">
-        <v>3447.2858</v>
+        <v>6762.1837</v>
       </c>
       <c r="G77" t="n">
-        <v>16.92883333333332</v>
+        <v>16.93516666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.61</v>
+        <v>16.7</v>
       </c>
       <c r="C78" t="n">
-        <v>16.57</v>
+        <v>16.7</v>
       </c>
       <c r="D78" t="n">
-        <v>16.61</v>
+        <v>16.7</v>
       </c>
       <c r="E78" t="n">
-        <v>16.57</v>
+        <v>16.7</v>
       </c>
       <c r="F78" t="n">
-        <v>9720.168600000001</v>
+        <v>3447.2858</v>
       </c>
       <c r="G78" t="n">
-        <v>16.92016666666666</v>
+        <v>16.92883333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="C79" t="n">
         <v>16.57</v>
       </c>
-      <c r="C79" t="n">
-        <v>16.54</v>
-      </c>
       <c r="D79" t="n">
-        <v>16.6</v>
+        <v>16.61</v>
       </c>
       <c r="E79" t="n">
-        <v>16.54</v>
+        <v>16.57</v>
       </c>
       <c r="F79" t="n">
-        <v>41176.4633</v>
+        <v>9720.168600000001</v>
       </c>
       <c r="G79" t="n">
-        <v>16.91099999999999</v>
+        <v>16.92016666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17</v>
+        <v>16.57</v>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>16.54</v>
       </c>
       <c r="D80" t="n">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="E80" t="n">
-        <v>17</v>
+        <v>16.54</v>
       </c>
       <c r="F80" t="n">
-        <v>2521.4727</v>
+        <v>41176.4633</v>
       </c>
       <c r="G80" t="n">
-        <v>16.90933333333332</v>
+        <v>16.91099999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>22693.7831</v>
+        <v>2521.4727</v>
       </c>
       <c r="G81" t="n">
-        <v>16.90849999999999</v>
+        <v>16.90933333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16.99</v>
+        <v>17</v>
       </c>
       <c r="C82" t="n">
-        <v>16.99</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>16.99</v>
+        <v>17</v>
       </c>
       <c r="E82" t="n">
-        <v>16.99</v>
+        <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>1177.163037080636</v>
+        <v>22693.7831</v>
       </c>
       <c r="G82" t="n">
-        <v>16.90749999999999</v>
+        <v>16.90849999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.98</v>
+        <v>16.99</v>
       </c>
       <c r="C83" t="n">
-        <v>16.98</v>
+        <v>16.99</v>
       </c>
       <c r="D83" t="n">
-        <v>16.98</v>
+        <v>16.99</v>
       </c>
       <c r="E83" t="n">
-        <v>16.98</v>
+        <v>16.99</v>
       </c>
       <c r="F83" t="n">
-        <v>57.2626</v>
+        <v>1177.163037080636</v>
       </c>
       <c r="G83" t="n">
-        <v>16.90883333333333</v>
+        <v>16.90749999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>16.98</v>
       </c>
       <c r="F84" t="n">
-        <v>18152.7406</v>
+        <v>57.2626</v>
       </c>
       <c r="G84" t="n">
-        <v>16.91266666666666</v>
+        <v>16.90883333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17</v>
+        <v>16.98</v>
       </c>
       <c r="C85" t="n">
-        <v>17.08</v>
+        <v>16.98</v>
       </c>
       <c r="D85" t="n">
-        <v>17.08</v>
+        <v>16.98</v>
       </c>
       <c r="E85" t="n">
-        <v>17</v>
+        <v>16.98</v>
       </c>
       <c r="F85" t="n">
-        <v>7101.0139</v>
+        <v>18152.7406</v>
       </c>
       <c r="G85" t="n">
-        <v>16.91816666666666</v>
+        <v>16.91266666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17.07</v>
+        <v>17</v>
       </c>
       <c r="C86" t="n">
         <v>17.08</v>
@@ -3382,13 +3382,13 @@
         <v>17.08</v>
       </c>
       <c r="E86" t="n">
-        <v>17.07</v>
+        <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>9411.4175</v>
+        <v>7101.0139</v>
       </c>
       <c r="G86" t="n">
-        <v>16.92649999999999</v>
+        <v>16.91816666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17</v>
+        <v>17.07</v>
       </c>
       <c r="C87" t="n">
-        <v>16.98</v>
+        <v>17.08</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>17.08</v>
       </c>
       <c r="E87" t="n">
-        <v>16.98</v>
+        <v>17.07</v>
       </c>
       <c r="F87" t="n">
-        <v>49281.6865</v>
+        <v>9411.4175</v>
       </c>
       <c r="G87" t="n">
-        <v>16.93033333333332</v>
+        <v>16.92649999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16.88</v>
+        <v>17</v>
       </c>
       <c r="C88" t="n">
-        <v>16.88</v>
+        <v>16.98</v>
       </c>
       <c r="D88" t="n">
-        <v>16.88</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n">
-        <v>16.88</v>
+        <v>16.98</v>
       </c>
       <c r="F88" t="n">
-        <v>3124.2207</v>
+        <v>49281.6865</v>
       </c>
       <c r="G88" t="n">
-        <v>16.93583333333332</v>
+        <v>16.93033333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16.7</v>
+        <v>16.88</v>
       </c>
       <c r="C89" t="n">
-        <v>16.7</v>
+        <v>16.88</v>
       </c>
       <c r="D89" t="n">
-        <v>16.7</v>
+        <v>16.88</v>
       </c>
       <c r="E89" t="n">
-        <v>16.7</v>
+        <v>16.88</v>
       </c>
       <c r="F89" t="n">
-        <v>2275.5561</v>
+        <v>3124.2207</v>
       </c>
       <c r="G89" t="n">
-        <v>16.93833333333333</v>
+        <v>16.93583333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16.88</v>
+        <v>16.7</v>
       </c>
       <c r="C90" t="n">
-        <v>16.88</v>
+        <v>16.7</v>
       </c>
       <c r="D90" t="n">
-        <v>16.88</v>
+        <v>16.7</v>
       </c>
       <c r="E90" t="n">
-        <v>16.88</v>
+        <v>16.7</v>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>2275.5561</v>
       </c>
       <c r="G90" t="n">
-        <v>16.94049999999999</v>
+        <v>16.93833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16.9</v>
+        <v>16.88</v>
       </c>
       <c r="C91" t="n">
-        <v>16.9</v>
+        <v>16.88</v>
       </c>
       <c r="D91" t="n">
-        <v>16.9</v>
+        <v>16.88</v>
       </c>
       <c r="E91" t="n">
-        <v>16.9</v>
+        <v>16.88</v>
       </c>
       <c r="F91" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>16.9405</v>
+        <v>16.94049999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="C92" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="D92" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="E92" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="F92" t="n">
-        <v>78412.93889999999</v>
+        <v>30</v>
       </c>
       <c r="G92" t="n">
-        <v>16.9355</v>
+        <v>16.9405</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C93" t="n">
         <v>16.6</v>
       </c>
-      <c r="C93" t="n">
-        <v>16.55</v>
-      </c>
       <c r="D93" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E93" t="n">
         <v>16.6</v>
       </c>
-      <c r="E93" t="n">
-        <v>16.55</v>
-      </c>
       <c r="F93" t="n">
-        <v>11000.3199</v>
+        <v>78412.93889999999</v>
       </c>
       <c r="G93" t="n">
-        <v>16.92316666666666</v>
+        <v>16.9355</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C94" t="n">
         <v>16.55</v>
       </c>
-      <c r="C94" t="n">
-        <v>16.89</v>
-      </c>
       <c r="D94" t="n">
-        <v>16.89</v>
+        <v>16.6</v>
       </c>
       <c r="E94" t="n">
         <v>16.55</v>
       </c>
       <c r="F94" t="n">
-        <v>4083.9518</v>
+        <v>11000.3199</v>
       </c>
       <c r="G94" t="n">
-        <v>16.91683333333333</v>
+        <v>16.92316666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16.89</v>
+        <v>16.55</v>
       </c>
       <c r="C95" t="n">
         <v>16.89</v>
@@ -3697,13 +3697,13 @@
         <v>16.89</v>
       </c>
       <c r="E95" t="n">
-        <v>16.89</v>
+        <v>16.55</v>
       </c>
       <c r="F95" t="n">
-        <v>5635</v>
+        <v>4083.9518</v>
       </c>
       <c r="G95" t="n">
-        <v>16.91016666666667</v>
+        <v>16.91683333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.88</v>
+        <v>16.89</v>
       </c>
       <c r="C96" t="n">
-        <v>17.09</v>
+        <v>16.89</v>
       </c>
       <c r="D96" t="n">
-        <v>17.09</v>
+        <v>16.89</v>
       </c>
       <c r="E96" t="n">
-        <v>16.88</v>
+        <v>16.89</v>
       </c>
       <c r="F96" t="n">
-        <v>117394.7571</v>
+        <v>5635</v>
       </c>
       <c r="G96" t="n">
-        <v>16.90716666666667</v>
+        <v>16.91016666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17.1</v>
+        <v>16.88</v>
       </c>
       <c r="C97" t="n">
-        <v>17.19</v>
+        <v>17.09</v>
       </c>
       <c r="D97" t="n">
-        <v>17.19</v>
+        <v>17.09</v>
       </c>
       <c r="E97" t="n">
-        <v>17.1</v>
+        <v>16.88</v>
       </c>
       <c r="F97" t="n">
-        <v>87687.2522</v>
+        <v>117394.7571</v>
       </c>
       <c r="G97" t="n">
-        <v>16.91016666666667</v>
+        <v>16.90716666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17.24</v>
+        <v>17.1</v>
       </c>
       <c r="C98" t="n">
-        <v>17.31</v>
+        <v>17.19</v>
       </c>
       <c r="D98" t="n">
-        <v>17.31</v>
+        <v>17.19</v>
       </c>
       <c r="E98" t="n">
-        <v>17.24</v>
+        <v>17.1</v>
       </c>
       <c r="F98" t="n">
-        <v>145604.466</v>
+        <v>87687.2522</v>
       </c>
       <c r="G98" t="n">
-        <v>16.91083333333334</v>
+        <v>16.91016666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17.32</v>
+        <v>17.24</v>
       </c>
       <c r="C99" t="n">
-        <v>17.55</v>
+        <v>17.31</v>
       </c>
       <c r="D99" t="n">
-        <v>17.55</v>
+        <v>17.31</v>
       </c>
       <c r="E99" t="n">
-        <v>17.32</v>
+        <v>17.24</v>
       </c>
       <c r="F99" t="n">
-        <v>168401.3751</v>
+        <v>145604.466</v>
       </c>
       <c r="G99" t="n">
-        <v>16.91583333333334</v>
+        <v>16.91083333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="C100" t="n">
         <v>17.55</v>
       </c>
-      <c r="C100" t="n">
-        <v>17.63</v>
-      </c>
       <c r="D100" t="n">
-        <v>17.63</v>
+        <v>17.55</v>
       </c>
       <c r="E100" t="n">
-        <v>17.55</v>
+        <v>17.32</v>
       </c>
       <c r="F100" t="n">
-        <v>198163.5695</v>
+        <v>168401.3751</v>
       </c>
       <c r="G100" t="n">
-        <v>16.93266666666667</v>
+        <v>16.91583333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17.62</v>
+        <v>17.55</v>
       </c>
       <c r="C101" t="n">
         <v>17.63</v>
@@ -3907,13 +3907,13 @@
         <v>17.63</v>
       </c>
       <c r="E101" t="n">
-        <v>17.62</v>
+        <v>17.55</v>
       </c>
       <c r="F101" t="n">
-        <v>32109.5291</v>
+        <v>198163.5695</v>
       </c>
       <c r="G101" t="n">
-        <v>16.95133333333333</v>
+        <v>16.93266666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>17.55</v>
+        <v>17.62</v>
       </c>
       <c r="C102" t="n">
-        <v>17.55</v>
+        <v>17.63</v>
       </c>
       <c r="D102" t="n">
-        <v>17.55</v>
+        <v>17.63</v>
       </c>
       <c r="E102" t="n">
-        <v>17.55</v>
+        <v>17.62</v>
       </c>
       <c r="F102" t="n">
-        <v>13822.2358</v>
+        <v>32109.5291</v>
       </c>
       <c r="G102" t="n">
-        <v>16.96866666666667</v>
+        <v>16.95133333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>17.63</v>
+        <v>17.55</v>
       </c>
       <c r="C103" t="n">
-        <v>17.63</v>
+        <v>17.55</v>
       </c>
       <c r="D103" t="n">
-        <v>17.63</v>
+        <v>17.55</v>
       </c>
       <c r="E103" t="n">
-        <v>17.63</v>
+        <v>17.55</v>
       </c>
       <c r="F103" t="n">
-        <v>29</v>
+        <v>13822.2358</v>
       </c>
       <c r="G103" t="n">
-        <v>16.97566666666667</v>
+        <v>16.96866666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>17.41</v>
+        <v>17.63</v>
       </c>
       <c r="C104" t="n">
-        <v>17.41</v>
+        <v>17.63</v>
       </c>
       <c r="D104" t="n">
-        <v>17.41</v>
+        <v>17.63</v>
       </c>
       <c r="E104" t="n">
-        <v>17.41</v>
+        <v>17.63</v>
       </c>
       <c r="F104" t="n">
-        <v>1910.0385</v>
+        <v>29</v>
       </c>
       <c r="G104" t="n">
-        <v>16.98</v>
+        <v>16.97566666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>17.41</v>
       </c>
       <c r="F105" t="n">
-        <v>2157.2959</v>
+        <v>1910.0385</v>
       </c>
       <c r="G105" t="n">
-        <v>16.98850000000001</v>
+        <v>16.98</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>17.63</v>
+        <v>17.41</v>
       </c>
       <c r="C106" t="n">
-        <v>17.63</v>
+        <v>17.41</v>
       </c>
       <c r="D106" t="n">
-        <v>17.63</v>
+        <v>17.41</v>
       </c>
       <c r="E106" t="n">
-        <v>17.63</v>
+        <v>17.41</v>
       </c>
       <c r="F106" t="n">
-        <v>15369.7955</v>
+        <v>2157.2959</v>
       </c>
       <c r="G106" t="n">
-        <v>16.99533333333334</v>
+        <v>16.98850000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>17.63</v>
       </c>
       <c r="C107" t="n">
-        <v>17.79</v>
+        <v>17.63</v>
       </c>
       <c r="D107" t="n">
-        <v>17.79</v>
+        <v>17.63</v>
       </c>
       <c r="E107" t="n">
         <v>17.63</v>
       </c>
       <c r="F107" t="n">
-        <v>37629.1146</v>
+        <v>15369.7955</v>
       </c>
       <c r="G107" t="n">
-        <v>17.00516666666667</v>
+        <v>16.99533333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>17.79</v>
+        <v>17.63</v>
       </c>
       <c r="C108" t="n">
         <v>17.79</v>
@@ -4152,13 +4152,13 @@
         <v>17.79</v>
       </c>
       <c r="E108" t="n">
-        <v>17.79</v>
+        <v>17.63</v>
       </c>
       <c r="F108" t="n">
-        <v>18422.0621</v>
+        <v>37629.1146</v>
       </c>
       <c r="G108" t="n">
-        <v>17.01433333333334</v>
+        <v>17.00516666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>17.79</v>
       </c>
       <c r="C109" t="n">
-        <v>17.39</v>
+        <v>17.79</v>
       </c>
       <c r="D109" t="n">
         <v>17.79</v>
       </c>
       <c r="E109" t="n">
-        <v>17.39</v>
+        <v>17.79</v>
       </c>
       <c r="F109" t="n">
-        <v>35044.5429</v>
+        <v>18422.0621</v>
       </c>
       <c r="G109" t="n">
-        <v>17.01683333333334</v>
+        <v>17.01433333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,28 +4213,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>17.7</v>
+        <v>17.79</v>
       </c>
       <c r="C110" t="n">
-        <v>17.7</v>
+        <v>17.39</v>
       </c>
       <c r="D110" t="n">
-        <v>17.7</v>
+        <v>17.79</v>
       </c>
       <c r="E110" t="n">
-        <v>17.7</v>
+        <v>17.39</v>
       </c>
       <c r="F110" t="n">
-        <v>29</v>
+        <v>35044.5429</v>
       </c>
       <c r="G110" t="n">
-        <v>17.02766666666667</v>
+        <v>17.01683333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4251,19 +4251,19 @@
         <v>17.7</v>
       </c>
       <c r="C111" t="n">
-        <v>17.79</v>
+        <v>17.7</v>
       </c>
       <c r="D111" t="n">
-        <v>17.79</v>
+        <v>17.7</v>
       </c>
       <c r="E111" t="n">
         <v>17.7</v>
       </c>
       <c r="F111" t="n">
-        <v>10728.85494367622</v>
+        <v>29</v>
       </c>
       <c r="G111" t="n">
-        <v>17.0425</v>
+        <v>17.02766666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>17.79</v>
+        <v>17.7</v>
       </c>
       <c r="C112" t="n">
         <v>17.79</v>
@@ -4292,13 +4292,13 @@
         <v>17.79</v>
       </c>
       <c r="E112" t="n">
-        <v>17.79</v>
+        <v>17.7</v>
       </c>
       <c r="F112" t="n">
-        <v>11961.414</v>
+        <v>10728.85494367622</v>
       </c>
       <c r="G112" t="n">
-        <v>17.05733333333334</v>
+        <v>17.0425</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>17.69</v>
+        <v>17.79</v>
       </c>
       <c r="C113" t="n">
-        <v>17.69</v>
+        <v>17.79</v>
       </c>
       <c r="D113" t="n">
-        <v>17.69</v>
+        <v>17.79</v>
       </c>
       <c r="E113" t="n">
-        <v>17.69</v>
+        <v>17.79</v>
       </c>
       <c r="F113" t="n">
-        <v>9419.413</v>
+        <v>11961.414</v>
       </c>
       <c r="G113" t="n">
-        <v>17.06483333333334</v>
+        <v>17.05733333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>17.53</v>
+        <v>17.69</v>
       </c>
       <c r="C114" t="n">
-        <v>17.64</v>
+        <v>17.69</v>
       </c>
       <c r="D114" t="n">
-        <v>17.64</v>
+        <v>17.69</v>
       </c>
       <c r="E114" t="n">
-        <v>17.53</v>
+        <v>17.69</v>
       </c>
       <c r="F114" t="n">
-        <v>13290.2346</v>
+        <v>9419.413</v>
       </c>
       <c r="G114" t="n">
-        <v>17.08266666666668</v>
+        <v>17.06483333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>17.53</v>
       </c>
       <c r="C115" t="n">
-        <v>17.34</v>
+        <v>17.64</v>
       </c>
       <c r="D115" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="E115" t="n">
         <v>17.53</v>
       </c>
-      <c r="E115" t="n">
-        <v>17.34</v>
-      </c>
       <c r="F115" t="n">
-        <v>41070.8653</v>
+        <v>13290.2346</v>
       </c>
       <c r="G115" t="n">
-        <v>17.09316666666667</v>
+        <v>17.08266666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>17.59</v>
+        <v>17.53</v>
       </c>
       <c r="C116" t="n">
         <v>17.34</v>
       </c>
       <c r="D116" t="n">
-        <v>17.59</v>
+        <v>17.53</v>
       </c>
       <c r="E116" t="n">
         <v>17.34</v>
       </c>
       <c r="F116" t="n">
-        <v>38029.5433</v>
+        <v>41070.8653</v>
       </c>
       <c r="G116" t="n">
-        <v>17.10600000000001</v>
+        <v>17.09316666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>17.32</v>
+        <v>17.59</v>
       </c>
       <c r="C117" t="n">
-        <v>17.32</v>
+        <v>17.34</v>
       </c>
       <c r="D117" t="n">
-        <v>17.32</v>
+        <v>17.59</v>
       </c>
       <c r="E117" t="n">
-        <v>17.32</v>
+        <v>17.34</v>
       </c>
       <c r="F117" t="n">
-        <v>11385.5314</v>
+        <v>38029.5433</v>
       </c>
       <c r="G117" t="n">
-        <v>17.10966666666667</v>
+        <v>17.10600000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>17.32</v>
       </c>
       <c r="F118" t="n">
-        <v>4095.969</v>
+        <v>11385.5314</v>
       </c>
       <c r="G118" t="n">
-        <v>17.11350000000001</v>
+        <v>17.10966666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>17.32</v>
       </c>
       <c r="F119" t="n">
-        <v>1918.5387</v>
+        <v>4095.969</v>
       </c>
       <c r="G119" t="n">
-        <v>17.11733333333334</v>
+        <v>17.11350000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>17.5</v>
+        <v>17.32</v>
       </c>
       <c r="C120" t="n">
-        <v>17.5</v>
+        <v>17.32</v>
       </c>
       <c r="D120" t="n">
-        <v>17.5</v>
+        <v>17.32</v>
       </c>
       <c r="E120" t="n">
-        <v>17.5</v>
+        <v>17.32</v>
       </c>
       <c r="F120" t="n">
-        <v>30</v>
+        <v>1918.5387</v>
       </c>
       <c r="G120" t="n">
-        <v>17.12400000000001</v>
+        <v>17.11733333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>17.32</v>
+        <v>17.5</v>
       </c>
       <c r="C121" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="D121" t="n">
-        <v>17.32</v>
+        <v>17.5</v>
       </c>
       <c r="E121" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="F121" t="n">
-        <v>226647.4622</v>
+        <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>17.13133333333334</v>
+        <v>17.12400000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>17.19</v>
+        <v>17.32</v>
       </c>
       <c r="C122" t="n">
-        <v>17.19</v>
+        <v>17.2</v>
       </c>
       <c r="D122" t="n">
-        <v>17.19</v>
+        <v>17.32</v>
       </c>
       <c r="E122" t="n">
-        <v>17.19</v>
+        <v>17.2</v>
       </c>
       <c r="F122" t="n">
-        <v>10000.5853</v>
+        <v>226647.4622</v>
       </c>
       <c r="G122" t="n">
-        <v>17.13283333333334</v>
+        <v>17.13133333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>17.18</v>
+        <v>17.19</v>
       </c>
       <c r="C123" t="n">
-        <v>17.18</v>
+        <v>17.19</v>
       </c>
       <c r="D123" t="n">
-        <v>17.18</v>
+        <v>17.19</v>
       </c>
       <c r="E123" t="n">
-        <v>17.18</v>
+        <v>17.19</v>
       </c>
       <c r="F123" t="n">
-        <v>12311.5772</v>
+        <v>10000.5853</v>
       </c>
       <c r="G123" t="n">
-        <v>17.14000000000001</v>
+        <v>17.13283333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>17.2</v>
+        <v>17.18</v>
       </c>
       <c r="C124" t="n">
-        <v>17.2</v>
+        <v>17.18</v>
       </c>
       <c r="D124" t="n">
-        <v>17.2</v>
+        <v>17.18</v>
       </c>
       <c r="E124" t="n">
-        <v>17.2</v>
+        <v>17.18</v>
       </c>
       <c r="F124" t="n">
-        <v>3341.5202</v>
+        <v>12311.5772</v>
       </c>
       <c r="G124" t="n">
-        <v>17.14666666666668</v>
+        <v>17.14000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,19 +4738,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>17.09</v>
+        <v>17.2</v>
       </c>
       <c r="C125" t="n">
-        <v>17.09</v>
+        <v>17.2</v>
       </c>
       <c r="D125" t="n">
-        <v>17.09</v>
+        <v>17.2</v>
       </c>
       <c r="E125" t="n">
-        <v>17.09</v>
+        <v>17.2</v>
       </c>
       <c r="F125" t="n">
-        <v>29076.9016</v>
+        <v>3341.5202</v>
       </c>
       <c r="G125" t="n">
         <v>17.14666666666668</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>17.02</v>
+        <v>17.09</v>
       </c>
       <c r="C126" t="n">
-        <v>17.18</v>
+        <v>17.09</v>
       </c>
       <c r="D126" t="n">
-        <v>17.18</v>
+        <v>17.09</v>
       </c>
       <c r="E126" t="n">
-        <v>17.02</v>
+        <v>17.09</v>
       </c>
       <c r="F126" t="n">
-        <v>7030</v>
+        <v>29076.9016</v>
       </c>
       <c r="G126" t="n">
-        <v>17.15133333333335</v>
+        <v>17.14666666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>17.18</v>
+        <v>17.02</v>
       </c>
       <c r="C127" t="n">
         <v>17.18</v>
@@ -4817,13 +4817,13 @@
         <v>17.18</v>
       </c>
       <c r="E127" t="n">
-        <v>17.18</v>
+        <v>17.02</v>
       </c>
       <c r="F127" t="n">
-        <v>26127.9076</v>
+        <v>7030</v>
       </c>
       <c r="G127" t="n">
-        <v>17.15766666666668</v>
+        <v>17.15133333333335</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="C128" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="D128" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="E128" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="F128" t="n">
-        <v>11345.1345</v>
+        <v>26127.9076</v>
       </c>
       <c r="G128" t="n">
-        <v>17.15983333333335</v>
+        <v>17.15766666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.18</v>
+        <v>17.03</v>
       </c>
       <c r="C129" t="n">
-        <v>17.18</v>
+        <v>17.03</v>
       </c>
       <c r="D129" t="n">
-        <v>17.18</v>
+        <v>17.03</v>
       </c>
       <c r="E129" t="n">
         <v>17.03</v>
       </c>
       <c r="F129" t="n">
-        <v>579</v>
+        <v>11345.1345</v>
       </c>
       <c r="G129" t="n">
-        <v>17.16450000000001</v>
+        <v>17.15983333333335</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="C130" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="D130" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="E130" t="n">
         <v>17.03</v>
       </c>
       <c r="F130" t="n">
-        <v>11345.1345</v>
+        <v>579</v>
       </c>
       <c r="G130" t="n">
-        <v>17.17000000000001</v>
+        <v>17.16450000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>17.18</v>
+        <v>17.03</v>
       </c>
       <c r="C131" t="n">
-        <v>17.18</v>
+        <v>17.03</v>
       </c>
       <c r="D131" t="n">
-        <v>17.18</v>
+        <v>17.03</v>
       </c>
       <c r="E131" t="n">
-        <v>17.18</v>
+        <v>17.03</v>
       </c>
       <c r="F131" t="n">
-        <v>30</v>
+        <v>11345.1345</v>
       </c>
       <c r="G131" t="n">
-        <v>17.17633333333335</v>
+        <v>17.17000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>17.15</v>
+        <v>17.18</v>
       </c>
       <c r="C132" t="n">
-        <v>17.15</v>
+        <v>17.18</v>
       </c>
       <c r="D132" t="n">
-        <v>17.15</v>
+        <v>17.18</v>
       </c>
       <c r="E132" t="n">
-        <v>17.15</v>
+        <v>17.18</v>
       </c>
       <c r="F132" t="n">
-        <v>57.3685</v>
+        <v>30</v>
       </c>
       <c r="G132" t="n">
-        <v>17.18600000000002</v>
+        <v>17.17633333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>17.15</v>
       </c>
       <c r="F133" t="n">
-        <v>2222.2833</v>
+        <v>57.3685</v>
       </c>
       <c r="G133" t="n">
-        <v>17.18700000000002</v>
+        <v>17.18600000000002</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>17.15</v>
       </c>
       <c r="F134" t="n">
-        <v>6698.5255</v>
+        <v>2222.2833</v>
       </c>
       <c r="G134" t="n">
-        <v>17.19600000000002</v>
+        <v>17.18700000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>17.15</v>
       </c>
       <c r="F135" t="n">
-        <v>116.6181</v>
+        <v>6698.5255</v>
       </c>
       <c r="G135" t="n">
-        <v>17.19800000000003</v>
+        <v>17.19600000000002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>17.15</v>
       </c>
       <c r="F136" t="n">
-        <v>5309.4178</v>
+        <v>116.6181</v>
       </c>
       <c r="G136" t="n">
-        <v>17.20550000000003</v>
+        <v>17.19800000000003</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>17.15</v>
       </c>
       <c r="F137" t="n">
-        <v>6349.411</v>
+        <v>5309.4178</v>
       </c>
       <c r="G137" t="n">
-        <v>17.21300000000003</v>
+        <v>17.20550000000003</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>17.15</v>
       </c>
       <c r="F138" t="n">
-        <v>1396.4975</v>
+        <v>6349.411</v>
       </c>
       <c r="G138" t="n">
-        <v>17.22266666666669</v>
+        <v>17.21300000000003</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>17.15</v>
       </c>
       <c r="F139" t="n">
-        <v>4429.9499</v>
+        <v>1396.4975</v>
       </c>
       <c r="G139" t="n">
-        <v>17.23283333333336</v>
+        <v>17.22266666666669</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>17.09</v>
+        <v>17.15</v>
       </c>
       <c r="C140" t="n">
-        <v>17.09</v>
+        <v>17.15</v>
       </c>
       <c r="D140" t="n">
-        <v>17.09</v>
+        <v>17.15</v>
       </c>
       <c r="E140" t="n">
-        <v>17.09</v>
+        <v>17.15</v>
       </c>
       <c r="F140" t="n">
-        <v>23425.9446</v>
+        <v>4429.9499</v>
       </c>
       <c r="G140" t="n">
-        <v>17.23433333333336</v>
+        <v>17.23283333333336</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>17.18</v>
+        <v>17.09</v>
       </c>
       <c r="C141" t="n">
-        <v>17.18</v>
+        <v>17.09</v>
       </c>
       <c r="D141" t="n">
-        <v>17.18</v>
+        <v>17.09</v>
       </c>
       <c r="E141" t="n">
-        <v>17.18</v>
+        <v>17.09</v>
       </c>
       <c r="F141" t="n">
-        <v>5806.1325</v>
+        <v>23425.9446</v>
       </c>
       <c r="G141" t="n">
-        <v>17.23733333333336</v>
+        <v>17.23433333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>17.04</v>
+        <v>17.18</v>
       </c>
       <c r="C142" t="n">
         <v>17.18</v>
@@ -5342,13 +5342,13 @@
         <v>17.18</v>
       </c>
       <c r="E142" t="n">
-        <v>17.04</v>
+        <v>17.18</v>
       </c>
       <c r="F142" t="n">
-        <v>15398.5313</v>
+        <v>5806.1325</v>
       </c>
       <c r="G142" t="n">
-        <v>17.24050000000003</v>
+        <v>17.23733333333336</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5371,19 @@
         <v>17.04</v>
       </c>
       <c r="C143" t="n">
-        <v>17.03</v>
+        <v>17.18</v>
       </c>
       <c r="D143" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="E143" t="n">
         <v>17.04</v>
       </c>
-      <c r="E143" t="n">
-        <v>17.03</v>
-      </c>
       <c r="F143" t="n">
-        <v>51972.9478</v>
+        <v>15398.5313</v>
       </c>
       <c r="G143" t="n">
-        <v>17.24133333333337</v>
+        <v>17.24050000000003</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>17.03</v>
+        <v>17.04</v>
       </c>
       <c r="C144" t="n">
         <v>17.03</v>
       </c>
       <c r="D144" t="n">
-        <v>17.03</v>
+        <v>17.04</v>
       </c>
       <c r="E144" t="n">
         <v>17.03</v>
       </c>
       <c r="F144" t="n">
-        <v>22685.2899</v>
+        <v>51972.9478</v>
       </c>
       <c r="G144" t="n">
-        <v>17.2421666666667</v>
+        <v>17.24133333333337</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>17.03</v>
       </c>
       <c r="F145" t="n">
-        <v>7548.5515</v>
+        <v>22685.2899</v>
       </c>
       <c r="G145" t="n">
-        <v>17.24133333333337</v>
+        <v>17.2421666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>17.01</v>
+        <v>17.03</v>
       </c>
       <c r="C146" t="n">
-        <v>17.01</v>
+        <v>17.03</v>
       </c>
       <c r="D146" t="n">
-        <v>17.01</v>
+        <v>17.03</v>
       </c>
       <c r="E146" t="n">
-        <v>17.01</v>
+        <v>17.03</v>
       </c>
       <c r="F146" t="n">
-        <v>12951.6256</v>
+        <v>7548.5515</v>
       </c>
       <c r="G146" t="n">
-        <v>17.2401666666667</v>
+        <v>17.24133333333337</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>17.01</v>
       </c>
       <c r="F147" t="n">
-        <v>7049.3474</v>
+        <v>12951.6256</v>
       </c>
       <c r="G147" t="n">
-        <v>17.2406666666667</v>
+        <v>17.2401666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>17</v>
+        <v>17.01</v>
       </c>
       <c r="C148" t="n">
-        <v>17</v>
+        <v>17.01</v>
       </c>
       <c r="D148" t="n">
-        <v>17</v>
+        <v>17.01</v>
       </c>
       <c r="E148" t="n">
-        <v>17</v>
+        <v>17.01</v>
       </c>
       <c r="F148" t="n">
-        <v>1323.5936</v>
+        <v>7049.3474</v>
       </c>
       <c r="G148" t="n">
-        <v>17.2426666666667</v>
+        <v>17.2406666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="C149" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="E149" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>6230.0105</v>
+        <v>1323.5936</v>
       </c>
       <c r="G149" t="n">
-        <v>17.24600000000003</v>
+        <v>17.2426666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="C150" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="D150" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="E150" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="F150" t="n">
-        <v>1284.1524</v>
+        <v>6230.0105</v>
       </c>
       <c r="G150" t="n">
-        <v>17.24300000000003</v>
+        <v>17.24600000000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>16.7</v>
       </c>
       <c r="F151" t="n">
-        <v>6482.2506</v>
+        <v>1284.1524</v>
       </c>
       <c r="G151" t="n">
-        <v>17.2396666666667</v>
+        <v>17.24300000000003</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>16.82</v>
+        <v>16.7</v>
       </c>
       <c r="C152" t="n">
-        <v>16.82</v>
+        <v>16.7</v>
       </c>
       <c r="D152" t="n">
-        <v>16.82</v>
+        <v>16.7</v>
       </c>
       <c r="E152" t="n">
-        <v>16.82</v>
+        <v>16.7</v>
       </c>
       <c r="F152" t="n">
-        <v>30</v>
+        <v>6482.2506</v>
       </c>
       <c r="G152" t="n">
-        <v>17.24333333333336</v>
+        <v>17.2396666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>16.7</v>
+        <v>16.82</v>
       </c>
       <c r="C153" t="n">
-        <v>16.7</v>
+        <v>16.82</v>
       </c>
       <c r="D153" t="n">
-        <v>16.7</v>
+        <v>16.82</v>
       </c>
       <c r="E153" t="n">
-        <v>16.7</v>
+        <v>16.82</v>
       </c>
       <c r="F153" t="n">
-        <v>53303.6732</v>
+        <v>30</v>
       </c>
       <c r="G153" t="n">
-        <v>17.24583333333336</v>
+        <v>17.24333333333336</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>16.68</v>
+        <v>16.7</v>
       </c>
       <c r="C154" t="n">
-        <v>16.62</v>
+        <v>16.7</v>
       </c>
       <c r="D154" t="n">
-        <v>16.68</v>
+        <v>16.7</v>
       </c>
       <c r="E154" t="n">
-        <v>16.62</v>
+        <v>16.7</v>
       </c>
       <c r="F154" t="n">
-        <v>22685.2899</v>
+        <v>53303.6732</v>
       </c>
       <c r="G154" t="n">
-        <v>17.24133333333336</v>
+        <v>17.24583333333336</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>16.62</v>
+        <v>16.68</v>
       </c>
       <c r="C155" t="n">
         <v>16.62</v>
       </c>
       <c r="D155" t="n">
-        <v>16.62</v>
+        <v>16.68</v>
       </c>
       <c r="E155" t="n">
         <v>16.62</v>
       </c>
       <c r="F155" t="n">
-        <v>6094.4938</v>
+        <v>22685.2899</v>
       </c>
       <c r="G155" t="n">
-        <v>17.23683333333336</v>
+        <v>17.24133333333336</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>16.62</v>
       </c>
       <c r="F156" t="n">
-        <v>155239.0564</v>
+        <v>6094.4938</v>
       </c>
       <c r="G156" t="n">
-        <v>17.22900000000002</v>
+        <v>17.23683333333336</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>16.62</v>
       </c>
       <c r="F157" t="n">
-        <v>8220.8397</v>
+        <v>155239.0564</v>
       </c>
       <c r="G157" t="n">
-        <v>17.21950000000002</v>
+        <v>17.22900000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +5896,19 @@
         <v>16.62</v>
       </c>
       <c r="C158" t="n">
-        <v>16.6</v>
+        <v>16.62</v>
       </c>
       <c r="D158" t="n">
         <v>16.62</v>
       </c>
       <c r="E158" t="n">
-        <v>16.6</v>
+        <v>16.62</v>
       </c>
       <c r="F158" t="n">
-        <v>156441.3135</v>
+        <v>8220.8397</v>
       </c>
       <c r="G158" t="n">
-        <v>17.20766666666669</v>
+        <v>17.21950000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>16.52</v>
+        <v>16.62</v>
       </c>
       <c r="C159" t="n">
-        <v>16.52</v>
+        <v>16.6</v>
       </c>
       <c r="D159" t="n">
-        <v>16.52</v>
+        <v>16.62</v>
       </c>
       <c r="E159" t="n">
-        <v>16.52</v>
+        <v>16.6</v>
       </c>
       <c r="F159" t="n">
-        <v>44753.1353</v>
+        <v>156441.3135</v>
       </c>
       <c r="G159" t="n">
-        <v>17.19050000000002</v>
+        <v>17.20766666666669</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>16.59</v>
+        <v>16.52</v>
       </c>
       <c r="C160" t="n">
-        <v>16.59</v>
+        <v>16.52</v>
       </c>
       <c r="D160" t="n">
-        <v>16.59</v>
+        <v>16.52</v>
       </c>
       <c r="E160" t="n">
-        <v>16.59</v>
+        <v>16.52</v>
       </c>
       <c r="F160" t="n">
-        <v>5953.7786</v>
+        <v>44753.1353</v>
       </c>
       <c r="G160" t="n">
-        <v>17.17316666666668</v>
+        <v>17.19050000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>16.52</v>
+        <v>16.59</v>
       </c>
       <c r="C161" t="n">
-        <v>16.29</v>
+        <v>16.59</v>
       </c>
       <c r="D161" t="n">
-        <v>16.52</v>
+        <v>16.59</v>
       </c>
       <c r="E161" t="n">
-        <v>16.29</v>
+        <v>16.59</v>
       </c>
       <c r="F161" t="n">
-        <v>74103.356</v>
+        <v>5953.7786</v>
       </c>
       <c r="G161" t="n">
-        <v>17.15083333333335</v>
+        <v>17.17316666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>16.4</v>
+        <v>16.52</v>
       </c>
       <c r="C162" t="n">
-        <v>16.2</v>
+        <v>16.29</v>
       </c>
       <c r="D162" t="n">
-        <v>16.4</v>
+        <v>16.52</v>
       </c>
       <c r="E162" t="n">
-        <v>16.2</v>
+        <v>16.29</v>
       </c>
       <c r="F162" t="n">
-        <v>666930.2044</v>
+        <v>74103.356</v>
       </c>
       <c r="G162" t="n">
-        <v>17.12833333333335</v>
+        <v>17.15083333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>16.49</v>
+        <v>16.4</v>
       </c>
       <c r="C163" t="n">
-        <v>16.49</v>
+        <v>16.2</v>
       </c>
       <c r="D163" t="n">
-        <v>16.49</v>
+        <v>16.4</v>
       </c>
       <c r="E163" t="n">
-        <v>16.49</v>
+        <v>16.2</v>
       </c>
       <c r="F163" t="n">
-        <v>3430.2876</v>
+        <v>666930.2044</v>
       </c>
       <c r="G163" t="n">
-        <v>17.10933333333335</v>
+        <v>17.12833333333335</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>16.49</v>
       </c>
       <c r="F164" t="n">
-        <v>3646.9251</v>
+        <v>3430.2876</v>
       </c>
       <c r="G164" t="n">
-        <v>17.09400000000001</v>
+        <v>17.10933333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>16.48</v>
+        <v>16.49</v>
       </c>
       <c r="C165" t="n">
-        <v>16.48</v>
+        <v>16.49</v>
       </c>
       <c r="D165" t="n">
-        <v>16.48</v>
+        <v>16.49</v>
       </c>
       <c r="E165" t="n">
-        <v>16.48</v>
+        <v>16.49</v>
       </c>
       <c r="F165" t="n">
-        <v>469.9367</v>
+        <v>3646.9251</v>
       </c>
       <c r="G165" t="n">
-        <v>17.07850000000001</v>
+        <v>17.09400000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>16.3</v>
+        <v>16.48</v>
       </c>
       <c r="C166" t="n">
         <v>16.48</v>
@@ -6182,13 +6182,13 @@
         <v>16.48</v>
       </c>
       <c r="E166" t="n">
-        <v>16.3</v>
+        <v>16.48</v>
       </c>
       <c r="F166" t="n">
-        <v>10977.8283</v>
+        <v>469.9367</v>
       </c>
       <c r="G166" t="n">
-        <v>17.05933333333335</v>
+        <v>17.07850000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>16.3</v>
       </c>
       <c r="F167" t="n">
-        <v>12744.4489</v>
+        <v>10977.8283</v>
       </c>
       <c r="G167" t="n">
-        <v>17.03750000000001</v>
+        <v>17.05933333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>16.48</v>
+        <v>16.3</v>
       </c>
       <c r="C168" t="n">
         <v>16.48</v>
@@ -6252,13 +6252,13 @@
         <v>16.48</v>
       </c>
       <c r="E168" t="n">
-        <v>16.48</v>
+        <v>16.3</v>
       </c>
       <c r="F168" t="n">
-        <v>63882.454</v>
+        <v>12744.4489</v>
       </c>
       <c r="G168" t="n">
-        <v>17.01566666666668</v>
+        <v>17.03750000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,23 +6290,19 @@
         <v>16.48</v>
       </c>
       <c r="F169" t="n">
-        <v>6709.7686</v>
+        <v>63882.454</v>
       </c>
       <c r="G169" t="n">
-        <v>17.00050000000001</v>
+        <v>17.01566666666668</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="K169" t="n">
-        <v>16.48</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
@@ -6329,28 +6325,20 @@
         <v>16.48</v>
       </c>
       <c r="F170" t="n">
-        <v>50552.8165</v>
+        <v>6709.7686</v>
       </c>
       <c r="G170" t="n">
-        <v>16.98016666666668</v>
+        <v>17.00050000000001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="K170" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6360,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>16.49</v>
+        <v>16.48</v>
       </c>
       <c r="C171" t="n">
-        <v>16.49</v>
+        <v>16.48</v>
       </c>
       <c r="D171" t="n">
-        <v>16.49</v>
+        <v>16.48</v>
       </c>
       <c r="E171" t="n">
-        <v>16.49</v>
+        <v>16.48</v>
       </c>
       <c r="F171" t="n">
-        <v>51115.0214</v>
+        <v>50552.8165</v>
       </c>
       <c r="G171" t="n">
-        <v>16.95850000000001</v>
+        <v>16.98016666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6384,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6404,19 +6386,19 @@
         <v>16.49</v>
       </c>
       <c r="C172" t="n">
-        <v>16.69</v>
+        <v>16.49</v>
       </c>
       <c r="D172" t="n">
-        <v>16.69</v>
+        <v>16.49</v>
       </c>
       <c r="E172" t="n">
         <v>16.49</v>
       </c>
       <c r="F172" t="n">
-        <v>10369.9851</v>
+        <v>51115.0214</v>
       </c>
       <c r="G172" t="n">
-        <v>16.94016666666668</v>
+        <v>16.95850000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6436,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>16.7</v>
+        <v>16.49</v>
       </c>
       <c r="C173" t="n">
-        <v>16.7</v>
+        <v>16.69</v>
       </c>
       <c r="D173" t="n">
-        <v>16.7</v>
+        <v>16.69</v>
       </c>
       <c r="E173" t="n">
-        <v>16.7</v>
+        <v>16.49</v>
       </c>
       <c r="F173" t="n">
-        <v>40000</v>
+        <v>10369.9851</v>
       </c>
       <c r="G173" t="n">
-        <v>16.92366666666668</v>
+        <v>16.94016666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6471,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>16.69</v>
+        <v>16.7</v>
       </c>
       <c r="C174" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="D174" t="n">
-        <v>16.69</v>
+        <v>16.7</v>
       </c>
       <c r="E174" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="F174" t="n">
-        <v>3340.0542</v>
+        <v>40000</v>
       </c>
       <c r="G174" t="n">
-        <v>16.90633333333334</v>
+        <v>16.92366666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6506,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>16.7</v>
+        <v>16.69</v>
       </c>
       <c r="C175" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="D175" t="n">
-        <v>16.7</v>
+        <v>16.69</v>
       </c>
       <c r="E175" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="F175" t="n">
-        <v>30</v>
+        <v>3340.0542</v>
       </c>
       <c r="G175" t="n">
-        <v>16.89566666666668</v>
+        <v>16.90633333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6541,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="C176" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="D176" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="E176" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="F176" t="n">
-        <v>11491.5082</v>
+        <v>30</v>
       </c>
       <c r="G176" t="n">
-        <v>16.88333333333334</v>
+        <v>16.89566666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6579,19 +6561,19 @@
         <v>16.6</v>
       </c>
       <c r="C177" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="D177" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="E177" t="n">
         <v>16.6</v>
       </c>
       <c r="F177" t="n">
-        <v>13011.6829</v>
+        <v>11491.5082</v>
       </c>
       <c r="G177" t="n">
-        <v>16.87300000000001</v>
+        <v>16.88333333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6614,32 +6596,28 @@
         <v>16.6</v>
       </c>
       <c r="C178" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="D178" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="E178" t="n">
         <v>16.6</v>
       </c>
       <c r="F178" t="n">
-        <v>1300</v>
+        <v>13011.6829</v>
       </c>
       <c r="G178" t="n">
-        <v>16.86100000000001</v>
+        <v>16.87300000000001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K178" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
@@ -6650,1436 +6628,1232 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G179" t="n">
+        <v>16.86100000000001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
         <v>16.7</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C180" t="n">
         <v>16.7</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D180" t="n">
         <v>16.7</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E180" t="n">
         <v>16.7</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F180" t="n">
         <v>30</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G180" t="n">
         <v>16.85066666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D181" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F181" t="n">
+        <v>71523.5404</v>
+      </c>
+      <c r="G181" t="n">
+        <v>16.83366666666667</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="C182" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="E182" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="F182" t="n">
+        <v>65.2497</v>
+      </c>
+      <c r="G182" t="n">
+        <v>16.81883333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
         <v>16.7</v>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="C183" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="D183" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="F183" t="n">
+        <v>95151.308</v>
+      </c>
+      <c r="G183" t="n">
+        <v>16.803</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>30</v>
+      </c>
+      <c r="G184" t="n">
+        <v>16.795</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="C185" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D185" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="E185" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="F185" t="n">
+        <v>167.168</v>
+      </c>
+      <c r="G185" t="n">
+        <v>16.7865</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="D186" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E186" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="F186" t="n">
+        <v>213412.8801</v>
+      </c>
+      <c r="G186" t="n">
+        <v>16.7735</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="C187" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="E187" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>610630.1219</v>
+      </c>
+      <c r="G187" t="n">
+        <v>16.75716666666667</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E188" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>64379.1864</v>
+      </c>
+      <c r="G188" t="n">
+        <v>16.74083333333333</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2347.3415</v>
+      </c>
+      <c r="G189" t="n">
+        <v>16.727</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1114.0867</v>
+      </c>
+      <c r="G190" t="n">
+        <v>16.71066666666667</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="C191" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E191" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F191" t="n">
+        <v>23738.4852</v>
+      </c>
+      <c r="G191" t="n">
+        <v>16.69400000000001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C192" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D192" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="E192" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F192" t="n">
+        <v>43429.9832</v>
+      </c>
+      <c r="G192" t="n">
+        <v>16.67466666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C193" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D193" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E193" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F193" t="n">
+        <v>58573.4588</v>
+      </c>
+      <c r="G193" t="n">
+        <v>16.65583333333334</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="C194" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D194" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E194" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="F194" t="n">
+        <v>24130.0183</v>
+      </c>
+      <c r="G194" t="n">
+        <v>16.63750000000001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>16</v>
+      </c>
+      <c r="D195" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>16</v>
+      </c>
+      <c r="F195" t="n">
+        <v>236723.4428</v>
+      </c>
+      <c r="G195" t="n">
+        <v>16.61833333333334</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>30</v>
+      </c>
+      <c r="G196" t="n">
+        <v>16.6125</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2994.87</v>
+      </c>
+      <c r="G197" t="n">
+        <v>16.60333333333334</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>16</v>
+      </c>
+      <c r="C198" t="n">
+        <v>16</v>
+      </c>
+      <c r="D198" t="n">
+        <v>16</v>
+      </c>
+      <c r="E198" t="n">
+        <v>16</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1567.2571</v>
+      </c>
+      <c r="G198" t="n">
+        <v>16.58416666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>16</v>
+      </c>
+      <c r="C199" t="n">
+        <v>16</v>
+      </c>
+      <c r="D199" t="n">
+        <v>16</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16</v>
+      </c>
+      <c r="F199" t="n">
+        <v>207547.2419824299</v>
+      </c>
+      <c r="G199" t="n">
+        <v>16.56500000000001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>16</v>
+      </c>
+      <c r="C200" t="n">
+        <v>16</v>
+      </c>
+      <c r="D200" t="n">
+        <v>16</v>
+      </c>
+      <c r="E200" t="n">
+        <v>16</v>
+      </c>
+      <c r="F200" t="n">
+        <v>29651.34831757009</v>
+      </c>
+      <c r="G200" t="n">
+        <v>16.54583333333334</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="C201" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="E201" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F201" t="n">
+        <v>31</v>
+      </c>
+      <c r="G201" t="n">
+        <v>16.53383333333334</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>16</v>
+      </c>
+      <c r="C202" t="n">
+        <v>16</v>
+      </c>
+      <c r="D202" t="n">
+        <v>16</v>
+      </c>
+      <c r="E202" t="n">
+        <v>16</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10528.9992</v>
+      </c>
+      <c r="G202" t="n">
+        <v>16.51416666666668</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="C203" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="D203" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="E203" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F203" t="n">
+        <v>31</v>
+      </c>
+      <c r="G203" t="n">
+        <v>16.50066666666667</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C204" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D204" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E204" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12780.009</v>
+      </c>
+      <c r="G204" t="n">
+        <v>16.48933333333334</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C205" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D205" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E205" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3497.0109</v>
+      </c>
+      <c r="G205" t="n">
+        <v>16.47800000000001</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C206" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="D206" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E206" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F206" t="n">
+        <v>755.404</v>
+      </c>
+      <c r="G206" t="n">
+        <v>16.46400000000001</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>16</v>
+      </c>
+      <c r="C207" t="n">
+        <v>16</v>
+      </c>
+      <c r="D207" t="n">
+        <v>16</v>
+      </c>
+      <c r="E207" t="n">
+        <v>16</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3791.5024</v>
+      </c>
+      <c r="G207" t="n">
+        <v>16.44716666666668</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="C208" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D208" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F208" t="n">
+        <v>40031</v>
+      </c>
+      <c r="G208" t="n">
+        <v>16.43266666666668</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C209" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D209" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F209" t="n">
+        <v>31134.6633</v>
+      </c>
+      <c r="G209" t="n">
+        <v>16.41833333333334</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C210" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D210" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F210" t="n">
+        <v>720.3033</v>
+      </c>
+      <c r="G210" t="n">
+        <v>16.40550000000001</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C211" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D211" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E211" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F211" t="n">
+        <v>35030</v>
+      </c>
+      <c r="G211" t="n">
+        <v>16.39600000000001</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>16</v>
+      </c>
+      <c r="C212" t="n">
+        <v>16</v>
+      </c>
+      <c r="D212" t="n">
+        <v>16</v>
+      </c>
+      <c r="E212" t="n">
+        <v>16</v>
+      </c>
+      <c r="F212" t="n">
+        <v>91569.197</v>
+      </c>
+      <c r="G212" t="n">
+        <v>16.38433333333334</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="K212" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C213" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D213" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E213" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F213" t="n">
+        <v>30</v>
+      </c>
+      <c r="G213" t="n">
+        <v>16.37283333333334</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C180" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D180" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E180" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F180" t="n">
-        <v>71523.5404</v>
-      </c>
-      <c r="G180" t="n">
-        <v>16.83366666666667</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="C181" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="D181" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="E181" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="F181" t="n">
-        <v>65.2497</v>
-      </c>
-      <c r="G181" t="n">
-        <v>16.81883333333333</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="D182" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="F182" t="n">
-        <v>95151.308</v>
-      </c>
-      <c r="G182" t="n">
-        <v>16.803</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C183" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D183" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E183" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F183" t="n">
-        <v>30</v>
-      </c>
-      <c r="G183" t="n">
-        <v>16.795</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="C184" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D184" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="E184" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="F184" t="n">
-        <v>167.168</v>
-      </c>
-      <c r="G184" t="n">
-        <v>16.7865</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C185" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="D185" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E185" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="F185" t="n">
-        <v>213412.8801</v>
-      </c>
-      <c r="G185" t="n">
-        <v>16.7735</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="C186" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D186" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="E186" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F186" t="n">
-        <v>610630.1219</v>
-      </c>
-      <c r="G186" t="n">
-        <v>16.75716666666667</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D187" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F187" t="n">
-        <v>64379.1864</v>
-      </c>
-      <c r="G187" t="n">
-        <v>16.74083333333333</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C188" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D188" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2347.3415</v>
-      </c>
-      <c r="G188" t="n">
-        <v>16.727</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1114.0867</v>
-      </c>
-      <c r="G189" t="n">
-        <v>16.71066666666667</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="C190" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="D190" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="E190" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F190" t="n">
-        <v>23738.4852</v>
-      </c>
-      <c r="G190" t="n">
-        <v>16.69400000000001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="C191" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D191" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="E191" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F191" t="n">
-        <v>43429.9832</v>
-      </c>
-      <c r="G191" t="n">
-        <v>16.67466666666667</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C192" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D192" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E192" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F192" t="n">
-        <v>58573.4588</v>
-      </c>
-      <c r="G192" t="n">
-        <v>16.65583333333334</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="C193" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D193" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="E193" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="F193" t="n">
-        <v>24130.0183</v>
-      </c>
-      <c r="G193" t="n">
-        <v>16.63750000000001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C194" t="n">
-        <v>16</v>
-      </c>
-      <c r="D194" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E194" t="n">
-        <v>16</v>
-      </c>
-      <c r="F194" t="n">
-        <v>236723.4428</v>
-      </c>
-      <c r="G194" t="n">
-        <v>16.61833333333334</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="C195" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="D195" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E195" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F195" t="n">
-        <v>30</v>
-      </c>
-      <c r="G195" t="n">
-        <v>16.6125</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>16</v>
-      </c>
-      <c r="K195" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C196" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D196" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2994.87</v>
-      </c>
-      <c r="G196" t="n">
-        <v>16.60333333333334</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K196" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>16</v>
-      </c>
-      <c r="C197" t="n">
-        <v>16</v>
-      </c>
-      <c r="D197" t="n">
-        <v>16</v>
-      </c>
-      <c r="E197" t="n">
-        <v>16</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1567.2571</v>
-      </c>
-      <c r="G197" t="n">
-        <v>16.58416666666667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>16</v>
-      </c>
-      <c r="C198" t="n">
-        <v>16</v>
-      </c>
-      <c r="D198" t="n">
-        <v>16</v>
-      </c>
-      <c r="E198" t="n">
-        <v>16</v>
-      </c>
-      <c r="F198" t="n">
-        <v>207547.2419824299</v>
-      </c>
-      <c r="G198" t="n">
-        <v>16.56500000000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>16</v>
-      </c>
-      <c r="C199" t="n">
-        <v>16</v>
-      </c>
-      <c r="D199" t="n">
-        <v>16</v>
-      </c>
-      <c r="E199" t="n">
-        <v>16</v>
-      </c>
-      <c r="F199" t="n">
-        <v>29651.34831757009</v>
-      </c>
-      <c r="G199" t="n">
-        <v>16.54583333333334</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="C200" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="D200" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="E200" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="F200" t="n">
-        <v>31</v>
-      </c>
-      <c r="G200" t="n">
-        <v>16.53383333333334</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>16</v>
-      </c>
-      <c r="C201" t="n">
-        <v>16</v>
-      </c>
-      <c r="D201" t="n">
-        <v>16</v>
-      </c>
-      <c r="E201" t="n">
-        <v>16</v>
-      </c>
-      <c r="F201" t="n">
-        <v>10528.9992</v>
-      </c>
-      <c r="G201" t="n">
-        <v>16.51416666666668</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="C202" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="D202" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="E202" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="F202" t="n">
-        <v>31</v>
-      </c>
-      <c r="G202" t="n">
-        <v>16.50066666666667</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="C203" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="D203" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E203" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F203" t="n">
-        <v>12780.009</v>
-      </c>
-      <c r="G203" t="n">
-        <v>16.48933333333334</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="C204" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="D204" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E204" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3497.0109</v>
-      </c>
-      <c r="G204" t="n">
-        <v>16.47800000000001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C205" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="D205" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="E205" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="F205" t="n">
-        <v>755.404</v>
-      </c>
-      <c r="G205" t="n">
-        <v>16.46400000000001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>16</v>
-      </c>
-      <c r="C206" t="n">
-        <v>16</v>
-      </c>
-      <c r="D206" t="n">
-        <v>16</v>
-      </c>
-      <c r="E206" t="n">
-        <v>16</v>
-      </c>
-      <c r="F206" t="n">
-        <v>3791.5024</v>
-      </c>
-      <c r="G206" t="n">
-        <v>16.44716666666668</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="C207" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D207" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="E207" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F207" t="n">
-        <v>40031</v>
-      </c>
-      <c r="G207" t="n">
-        <v>16.43266666666668</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="C208" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D208" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="E208" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F208" t="n">
-        <v>31134.6633</v>
-      </c>
-      <c r="G208" t="n">
-        <v>16.41833333333334</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C209" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D209" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E209" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F209" t="n">
-        <v>720.3033</v>
-      </c>
-      <c r="G209" t="n">
-        <v>16.40550000000001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="C210" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D210" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E210" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F210" t="n">
-        <v>35030</v>
-      </c>
-      <c r="G210" t="n">
-        <v>16.39600000000001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>16</v>
-      </c>
-      <c r="C211" t="n">
-        <v>16</v>
-      </c>
-      <c r="D211" t="n">
-        <v>16</v>
-      </c>
-      <c r="E211" t="n">
-        <v>16</v>
-      </c>
-      <c r="F211" t="n">
-        <v>91569.197</v>
-      </c>
-      <c r="G211" t="n">
-        <v>16.38433333333334</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C212" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D212" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E212" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F212" t="n">
-        <v>30</v>
-      </c>
-      <c r="G212" t="n">
-        <v>16.37283333333334</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C213" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D213" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E213" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F213" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G213" t="n">
-        <v>16.36333333333334</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8101,10 +7875,10 @@
         <v>16.13</v>
       </c>
       <c r="F214" t="n">
-        <v>8624.3887</v>
+        <v>10000</v>
       </c>
       <c r="G214" t="n">
-        <v>16.35516666666668</v>
+        <v>16.36333333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8114,11 +7888,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>16.7</v>
+        <v>16.13</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M214" t="n">
@@ -8133,19 +7907,19 @@
         <v>16.13</v>
       </c>
       <c r="C215" t="n">
-        <v>16.2</v>
+        <v>16.13</v>
       </c>
       <c r="D215" t="n">
-        <v>16.2</v>
+        <v>16.13</v>
       </c>
       <c r="E215" t="n">
         <v>16.13</v>
       </c>
       <c r="F215" t="n">
-        <v>23706.3641</v>
+        <v>8624.3887</v>
       </c>
       <c r="G215" t="n">
-        <v>16.34816666666667</v>
+        <v>16.35516666666668</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8154,14 +7928,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8171,22 +7939,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>16.1</v>
+        <v>16.13</v>
       </c>
       <c r="C216" t="n">
-        <v>16.73</v>
+        <v>16.2</v>
       </c>
       <c r="D216" t="n">
-        <v>16.73</v>
+        <v>16.2</v>
       </c>
       <c r="E216" t="n">
-        <v>16.1</v>
+        <v>16.13</v>
       </c>
       <c r="F216" t="n">
-        <v>20437.1113</v>
+        <v>23706.3641</v>
       </c>
       <c r="G216" t="n">
-        <v>16.35000000000001</v>
+        <v>16.34816666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8195,14 +7963,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8212,22 +7974,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>16.47</v>
+        <v>16.1</v>
       </c>
       <c r="C217" t="n">
-        <v>16.47</v>
+        <v>16.73</v>
       </c>
       <c r="D217" t="n">
-        <v>16.6</v>
+        <v>16.73</v>
       </c>
       <c r="E217" t="n">
-        <v>16.47</v>
+        <v>16.1</v>
       </c>
       <c r="F217" t="n">
-        <v>163362.5382</v>
+        <v>20437.1113</v>
       </c>
       <c r="G217" t="n">
-        <v>16.34750000000001</v>
+        <v>16.35000000000001</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8236,14 +7998,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8259,16 +8015,16 @@
         <v>16.47</v>
       </c>
       <c r="D218" t="n">
-        <v>16.47</v>
+        <v>16.6</v>
       </c>
       <c r="E218" t="n">
         <v>16.47</v>
       </c>
       <c r="F218" t="n">
-        <v>3756.0682</v>
+        <v>163362.5382</v>
       </c>
       <c r="G218" t="n">
-        <v>16.34533333333334</v>
+        <v>16.34750000000001</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8277,14 +8033,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8294,22 +8044,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>16.5</v>
+        <v>16.47</v>
       </c>
       <c r="C219" t="n">
-        <v>16.5</v>
+        <v>16.47</v>
       </c>
       <c r="D219" t="n">
-        <v>16.5</v>
+        <v>16.47</v>
       </c>
       <c r="E219" t="n">
-        <v>16.5</v>
+        <v>16.47</v>
       </c>
       <c r="F219" t="n">
-        <v>31</v>
+        <v>3756.0682</v>
       </c>
       <c r="G219" t="n">
-        <v>16.34500000000001</v>
+        <v>16.34533333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8318,14 +8068,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8335,22 +8079,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="C220" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="D220" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="E220" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="F220" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G220" t="n">
-        <v>16.34683333333334</v>
+        <v>16.34500000000001</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8359,14 +8103,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8376,22 +8114,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="C221" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="D221" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="E221" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="F221" t="n">
-        <v>3104.7164</v>
+        <v>30</v>
       </c>
       <c r="G221" t="n">
-        <v>16.35033333333335</v>
+        <v>16.34683333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8400,14 +8138,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8420,19 +8152,19 @@
         <v>16.5</v>
       </c>
       <c r="C222" t="n">
-        <v>16.66</v>
+        <v>16.5</v>
       </c>
       <c r="D222" t="n">
-        <v>16.66</v>
+        <v>16.5</v>
       </c>
       <c r="E222" t="n">
-        <v>16.41</v>
+        <v>16.5</v>
       </c>
       <c r="F222" t="n">
-        <v>27635.3344</v>
+        <v>3104.7164</v>
       </c>
       <c r="G222" t="n">
-        <v>16.35800000000001</v>
+        <v>16.35033333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8441,14 +8173,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8458,22 +8184,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>16.71</v>
+        <v>16.5</v>
       </c>
       <c r="C223" t="n">
-        <v>16.71</v>
+        <v>16.66</v>
       </c>
       <c r="D223" t="n">
-        <v>16.71</v>
+        <v>16.66</v>
       </c>
       <c r="E223" t="n">
-        <v>16.71</v>
+        <v>16.41</v>
       </c>
       <c r="F223" t="n">
-        <v>30</v>
+        <v>27635.3344</v>
       </c>
       <c r="G223" t="n">
-        <v>16.36166666666668</v>
+        <v>16.35800000000001</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8482,14 +8208,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8499,22 +8219,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>16.5</v>
+        <v>16.71</v>
       </c>
       <c r="C224" t="n">
-        <v>16.5</v>
+        <v>16.71</v>
       </c>
       <c r="D224" t="n">
-        <v>16.5</v>
+        <v>16.71</v>
       </c>
       <c r="E224" t="n">
-        <v>16.5</v>
+        <v>16.71</v>
       </c>
       <c r="F224" t="n">
-        <v>1416.8942</v>
+        <v>30</v>
       </c>
       <c r="G224" t="n">
-        <v>16.36183333333334</v>
+        <v>16.36166666666668</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8523,14 +8243,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8540,22 +8254,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C225" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="D225" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E225" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="F225" t="n">
-        <v>31</v>
+        <v>1416.8942</v>
       </c>
       <c r="G225" t="n">
-        <v>16.36383333333334</v>
+        <v>16.36183333333334</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8564,14 +8278,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8581,38 +8289,32 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="C226" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D226" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="E226" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="F226" t="n">
-        <v>112170.5896</v>
+        <v>31</v>
       </c>
       <c r="G226" t="n">
-        <v>16.36416666666668</v>
+        <v>16.36383333333334</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8622,22 +8324,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>16.04</v>
+        <v>16.4</v>
       </c>
       <c r="C227" t="n">
-        <v>16.04</v>
+        <v>16.5</v>
       </c>
       <c r="D227" t="n">
-        <v>16.04</v>
+        <v>16.5</v>
       </c>
       <c r="E227" t="n">
-        <v>16.04</v>
+        <v>16.2</v>
       </c>
       <c r="F227" t="n">
-        <v>32</v>
+        <v>112170.5896</v>
       </c>
       <c r="G227" t="n">
-        <v>16.35683333333334</v>
+        <v>16.36416666666668</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8646,14 +8348,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8675,10 +8371,10 @@
         <v>16.04</v>
       </c>
       <c r="F228" t="n">
-        <v>157.1168</v>
+        <v>32</v>
       </c>
       <c r="G228" t="n">
-        <v>16.34950000000001</v>
+        <v>16.35683333333334</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8687,14 +8383,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8704,22 +8394,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>16.49</v>
+        <v>16.04</v>
       </c>
       <c r="C229" t="n">
-        <v>16.49</v>
+        <v>16.04</v>
       </c>
       <c r="D229" t="n">
-        <v>16.49</v>
+        <v>16.04</v>
       </c>
       <c r="E229" t="n">
-        <v>16.49</v>
+        <v>16.04</v>
       </c>
       <c r="F229" t="n">
-        <v>31</v>
+        <v>157.1168</v>
       </c>
       <c r="G229" t="n">
-        <v>16.34966666666667</v>
+        <v>16.34950000000001</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8728,14 +8418,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8745,38 +8429,32 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>16.05</v>
+        <v>16.49</v>
       </c>
       <c r="C230" t="n">
-        <v>16.02</v>
+        <v>16.49</v>
       </c>
       <c r="D230" t="n">
         <v>16.49</v>
       </c>
       <c r="E230" t="n">
-        <v>16.02</v>
+        <v>16.49</v>
       </c>
       <c r="F230" t="n">
-        <v>933</v>
+        <v>31</v>
       </c>
       <c r="G230" t="n">
-        <v>16.34200000000001</v>
+        <v>16.34966666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8786,19 +8464,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>16.49</v>
+        <v>16.05</v>
       </c>
       <c r="C231" t="n">
-        <v>16.49</v>
+        <v>16.02</v>
       </c>
       <c r="D231" t="n">
         <v>16.49</v>
       </c>
       <c r="E231" t="n">
-        <v>16.49</v>
+        <v>16.02</v>
       </c>
       <c r="F231" t="n">
-        <v>31</v>
+        <v>933</v>
       </c>
       <c r="G231" t="n">
         <v>16.34200000000001</v>
@@ -8810,14 +8488,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8839,26 +8511,20 @@
         <v>16.49</v>
       </c>
       <c r="F232" t="n">
-        <v>749.417</v>
+        <v>31</v>
       </c>
       <c r="G232" t="n">
-        <v>16.33866666666667</v>
+        <v>16.34200000000001</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8880,10 +8546,10 @@
         <v>16.49</v>
       </c>
       <c r="F233" t="n">
-        <v>11365.7087</v>
+        <v>749.417</v>
       </c>
       <c r="G233" t="n">
-        <v>16.33516666666667</v>
+        <v>16.33866666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8892,14 +8558,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8921,10 +8581,10 @@
         <v>16.49</v>
       </c>
       <c r="F234" t="n">
-        <v>17310</v>
+        <v>11365.7087</v>
       </c>
       <c r="G234" t="n">
-        <v>16.33333333333334</v>
+        <v>16.33516666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8933,14 +8593,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8950,22 +8604,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>16.25</v>
+        <v>16.49</v>
       </c>
       <c r="C235" t="n">
-        <v>16.05</v>
+        <v>16.49</v>
       </c>
       <c r="D235" t="n">
-        <v>16.5</v>
+        <v>16.49</v>
       </c>
       <c r="E235" t="n">
-        <v>16.04</v>
+        <v>16.49</v>
       </c>
       <c r="F235" t="n">
-        <v>28690.2369</v>
+        <v>17310</v>
       </c>
       <c r="G235" t="n">
-        <v>16.32250000000001</v>
+        <v>16.33333333333334</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8974,14 +8628,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8991,22 +8639,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>16.06</v>
+        <v>16.25</v>
       </c>
       <c r="C236" t="n">
-        <v>16.08</v>
+        <v>16.05</v>
       </c>
       <c r="D236" t="n">
-        <v>16.08</v>
+        <v>16.5</v>
       </c>
       <c r="E236" t="n">
-        <v>16.06</v>
+        <v>16.04</v>
       </c>
       <c r="F236" t="n">
-        <v>96</v>
+        <v>28690.2369</v>
       </c>
       <c r="G236" t="n">
-        <v>16.31383333333334</v>
+        <v>16.32250000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9015,14 +8663,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9035,19 +8677,19 @@
         <v>16.06</v>
       </c>
       <c r="C237" t="n">
-        <v>16.46</v>
+        <v>16.08</v>
       </c>
       <c r="D237" t="n">
-        <v>16.46</v>
+        <v>16.08</v>
       </c>
       <c r="E237" t="n">
         <v>16.06</v>
       </c>
       <c r="F237" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G237" t="n">
-        <v>16.30983333333334</v>
+        <v>16.31383333333334</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9056,14 +8698,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9073,22 +8709,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="C238" t="n">
         <v>16.46</v>
       </c>
-      <c r="C238" t="n">
-        <v>16.16</v>
-      </c>
       <c r="D238" t="n">
-        <v>16.48</v>
+        <v>16.46</v>
       </c>
       <c r="E238" t="n">
-        <v>16.16</v>
+        <v>16.06</v>
       </c>
       <c r="F238" t="n">
-        <v>18531</v>
+        <v>63</v>
       </c>
       <c r="G238" t="n">
-        <v>16.3025</v>
+        <v>16.30983333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9097,14 +8733,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9114,22 +8744,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>16.48</v>
+        <v>16.46</v>
       </c>
       <c r="C239" t="n">
-        <v>16.48</v>
+        <v>16.16</v>
       </c>
       <c r="D239" t="n">
         <v>16.48</v>
       </c>
       <c r="E239" t="n">
-        <v>16.48</v>
+        <v>16.16</v>
       </c>
       <c r="F239" t="n">
-        <v>31</v>
+        <v>18531</v>
       </c>
       <c r="G239" t="n">
-        <v>16.29883333333334</v>
+        <v>16.3025</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9138,14 +8768,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9155,39 +8779,68 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C240" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D240" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E240" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F240" t="n">
+        <v>31</v>
+      </c>
+      <c r="G240" t="n">
+        <v>16.29883333333334</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>16.16</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C241" t="n">
         <v>16.16</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D241" t="n">
         <v>16.16</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E241" t="n">
         <v>16.16</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F241" t="n">
         <v>33</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G241" t="n">
         <v>16.2935</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest FAB.xlsx
+++ b/BackTest/2020-01-23 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:N251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
+        <v>16.59200000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>16.69416666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>30000</v>
       </c>
       <c r="G3" t="n">
+        <v>16.60066666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>16.6965</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5738.6509</v>
       </c>
       <c r="G4" t="n">
+        <v>16.59666666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>16.69533333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>101326.314</v>
       </c>
       <c r="G5" t="n">
+        <v>16.59533333333335</v>
+      </c>
+      <c r="H5" t="n">
         <v>16.69383333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10000</v>
       </c>
       <c r="G6" t="n">
+        <v>16.59266666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>16.69016666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>38670.2063</v>
       </c>
       <c r="G7" t="n">
+        <v>16.59133333333335</v>
+      </c>
+      <c r="H7" t="n">
         <v>16.683</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>29844.7513</v>
       </c>
       <c r="G8" t="n">
+        <v>16.58733333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>16.67433333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>29522.1438</v>
       </c>
       <c r="G9" t="n">
+        <v>16.57733333333335</v>
+      </c>
+      <c r="H9" t="n">
         <v>16.66516666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1316.7986</v>
       </c>
       <c r="G10" t="n">
+        <v>16.57333333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>16.65733333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>321</v>
       </c>
       <c r="G11" t="n">
+        <v>16.58400000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>16.6525</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1474.3322</v>
       </c>
       <c r="G12" t="n">
+        <v>16.59466666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>16.65166666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>202.497</v>
       </c>
       <c r="G13" t="n">
+        <v>16.59333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>16.648</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>200000</v>
       </c>
       <c r="G14" t="n">
+        <v>16.59466666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>16.64033333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>66825.6468</v>
       </c>
       <c r="G15" t="n">
+        <v>16.59733333333335</v>
+      </c>
+      <c r="H15" t="n">
         <v>16.63616666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>50000</v>
       </c>
       <c r="G16" t="n">
+        <v>16.60533333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>16.63833333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3807.7087</v>
       </c>
       <c r="G17" t="n">
+        <v>16.62400000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>16.63983333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>28320.3984</v>
       </c>
       <c r="G18" t="n">
+        <v>16.64800000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>16.64783333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>20626.3714</v>
       </c>
       <c r="G19" t="n">
+        <v>16.68533333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>16.65666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>15564.2007</v>
       </c>
       <c r="G20" t="n">
+        <v>16.72400000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>16.66550000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>13800.2852</v>
       </c>
       <c r="G21" t="n">
+        <v>16.76333333333335</v>
+      </c>
+      <c r="H21" t="n">
         <v>16.67533333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>5165.6584</v>
       </c>
       <c r="G22" t="n">
+        <v>16.79800000000002</v>
+      </c>
+      <c r="H22" t="n">
         <v>16.6855</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>816.7768</v>
       </c>
       <c r="G23" t="n">
+        <v>16.83266666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>16.69366666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>2355.7089</v>
       </c>
       <c r="G24" t="n">
+        <v>16.86266666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>16.692</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>5767.0342</v>
       </c>
       <c r="G25" t="n">
+        <v>16.87733333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>16.69283333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>10000</v>
       </c>
       <c r="G26" t="n">
+        <v>16.88000000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>16.68883333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>600</v>
       </c>
       <c r="G27" t="n">
+        <v>16.87133333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>16.68516666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,25 @@
         <v>30</v>
       </c>
       <c r="G28" t="n">
+        <v>16.88600000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>16.68116666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="L28" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1483,29 @@
         <v>176.4705</v>
       </c>
       <c r="G29" t="n">
+        <v>16.88733333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>16.68033333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1529,29 @@
         <v>61.8807</v>
       </c>
       <c r="G30" t="n">
+        <v>16.87400000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>16.681</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1575,29 @@
         <v>155467.0369</v>
       </c>
       <c r="G31" t="n">
+        <v>16.86866666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>16.68516666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="L31" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1621,29 @@
         <v>50000</v>
       </c>
       <c r="G32" t="n">
+        <v>16.86266666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>16.69166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1667,27 @@
         <v>14182.4973</v>
       </c>
       <c r="G33" t="n">
+        <v>16.85066666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>16.69816666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1711,27 @@
         <v>27611.4915</v>
       </c>
       <c r="G34" t="n">
+        <v>16.86400000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>16.70316666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1755,27 @@
         <v>25629.8807</v>
       </c>
       <c r="G35" t="n">
+        <v>16.87600000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>16.70783333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1799,27 @@
         <v>5097.0174</v>
       </c>
       <c r="G36" t="n">
+        <v>16.88866666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>16.71283333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1843,27 @@
         <v>3955.6418</v>
       </c>
       <c r="G37" t="n">
+        <v>16.90333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>16.72066666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1887,27 @@
         <v>29326.8575</v>
       </c>
       <c r="G38" t="n">
+        <v>16.90066666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>16.72433333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1931,27 @@
         <v>30</v>
       </c>
       <c r="G39" t="n">
+        <v>16.92533333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>16.73683333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1975,27 @@
         <v>60</v>
       </c>
       <c r="G40" t="n">
+        <v>16.95866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>16.749</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2019,27 @@
         <v>2000</v>
       </c>
       <c r="G41" t="n">
+        <v>16.95000000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>16.75083333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2063,27 @@
         <v>160032.6574</v>
       </c>
       <c r="G42" t="n">
+        <v>16.94533333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>16.74616666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2107,27 @@
         <v>68000</v>
       </c>
       <c r="G43" t="n">
+        <v>16.92933333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>16.74583333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2151,27 @@
         <v>10000</v>
       </c>
       <c r="G44" t="n">
+        <v>16.97333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>16.75316666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2195,27 @@
         <v>32225.5276</v>
       </c>
       <c r="G45" t="n">
+        <v>17.01333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>16.7635</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2239,27 @@
         <v>90000</v>
       </c>
       <c r="G46" t="n">
+        <v>17.02333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>16.7695</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2283,27 @@
         <v>30000</v>
       </c>
       <c r="G47" t="n">
+        <v>17.04466666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>16.78083333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2327,27 @@
         <v>18538.8024</v>
       </c>
       <c r="G48" t="n">
+        <v>17.06466666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>16.79100000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2371,27 @@
         <v>30865.1069</v>
       </c>
       <c r="G49" t="n">
+        <v>17.06133333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>16.80183333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2415,27 @@
         <v>19919.2991</v>
       </c>
       <c r="G50" t="n">
+        <v>17.05933333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>16.81366666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2459,27 @@
         <v>15123.5265</v>
       </c>
       <c r="G51" t="n">
+        <v>17.04333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>16.822</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2503,27 @@
         <v>53569.0392</v>
       </c>
       <c r="G52" t="n">
+        <v>17.01866666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>16.82783333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2547,27 @@
         <v>62702.877</v>
       </c>
       <c r="G53" t="n">
+        <v>17.01133333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>16.83300000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2591,27 @@
         <v>18460.4735</v>
       </c>
       <c r="G54" t="n">
+        <v>17.00933333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>16.84366666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2635,27 @@
         <v>26787.2525</v>
       </c>
       <c r="G55" t="n">
+        <v>16.964</v>
+      </c>
+      <c r="H55" t="n">
         <v>16.84333333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2679,27 @@
         <v>3302.9803</v>
       </c>
       <c r="G56" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="H56" t="n">
         <v>16.846</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2723,27 @@
         <v>22326.9004</v>
       </c>
       <c r="G57" t="n">
+        <v>16.974</v>
+      </c>
+      <c r="H57" t="n">
         <v>16.84633333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2767,27 @@
         <v>1754.386</v>
       </c>
       <c r="G58" t="n">
+        <v>17.01333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>16.8555</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2811,27 @@
         <v>27744.3132</v>
       </c>
       <c r="G59" t="n">
+        <v>17.00533333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>16.86516666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2855,27 @@
         <v>2255.6868</v>
       </c>
       <c r="G60" t="n">
+        <v>17.00133333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>16.8715</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2899,27 @@
         <v>30</v>
       </c>
       <c r="G61" t="n">
+        <v>17.01466666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>16.878</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2943,27 @@
         <v>522.4483</v>
       </c>
       <c r="G62" t="n">
+        <v>16.984</v>
+      </c>
+      <c r="H62" t="n">
         <v>16.87883333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2987,27 @@
         <v>30</v>
       </c>
       <c r="G63" t="n">
+        <v>16.97733333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>16.88516666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3031,27 @@
         <v>6628.7647</v>
       </c>
       <c r="G64" t="n">
+        <v>16.94466666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>16.88883333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3075,27 @@
         <v>182.6574</v>
       </c>
       <c r="G65" t="n">
+        <v>16.91533333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>16.89366666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3119,27 @@
         <v>57643.6912</v>
       </c>
       <c r="G66" t="n">
+        <v>16.918</v>
+      </c>
+      <c r="H66" t="n">
         <v>16.90333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3163,27 @@
         <v>3492.4102</v>
       </c>
       <c r="G67" t="n">
+        <v>16.918</v>
+      </c>
+      <c r="H67" t="n">
         <v>16.90949999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3207,27 @@
         <v>3492.4102</v>
       </c>
       <c r="G68" t="n">
+        <v>16.91133333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>16.91399999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3251,27 @@
         <v>30</v>
       </c>
       <c r="G69" t="n">
+        <v>16.88866666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>16.92149999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3295,27 @@
         <v>13623.3062</v>
       </c>
       <c r="G70" t="n">
+        <v>16.91066666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>16.92766666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3339,27 @@
         <v>12390.8072</v>
       </c>
       <c r="G71" t="n">
+        <v>16.90999999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>16.9275</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3383,27 @@
         <v>30</v>
       </c>
       <c r="G72" t="n">
+        <v>16.92533333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>16.92899999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3427,27 @@
         <v>100000</v>
       </c>
       <c r="G73" t="n">
+        <v>16.88999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>16.92966666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3471,27 @@
         <v>30000</v>
       </c>
       <c r="G74" t="n">
+        <v>16.88999999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>16.939</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3515,27 @@
         <v>715.6205</v>
       </c>
       <c r="G75" t="n">
+        <v>16.85799999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>16.93666666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3559,27 @@
         <v>16780.5187</v>
       </c>
       <c r="G76" t="n">
+        <v>16.85333333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>16.93999999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3603,27 @@
         <v>6762.1837</v>
       </c>
       <c r="G77" t="n">
+        <v>16.84933333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>16.93516666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3647,27 @@
         <v>3447.2858</v>
       </c>
       <c r="G78" t="n">
+        <v>16.82266666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>16.92883333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3691,27 @@
         <v>9720.168600000001</v>
       </c>
       <c r="G79" t="n">
+        <v>16.81066666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>16.92016666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3735,27 @@
         <v>41176.4633</v>
       </c>
       <c r="G80" t="n">
+        <v>16.79333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>16.91099999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3779,27 @@
         <v>2521.4727</v>
       </c>
       <c r="G81" t="n">
+        <v>16.78733333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>16.90933333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3823,27 @@
         <v>22693.7831</v>
       </c>
       <c r="G82" t="n">
+        <v>16.794</v>
+      </c>
+      <c r="H82" t="n">
         <v>16.90849999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3867,27 @@
         <v>1177.163037080636</v>
       </c>
       <c r="G83" t="n">
+        <v>16.80666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>16.90749999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3911,27 @@
         <v>57.2626</v>
       </c>
       <c r="G84" t="n">
+        <v>16.81199999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>16.90883333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3955,27 @@
         <v>18152.7406</v>
       </c>
       <c r="G85" t="n">
+        <v>16.81733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>16.91266666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3999,27 @@
         <v>7101.0139</v>
       </c>
       <c r="G86" t="n">
+        <v>16.84266666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>16.91816666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4043,27 @@
         <v>9411.4175</v>
       </c>
       <c r="G87" t="n">
+        <v>16.86133333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>16.92649999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4087,27 @@
         <v>49281.6865</v>
       </c>
       <c r="G88" t="n">
+        <v>16.88866666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>16.93033333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4131,27 @@
         <v>3124.2207</v>
       </c>
       <c r="G89" t="n">
+        <v>16.87466666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>16.93583333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4175,27 @@
         <v>2275.5561</v>
       </c>
       <c r="G90" t="n">
+        <v>16.88066666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>16.93833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4219,27 @@
         <v>1000</v>
       </c>
       <c r="G91" t="n">
+        <v>16.87066666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>16.94049999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4263,27 @@
         <v>30</v>
       </c>
       <c r="G92" t="n">
+        <v>16.884</v>
+      </c>
+      <c r="H92" t="n">
         <v>16.9405</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4307,27 @@
         <v>78412.93889999999</v>
       </c>
       <c r="G93" t="n">
+        <v>16.87733333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>16.9355</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4351,27 @@
         <v>11000.3199</v>
       </c>
       <c r="G94" t="n">
+        <v>16.876</v>
+      </c>
+      <c r="H94" t="n">
         <v>16.92316666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4395,27 @@
         <v>4083.9518</v>
       </c>
       <c r="G95" t="n">
+        <v>16.89933333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>16.91683333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4439,27 @@
         <v>5635</v>
       </c>
       <c r="G96" t="n">
+        <v>16.892</v>
+      </c>
+      <c r="H96" t="n">
         <v>16.91016666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4483,27 @@
         <v>117394.7571</v>
       </c>
       <c r="G97" t="n">
+        <v>16.898</v>
+      </c>
+      <c r="H97" t="n">
         <v>16.90716666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4527,27 @@
         <v>87687.2522</v>
       </c>
       <c r="G98" t="n">
+        <v>16.91133333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>16.91016666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4571,27 @@
         <v>145604.466</v>
       </c>
       <c r="G99" t="n">
+        <v>16.93333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>16.91083333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4615,27 @@
         <v>168401.3751</v>
       </c>
       <c r="G100" t="n">
+        <v>16.97133333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>16.91583333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4659,27 @@
         <v>198163.5695</v>
       </c>
       <c r="G101" t="n">
+        <v>17.008</v>
+      </c>
+      <c r="H101" t="n">
         <v>16.93266666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4703,27 @@
         <v>32109.5291</v>
       </c>
       <c r="G102" t="n">
+        <v>17.04466666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>16.95133333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4747,27 @@
         <v>13822.2358</v>
       </c>
       <c r="G103" t="n">
+        <v>17.08266666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>16.96866666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4791,27 @@
         <v>29</v>
       </c>
       <c r="G104" t="n">
+        <v>17.13266666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>16.97566666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4835,27 @@
         <v>1910.0385</v>
       </c>
       <c r="G105" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="H105" t="n">
         <v>16.98</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4879,27 @@
         <v>2157.2959</v>
       </c>
       <c r="G106" t="n">
+        <v>17.21533333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>16.98850000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4923,27 @@
         <v>15369.7955</v>
       </c>
       <c r="G107" t="n">
+        <v>17.26400000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>16.99533333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4967,27 @@
         <v>37629.1146</v>
       </c>
       <c r="G108" t="n">
+        <v>17.34333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>17.00516666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +5011,27 @@
         <v>18422.0621</v>
       </c>
       <c r="G109" t="n">
+        <v>17.42600000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>17.01433333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +5055,27 @@
         <v>35044.5429</v>
       </c>
       <c r="G110" t="n">
+        <v>17.45933333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>17.01683333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +5099,27 @@
         <v>29</v>
       </c>
       <c r="G111" t="n">
+        <v>17.51333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>17.02766666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,19 +5143,28 @@
         <v>10728.85494367622</v>
       </c>
       <c r="G112" t="n">
+        <v>17.56000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>17.0425</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
+      <c r="L112" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1.067979493365501</v>
       </c>
     </row>
     <row r="113">
@@ -4333,18 +5187,21 @@
         <v>11961.414</v>
       </c>
       <c r="G113" t="n">
+        <v>17.60000000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>17.05733333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5225,21 @@
         <v>9419.413</v>
       </c>
       <c r="G114" t="n">
+        <v>17.62533333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>17.06483333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5263,21 @@
         <v>13290.2346</v>
       </c>
       <c r="G115" t="n">
+        <v>17.63133333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>17.08266666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5301,21 @@
         <v>41070.8653</v>
       </c>
       <c r="G116" t="n">
+        <v>17.61200000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>17.09316666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5339,21 @@
         <v>38029.5433</v>
       </c>
       <c r="G117" t="n">
+        <v>17.59266666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>17.10600000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5377,21 @@
         <v>11385.5314</v>
       </c>
       <c r="G118" t="n">
+        <v>17.57733333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>17.10966666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5415,21 @@
         <v>4095.969</v>
       </c>
       <c r="G119" t="n">
+        <v>17.55666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>17.11350000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5453,21 @@
         <v>1918.5387</v>
       </c>
       <c r="G120" t="n">
+        <v>17.55066666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>17.11733333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5491,21 @@
         <v>30</v>
       </c>
       <c r="G121" t="n">
+        <v>17.55666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>17.12400000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5529,21 @@
         <v>226647.4622</v>
       </c>
       <c r="G122" t="n">
+        <v>17.528</v>
+      </c>
+      <c r="H122" t="n">
         <v>17.13133333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5567,21 @@
         <v>10000.5853</v>
       </c>
       <c r="G123" t="n">
+        <v>17.488</v>
+      </c>
+      <c r="H123" t="n">
         <v>17.13283333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5605,21 @@
         <v>12311.5772</v>
       </c>
       <c r="G124" t="n">
+        <v>17.44733333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>17.14000000000001</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5643,21 @@
         <v>3341.5202</v>
       </c>
       <c r="G125" t="n">
+        <v>17.43466666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>17.14666666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5681,21 @@
         <v>29076.9016</v>
       </c>
       <c r="G126" t="n">
+        <v>17.394</v>
+      </c>
+      <c r="H126" t="n">
         <v>17.14666666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5719,21 @@
         <v>7030</v>
       </c>
       <c r="G127" t="n">
+        <v>17.35333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>17.15133333333335</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5757,21 @@
         <v>26127.9076</v>
       </c>
       <c r="G128" t="n">
+        <v>17.31266666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>17.15766666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5795,21 @@
         <v>11345.1345</v>
       </c>
       <c r="G129" t="n">
+        <v>17.26866666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>17.15983333333335</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5833,21 @@
         <v>579</v>
       </c>
       <c r="G130" t="n">
+        <v>17.238</v>
+      </c>
+      <c r="H130" t="n">
         <v>17.16450000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5871,21 @@
         <v>11345.1345</v>
       </c>
       <c r="G131" t="n">
+        <v>17.21733333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>17.17000000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5909,21 @@
         <v>30</v>
       </c>
       <c r="G132" t="n">
+        <v>17.20666666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>17.17633333333335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5947,21 @@
         <v>57.3685</v>
       </c>
       <c r="G133" t="n">
+        <v>17.19533333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>17.18600000000002</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5985,21 @@
         <v>2222.2833</v>
       </c>
       <c r="G134" t="n">
+        <v>17.18399999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>17.18700000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +6023,21 @@
         <v>6698.5255</v>
       </c>
       <c r="G135" t="n">
+        <v>17.17266666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>17.19600000000002</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +6061,21 @@
         <v>116.6181</v>
       </c>
       <c r="G136" t="n">
+        <v>17.14933333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>17.19800000000003</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +6099,21 @@
         <v>5309.4178</v>
       </c>
       <c r="G137" t="n">
+        <v>17.14599999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>17.20550000000003</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6137,21 @@
         <v>6349.411</v>
       </c>
       <c r="G138" t="n">
+        <v>17.14333333333332</v>
+      </c>
+      <c r="H138" t="n">
         <v>17.21300000000003</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6175,21 @@
         <v>1396.4975</v>
       </c>
       <c r="G139" t="n">
+        <v>17.14133333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>17.22266666666669</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6213,21 @@
         <v>4429.9499</v>
       </c>
       <c r="G140" t="n">
+        <v>17.13799999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>17.23283333333336</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6251,21 @@
         <v>23425.9446</v>
       </c>
       <c r="G141" t="n">
+        <v>17.13799999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>17.23433333333336</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6289,21 @@
         <v>5806.1325</v>
       </c>
       <c r="G142" t="n">
+        <v>17.13799999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>17.23733333333336</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6327,21 @@
         <v>15398.5313</v>
       </c>
       <c r="G143" t="n">
+        <v>17.13799999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>17.24050000000003</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6365,21 @@
         <v>51972.9478</v>
       </c>
       <c r="G144" t="n">
+        <v>17.13799999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>17.24133333333337</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6403,21 @@
         <v>22685.2899</v>
       </c>
       <c r="G145" t="n">
+        <v>17.12799999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>17.2421666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6441,21 @@
         <v>7548.5515</v>
       </c>
       <c r="G146" t="n">
+        <v>17.12799999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>17.24133333333337</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6479,21 @@
         <v>12951.6256</v>
       </c>
       <c r="G147" t="n">
+        <v>17.11666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>17.2401666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6517,21 @@
         <v>7049.3474</v>
       </c>
       <c r="G148" t="n">
+        <v>17.10733333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>17.2406666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6555,21 @@
         <v>1323.5936</v>
       </c>
       <c r="G149" t="n">
+        <v>17.09733333333332</v>
+      </c>
+      <c r="H149" t="n">
         <v>17.2426666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6593,21 @@
         <v>6230.0105</v>
       </c>
       <c r="G150" t="n">
+        <v>17.08066666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>17.24600000000003</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6631,21 @@
         <v>1284.1524</v>
       </c>
       <c r="G151" t="n">
+        <v>17.05066666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>17.24300000000003</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6669,21 @@
         <v>6482.2506</v>
       </c>
       <c r="G152" t="n">
+        <v>17.02066666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>17.2396666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6707,21 @@
         <v>30</v>
       </c>
       <c r="G153" t="n">
+        <v>16.99866666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>17.24333333333336</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6745,21 @@
         <v>53303.6732</v>
       </c>
       <c r="G154" t="n">
+        <v>16.96866666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>17.24583333333336</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6783,21 @@
         <v>22685.2899</v>
       </c>
       <c r="G155" t="n">
+        <v>16.93333333333332</v>
+      </c>
+      <c r="H155" t="n">
         <v>17.24133333333336</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6821,21 @@
         <v>6094.4938</v>
       </c>
       <c r="G156" t="n">
+        <v>16.90199999999999</v>
+      </c>
+      <c r="H156" t="n">
         <v>17.23683333333336</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6859,21 @@
         <v>155239.0564</v>
       </c>
       <c r="G157" t="n">
+        <v>16.86466666666665</v>
+      </c>
+      <c r="H157" t="n">
         <v>17.22900000000002</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6897,21 @@
         <v>8220.8397</v>
       </c>
       <c r="G158" t="n">
+        <v>16.82733333333332</v>
+      </c>
+      <c r="H158" t="n">
         <v>17.21950000000002</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6935,21 @@
         <v>156441.3135</v>
       </c>
       <c r="G159" t="n">
+        <v>16.79866666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>17.20766666666669</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6973,21 @@
         <v>44753.1353</v>
       </c>
       <c r="G160" t="n">
+        <v>16.76466666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>17.19050000000002</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +7011,21 @@
         <v>5953.7786</v>
       </c>
       <c r="G161" t="n">
+        <v>16.73533333333332</v>
+      </c>
+      <c r="H161" t="n">
         <v>17.17316666666668</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +7049,21 @@
         <v>74103.356</v>
       </c>
       <c r="G162" t="n">
+        <v>16.68733333333332</v>
+      </c>
+      <c r="H162" t="n">
         <v>17.15083333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +7087,21 @@
         <v>666930.2044</v>
       </c>
       <c r="G163" t="n">
+        <v>16.63333333333332</v>
+      </c>
+      <c r="H163" t="n">
         <v>17.12833333333335</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7125,21 @@
         <v>3430.2876</v>
       </c>
       <c r="G164" t="n">
+        <v>16.59933333333332</v>
+      </c>
+      <c r="H164" t="n">
         <v>17.10933333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7163,21 @@
         <v>3646.9251</v>
       </c>
       <c r="G165" t="n">
+        <v>16.57199999999999</v>
+      </c>
+      <c r="H165" t="n">
         <v>17.09400000000001</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7201,21 @@
         <v>469.9367</v>
       </c>
       <c r="G166" t="n">
+        <v>16.55733333333332</v>
+      </c>
+      <c r="H166" t="n">
         <v>17.07850000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7239,21 @@
         <v>10977.8283</v>
       </c>
       <c r="G167" t="n">
+        <v>16.54266666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>17.05933333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7277,21 @@
         <v>12744.4489</v>
       </c>
       <c r="G168" t="n">
+        <v>16.51999999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>17.03750000000001</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7315,21 @@
         <v>63882.454</v>
       </c>
       <c r="G169" t="n">
+        <v>16.50533333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>17.01566666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7353,21 @@
         <v>6709.7686</v>
       </c>
       <c r="G170" t="n">
+        <v>16.496</v>
+      </c>
+      <c r="H170" t="n">
         <v>17.00050000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7391,21 @@
         <v>50552.8165</v>
       </c>
       <c r="G171" t="n">
+        <v>16.48666666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>16.98016666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7429,21 @@
         <v>51115.0214</v>
       </c>
       <c r="G172" t="n">
+        <v>16.478</v>
+      </c>
+      <c r="H172" t="n">
         <v>16.95850000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7467,21 @@
         <v>10369.9851</v>
       </c>
       <c r="G173" t="n">
+        <v>16.48266666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>16.94016666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7505,21 @@
         <v>40000</v>
       </c>
       <c r="G174" t="n">
+        <v>16.48933333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>16.92366666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7543,21 @@
         <v>3340.0542</v>
       </c>
       <c r="G175" t="n">
+        <v>16.49466666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>16.90633333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7581,21 @@
         <v>30</v>
       </c>
       <c r="G176" t="n">
+        <v>16.502</v>
+      </c>
+      <c r="H176" t="n">
         <v>16.89566666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7619,21 @@
         <v>11491.5082</v>
       </c>
       <c r="G177" t="n">
+        <v>16.52266666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>16.88333333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7657,21 @@
         <v>13011.6829</v>
       </c>
       <c r="G178" t="n">
+        <v>16.556</v>
+      </c>
+      <c r="H178" t="n">
         <v>16.87300000000001</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7695,21 @@
         <v>1300</v>
       </c>
       <c r="G179" t="n">
+        <v>16.56333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>16.86100000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7733,21 @@
         <v>30</v>
       </c>
       <c r="G180" t="n">
+        <v>16.57733333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>16.85066666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7771,21 @@
         <v>71523.5404</v>
       </c>
       <c r="G181" t="n">
+        <v>16.57733333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>16.83366666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7809,21 @@
         <v>65.2497</v>
       </c>
       <c r="G182" t="n">
+        <v>16.566</v>
+      </c>
+      <c r="H182" t="n">
         <v>16.81883333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7847,21 @@
         <v>95151.308</v>
       </c>
       <c r="G183" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="H183" t="n">
         <v>16.803</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7885,21 @@
         <v>30</v>
       </c>
       <c r="G184" t="n">
+        <v>16.56466666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>16.795</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7923,21 @@
         <v>167.168</v>
       </c>
       <c r="G185" t="n">
+        <v>16.57866666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>16.7865</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7961,21 @@
         <v>213412.8801</v>
       </c>
       <c r="G186" t="n">
+        <v>16.56733333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>16.7735</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7999,21 @@
         <v>610630.1219</v>
       </c>
       <c r="G187" t="n">
+        <v>16.548</v>
+      </c>
+      <c r="H187" t="n">
         <v>16.75716666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +8037,21 @@
         <v>64379.1864</v>
       </c>
       <c r="G188" t="n">
+        <v>16.51533333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>16.74083333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +8075,21 @@
         <v>2347.3415</v>
       </c>
       <c r="G189" t="n">
+        <v>16.482</v>
+      </c>
+      <c r="H189" t="n">
         <v>16.727</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +8113,21 @@
         <v>1114.0867</v>
       </c>
       <c r="G190" t="n">
+        <v>16.45533333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>16.71066666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +8151,21 @@
         <v>23738.4852</v>
       </c>
       <c r="G191" t="n">
+        <v>16.41066666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>16.69400000000001</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8189,21 @@
         <v>43429.9832</v>
       </c>
       <c r="G192" t="n">
+        <v>16.372</v>
+      </c>
+      <c r="H192" t="n">
         <v>16.67466666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8227,21 @@
         <v>58573.4588</v>
       </c>
       <c r="G193" t="n">
+        <v>16.32666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>16.65583333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8265,21 @@
         <v>24130.0183</v>
       </c>
       <c r="G194" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="H194" t="n">
         <v>16.63750000000001</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8303,21 @@
         <v>236723.4428</v>
       </c>
       <c r="G195" t="n">
+        <v>16.24333333333334</v>
+      </c>
+      <c r="H195" t="n">
         <v>16.61833333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8341,21 @@
         <v>30</v>
       </c>
       <c r="G196" t="n">
+        <v>16.26466666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>16.6125</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8379,21 @@
         <v>2994.87</v>
       </c>
       <c r="G197" t="n">
+        <v>16.284</v>
+      </c>
+      <c r="H197" t="n">
         <v>16.60333333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8417,21 @@
         <v>1567.2571</v>
       </c>
       <c r="G198" t="n">
+        <v>16.268</v>
+      </c>
+      <c r="H198" t="n">
         <v>16.58416666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8455,21 @@
         <v>207547.2419824299</v>
       </c>
       <c r="G199" t="n">
+        <v>16.22133333333334</v>
+      </c>
+      <c r="H199" t="n">
         <v>16.56500000000001</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8493,21 @@
         <v>29651.34831757009</v>
       </c>
       <c r="G200" t="n">
+        <v>16.17533333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>16.54583333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8531,21 @@
         <v>31</v>
       </c>
       <c r="G201" t="n">
+        <v>16.17933333333334</v>
+      </c>
+      <c r="H201" t="n">
         <v>16.53383333333334</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8569,21 @@
         <v>10528.9992</v>
       </c>
       <c r="G202" t="n">
+        <v>16.166</v>
+      </c>
+      <c r="H202" t="n">
         <v>16.51416666666668</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8607,21 @@
         <v>31</v>
       </c>
       <c r="G203" t="n">
+        <v>16.17733333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>16.50066666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8645,21 @@
         <v>12780.009</v>
       </c>
       <c r="G204" t="n">
+        <v>16.18733333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>16.48933333333334</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8683,21 @@
         <v>3497.0109</v>
       </c>
       <c r="G205" t="n">
+        <v>16.19733333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>16.47800000000001</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8721,21 @@
         <v>755.404</v>
       </c>
       <c r="G206" t="n">
+        <v>16.20800000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>16.46400000000001</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8759,21 @@
         <v>3791.5024</v>
       </c>
       <c r="G207" t="n">
+        <v>16.20666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>16.44716666666668</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8797,21 @@
         <v>40031</v>
       </c>
       <c r="G208" t="n">
+        <v>16.21466666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>16.43266666666668</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8835,25 @@
         <v>31134.6633</v>
       </c>
       <c r="G209" t="n">
+        <v>16.22066666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>16.41833333333334</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="L209" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8877,29 @@
         <v>720.3033</v>
       </c>
       <c r="G210" t="n">
+        <v>16.22933333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>16.40550000000001</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="L210" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8923,29 @@
         <v>35030</v>
       </c>
       <c r="G211" t="n">
+        <v>16.18466666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>16.39600000000001</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="L211" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,22 +8969,29 @@
         <v>91569.197</v>
       </c>
       <c r="G212" t="n">
+        <v>16.14466666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>16.38433333333334</v>
       </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>16.13</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
         <v>16.13</v>
       </c>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7837,24 +9015,29 @@
         <v>30</v>
       </c>
       <c r="G213" t="n">
+        <v>16.15333333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>16.37283333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+        <v>16</v>
+      </c>
+      <c r="L213" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7878,24 +9061,27 @@
         <v>10000</v>
       </c>
       <c r="G214" t="n">
+        <v>16.16200000000001</v>
+      </c>
+      <c r="H214" t="n">
         <v>16.36333333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +9105,29 @@
         <v>8624.3887</v>
       </c>
       <c r="G215" t="n">
+        <v>16.17066666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>16.35516666666668</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="L215" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,18 +9151,27 @@
         <v>23706.3641</v>
       </c>
       <c r="G216" t="n">
+        <v>16.15933333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>16.34816666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,18 +9195,29 @@
         <v>20437.1113</v>
       </c>
       <c r="G217" t="n">
+        <v>16.20800000000001</v>
+      </c>
+      <c r="H217" t="n">
         <v>16.35000000000001</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,18 +9241,27 @@
         <v>163362.5382</v>
       </c>
       <c r="G218" t="n">
+        <v>16.21466666666668</v>
+      </c>
+      <c r="H218" t="n">
         <v>16.34750000000001</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,18 +9285,27 @@
         <v>3756.0682</v>
       </c>
       <c r="G219" t="n">
+        <v>16.22266666666668</v>
+      </c>
+      <c r="H219" t="n">
         <v>16.34533333333334</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,18 +9329,27 @@
         <v>31</v>
       </c>
       <c r="G220" t="n">
+        <v>16.23266666666668</v>
+      </c>
+      <c r="H220" t="n">
         <v>16.34500000000001</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8129,18 +9373,29 @@
         <v>30</v>
       </c>
       <c r="G221" t="n">
+        <v>16.26666666666668</v>
+      </c>
+      <c r="H221" t="n">
         <v>16.34683333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L221" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8164,18 +9419,27 @@
         <v>3104.7164</v>
       </c>
       <c r="G222" t="n">
+        <v>16.30000000000001</v>
+      </c>
+      <c r="H222" t="n">
         <v>16.35033333333335</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8199,18 +9463,27 @@
         <v>27635.3344</v>
       </c>
       <c r="G223" t="n">
+        <v>16.33466666666668</v>
+      </c>
+      <c r="H223" t="n">
         <v>16.35800000000001</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8234,18 +9507,29 @@
         <v>30</v>
       </c>
       <c r="G224" t="n">
+        <v>16.37266666666668</v>
+      </c>
+      <c r="H224" t="n">
         <v>16.36166666666668</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="L224" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8269,18 +9553,27 @@
         <v>1416.8942</v>
       </c>
       <c r="G225" t="n">
+        <v>16.39733333333335</v>
+      </c>
+      <c r="H225" t="n">
         <v>16.36183333333334</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8304,18 +9597,27 @@
         <v>31</v>
       </c>
       <c r="G226" t="n">
+        <v>16.42866666666668</v>
+      </c>
+      <c r="H226" t="n">
         <v>16.36383333333334</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8339,18 +9641,27 @@
         <v>112170.5896</v>
       </c>
       <c r="G227" t="n">
+        <v>16.46200000000001</v>
+      </c>
+      <c r="H227" t="n">
         <v>16.36416666666668</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8374,18 +9685,27 @@
         <v>32</v>
       </c>
       <c r="G228" t="n">
+        <v>16.45600000000002</v>
+      </c>
+      <c r="H228" t="n">
         <v>16.35683333333334</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8409,18 +9729,27 @@
         <v>157.1168</v>
       </c>
       <c r="G229" t="n">
+        <v>16.45000000000002</v>
+      </c>
+      <c r="H229" t="n">
         <v>16.34950000000001</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8444,18 +9773,29 @@
         <v>31</v>
       </c>
       <c r="G230" t="n">
+        <v>16.47400000000002</v>
+      </c>
+      <c r="H230" t="n">
         <v>16.34966666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>1</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="L230" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,18 +9819,27 @@
         <v>933</v>
       </c>
       <c r="G231" t="n">
+        <v>16.46200000000002</v>
+      </c>
+      <c r="H231" t="n">
         <v>16.34200000000001</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8514,18 +9863,29 @@
         <v>31</v>
       </c>
       <c r="G232" t="n">
+        <v>16.44600000000002</v>
+      </c>
+      <c r="H232" t="n">
         <v>16.34200000000001</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>1</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="L232" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8549,18 +9909,29 @@
         <v>749.417</v>
       </c>
       <c r="G233" t="n">
+        <v>16.44733333333335</v>
+      </c>
+      <c r="H233" t="n">
         <v>16.33866666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="L233" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8584,18 +9955,29 @@
         <v>11365.7087</v>
       </c>
       <c r="G234" t="n">
+        <v>16.44866666666669</v>
+      </c>
+      <c r="H234" t="n">
         <v>16.33516666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="L234" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8619,18 +10001,29 @@
         <v>17310</v>
       </c>
       <c r="G235" t="n">
+        <v>16.44800000000002</v>
+      </c>
+      <c r="H235" t="n">
         <v>16.33333333333334</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="L235" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,18 +10047,27 @@
         <v>28690.2369</v>
       </c>
       <c r="G236" t="n">
+        <v>16.40466666666669</v>
+      </c>
+      <c r="H236" t="n">
         <v>16.32250000000001</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8689,18 +10091,29 @@
         <v>96</v>
       </c>
       <c r="G237" t="n">
+        <v>16.37666666666668</v>
+      </c>
+      <c r="H237" t="n">
         <v>16.31383333333334</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="L237" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8724,18 +10137,27 @@
         <v>63</v>
       </c>
       <c r="G238" t="n">
+        <v>16.36333333333335</v>
+      </c>
+      <c r="H238" t="n">
         <v>16.30983333333334</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,18 +10181,29 @@
         <v>18531</v>
       </c>
       <c r="G239" t="n">
+        <v>16.32666666666668</v>
+      </c>
+      <c r="H239" t="n">
         <v>16.3025</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="L239" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8794,18 +10227,27 @@
         <v>31</v>
       </c>
       <c r="G240" t="n">
+        <v>16.32533333333335</v>
+      </c>
+      <c r="H240" t="n">
         <v>16.29883333333334</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8829,18 +10271,477 @@
         <v>33</v>
       </c>
       <c r="G241" t="n">
+        <v>16.29600000000002</v>
+      </c>
+      <c r="H241" t="n">
         <v>16.2935</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C242" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D242" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E242" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F242" t="n">
+        <v>31</v>
+      </c>
+      <c r="G242" t="n">
+        <v>16.29466666666668</v>
+      </c>
+      <c r="H242" t="n">
+        <v>16.29633333333334</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="L242" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="C243" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D243" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="E243" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F243" t="n">
+        <v>31</v>
+      </c>
+      <c r="G243" t="n">
+        <v>16.30266666666668</v>
+      </c>
+      <c r="H243" t="n">
+        <v>16.295</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="L243" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="C244" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D244" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="E244" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F244" t="n">
+        <v>31.0945</v>
+      </c>
+      <c r="G244" t="n">
+        <v>16.31066666666668</v>
+      </c>
+      <c r="H244" t="n">
+        <v>16.286</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="L244" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C245" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="D245" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E245" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F245" t="n">
+        <v>34077.0864</v>
+      </c>
+      <c r="G245" t="n">
+        <v>16.29066666666669</v>
+      </c>
+      <c r="H245" t="n">
+        <v>16.27766666666667</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="C246" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D246" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="E246" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F246" t="n">
+        <v>31</v>
+      </c>
+      <c r="G246" t="n">
+        <v>16.30000000000002</v>
+      </c>
+      <c r="H246" t="n">
+        <v>16.27516666666667</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="L246" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C247" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="D247" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E247" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F247" t="n">
+        <v>31</v>
+      </c>
+      <c r="G247" t="n">
+        <v>16.28000000000002</v>
+      </c>
+      <c r="H247" t="n">
+        <v>16.275</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C248" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D248" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E248" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3224.2227</v>
+      </c>
+      <c r="G248" t="n">
+        <v>16.27933333333335</v>
+      </c>
+      <c r="H248" t="n">
+        <v>16.27966666666667</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C249" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D249" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E249" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F249" t="n">
+        <v>7582.6614</v>
+      </c>
+      <c r="G249" t="n">
+        <v>16.25733333333336</v>
+      </c>
+      <c r="H249" t="n">
+        <v>16.279</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="C250" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="D250" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="E250" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2818.8155</v>
+      </c>
+      <c r="G250" t="n">
+        <v>16.23066666666669</v>
+      </c>
+      <c r="H250" t="n">
+        <v>16.27716666666667</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C251" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D251" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E251" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F251" t="n">
+        <v>31</v>
+      </c>
+      <c r="G251" t="n">
+        <v>16.25933333333336</v>
+      </c>
+      <c r="H251" t="n">
+        <v>16.28466666666667</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="L251" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest FAB.xlsx
+++ b/BackTest/2020-01-23 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N309"/>
+  <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5665,15 @@
         <v>-748535.9404191058</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5698,15 @@
         <v>-762358.1762191058</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5731,15 @@
         <v>-762329.1762191058</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,18 +5995,15 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6576,18 +6061,15 @@
         <v>-744946.4055754296</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7116,18 +6556,15 @@
         <v>-1089673.17747543</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +6622,15 @@
         <v>-1100439.31197543</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +6655,15 @@
         <v>-1100409.31197543</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7260,18 +6688,15 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,18 +6820,15 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7440,18 +6853,15 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7548,18 +6952,15 @@
         <v>-1123892.62507543</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7584,18 +6985,15 @@
         <v>-1118086.49257543</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9492,18 +8734,21 @@
         <v>-3373378.69927543</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>16.05</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9528,18 +8773,21 @@
         <v>-3373348.69927543</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9564,18 +8812,21 @@
         <v>-3376343.56927543</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8853,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8890,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8927,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8964,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +9001,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9780,18 +9036,21 @@
         <v>-3388377.82557543</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9816,18 +9075,21 @@
         <v>-3401157.83457543</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>16.37</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9852,18 +9114,21 @@
         <v>-3401157.83457543</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>16.35</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9888,18 +9153,21 @@
         <v>-3401913.23857543</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>16.35</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9924,18 +9192,21 @@
         <v>-3405704.74097543</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>16.19</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9960,18 +9231,21 @@
         <v>-3365673.74097543</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9272,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9309,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9346,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9383,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9420,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10176,18 +9455,21 @@
         <v>-3457933.24127543</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>16.13</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10212,18 +9494,21 @@
         <v>-3457933.24127543</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>16.13</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9535,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9572,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10320,18 +9607,21 @@
         <v>-3577152.30407543</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>16.73</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9648,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9685,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10428,18 +9720,21 @@
         <v>-3577091.30407543</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9761,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9798,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9835,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9872,17 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9909,17 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10644,18 +9944,21 @@
         <v>-3666087.16987543</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10680,18 +9983,21 @@
         <v>-3666119.16987543</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10716,18 +10022,21 @@
         <v>-3666119.16987543</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +10063,17 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10788,18 +10098,21 @@
         <v>-3667021.16987543</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>16.49</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +10139,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +10176,17 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10213,17 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10932,18 +10248,21 @@
         <v>-3666990.16987543</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>16.49</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10289,17 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11004,18 +10324,21 @@
         <v>-3695584.40677543</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>16.05</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11040,18 +10363,21 @@
         <v>-3695521.40677543</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>16.08</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11076,18 +10402,21 @@
         <v>-3714052.40677543</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11112,18 +10441,21 @@
         <v>-3714021.40677543</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11148,22 +10480,21 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="n">
         <v>16.48</v>
       </c>
-      <c r="K299" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11188,26 +10519,21 @@
         <v>-3714023.40677543</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="n">
         <v>16.16</v>
       </c>
-      <c r="K300" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="L300" t="inlineStr">
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11232,26 +10558,21 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="n">
         <v>16.48</v>
       </c>
-      <c r="K301" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="L301" t="inlineStr">
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11276,22 +10597,21 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="n">
         <v>16.16</v>
       </c>
-      <c r="K302" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11316,26 +10636,21 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="n">
         <v>16.16</v>
       </c>
-      <c r="K303" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="L303" t="inlineStr">
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11360,24 +10675,21 @@
         <v>-3680008.32037543</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>16.19</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="L304" t="inlineStr">
+      <c r="K304" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11402,18 +10714,21 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11438,24 +10753,19 @@
         <v>-3676753.09767543</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11480,22 +10790,21 @@
         <v>-3684335.75907543</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>16.48</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11522,20 +10831,17 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11560,26 +10866,23 @@
         <v>-3687123.57457543</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="n">
         <v>16.09</v>
       </c>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FAB.xlsx
+++ b/BackTest/2020-01-23 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5665,7 +5665,7 @@
         <v>-748535.9404191058</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-762358.1762191058</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-762329.1762191058</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-744946.4055754296</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-810663.0368754294</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1037310.49907543</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1047311.08437543</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1059622.66157543</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1056281.14137543</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1085358.04297543</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1078328.04297543</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1078328.04297543</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1089673.17747543</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1089094.17747543</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1100439.31197543</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1100409.31197543</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1123892.62507543</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1118086.49257543</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1118086.49257543</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1183011.065975429</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1183011.065975429</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1184334.65957543</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1190564.67007543</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1191848.82247543</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1191848.82247543</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1191818.82247543</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1245122.49567543</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1424249.09907543</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1469002.23437543</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8734,851 +8734,779 @@
         <v>-3373378.69927543</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>16.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="F254" t="n">
+        <v>30</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-3373348.69927543</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2994.87</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-3376343.56927543</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>16</v>
+      </c>
+      <c r="C256" t="n">
+        <v>16</v>
+      </c>
+      <c r="D256" t="n">
+        <v>16</v>
+      </c>
+      <c r="E256" t="n">
+        <v>16</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1567.2571</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-3377910.82637543</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>16</v>
+      </c>
+      <c r="C257" t="n">
+        <v>16</v>
+      </c>
+      <c r="D257" t="n">
+        <v>16</v>
+      </c>
+      <c r="E257" t="n">
+        <v>16</v>
+      </c>
+      <c r="F257" t="n">
+        <v>207547.2419824299</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-3377910.82637543</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>16</v>
+      </c>
+      <c r="C258" t="n">
+        <v>16</v>
+      </c>
+      <c r="D258" t="n">
+        <v>16</v>
+      </c>
+      <c r="E258" t="n">
+        <v>16</v>
+      </c>
+      <c r="F258" t="n">
+        <v>29651.34831757009</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-3377910.82637543</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="C259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="D259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="E259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F259" t="n">
+        <v>31</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-3377879.82637543</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>16</v>
+      </c>
+      <c r="C260" t="n">
+        <v>16</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" t="n">
+        <v>16</v>
+      </c>
+      <c r="F260" t="n">
+        <v>10528.9992</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-3388408.82557543</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="C261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="D261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="E261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F261" t="n">
+        <v>31</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-3388377.82557543</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="F262" t="n">
+        <v>12780.009</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-3401157.83457543</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3497.0109</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-3401157.83457543</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="D264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F264" t="n">
+        <v>755.404</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-3401913.23857543</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>16</v>
+      </c>
+      <c r="C265" t="n">
+        <v>16</v>
+      </c>
+      <c r="D265" t="n">
+        <v>16</v>
+      </c>
+      <c r="E265" t="n">
+        <v>16</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3791.5024</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-3405704.74097543</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="C266" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D266" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="E266" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F266" t="n">
+        <v>40031</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-3365673.74097543</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>16</v>
+      </c>
+      <c r="J266" t="n">
+        <v>16</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="E267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F267" t="n">
+        <v>31134.6633</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-3365673.74097543</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J267" t="n">
+        <v>16</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F268" t="n">
+        <v>720.3033</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-3366394.04427543</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J268" t="n">
+        <v>16</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C269" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D269" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E269" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F269" t="n">
+        <v>35030</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-3366394.04427543</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>16</v>
+      </c>
+      <c r="C270" t="n">
+        <v>16</v>
+      </c>
+      <c r="D270" t="n">
+        <v>16</v>
+      </c>
+      <c r="E270" t="n">
+        <v>16</v>
+      </c>
+      <c r="F270" t="n">
+        <v>91569.197</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-3457963.24127543</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="J270" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F271" t="n">
+        <v>30</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-3457933.24127543</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F272" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-3457933.24127543</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F273" t="n">
+        <v>8624.3887</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-3457933.24127543</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C274" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F274" t="n">
+        <v>23706.3641</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-3434226.87717543</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="D275" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="E275" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>20437.1113</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-3413789.76587543</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="C254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="D254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F254" t="n">
-        <v>30</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-3373348.69927543</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>16</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F255" t="n">
-        <v>2994.87</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-3376343.56927543</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>16</v>
-      </c>
-      <c r="C256" t="n">
-        <v>16</v>
-      </c>
-      <c r="D256" t="n">
-        <v>16</v>
-      </c>
-      <c r="E256" t="n">
-        <v>16</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1567.2571</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>16</v>
-      </c>
-      <c r="C257" t="n">
-        <v>16</v>
-      </c>
-      <c r="D257" t="n">
-        <v>16</v>
-      </c>
-      <c r="E257" t="n">
-        <v>16</v>
-      </c>
-      <c r="F257" t="n">
-        <v>207547.2419824299</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>16</v>
-      </c>
-      <c r="C258" t="n">
-        <v>16</v>
-      </c>
-      <c r="D258" t="n">
-        <v>16</v>
-      </c>
-      <c r="E258" t="n">
-        <v>16</v>
-      </c>
-      <c r="F258" t="n">
-        <v>29651.34831757009</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="C259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="D259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="E259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="F259" t="n">
-        <v>31</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-3377879.82637543</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>16</v>
-      </c>
-      <c r="C260" t="n">
-        <v>16</v>
-      </c>
-      <c r="D260" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" t="n">
-        <v>16</v>
-      </c>
-      <c r="F260" t="n">
-        <v>10528.9992</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-3388408.82557543</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="C261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="D261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="E261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="F261" t="n">
-        <v>31</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-3388377.82557543</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>16</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="C262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="D262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F262" t="n">
-        <v>12780.009</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-3401157.83457543</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="C263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="D263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F263" t="n">
-        <v>3497.0109</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-3401157.83457543</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="D264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="E264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="F264" t="n">
-        <v>755.404</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-3401913.23857543</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>16</v>
-      </c>
-      <c r="C265" t="n">
-        <v>16</v>
-      </c>
-      <c r="D265" t="n">
-        <v>16</v>
-      </c>
-      <c r="E265" t="n">
-        <v>16</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3791.5024</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-3405704.74097543</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="C266" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D266" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="E266" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F266" t="n">
-        <v>40031</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-3365673.74097543</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>16</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="C267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="E267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F267" t="n">
-        <v>31134.6633</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-3365673.74097543</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F268" t="n">
-        <v>720.3033</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-3366394.04427543</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="C269" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D269" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E269" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F269" t="n">
-        <v>35030</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-3366394.04427543</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>16</v>
-      </c>
-      <c r="C270" t="n">
-        <v>16</v>
-      </c>
-      <c r="D270" t="n">
-        <v>16</v>
-      </c>
-      <c r="E270" t="n">
-        <v>16</v>
-      </c>
-      <c r="F270" t="n">
-        <v>91569.197</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-3457963.24127543</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F271" t="n">
-        <v>30</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F272" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F273" t="n">
-        <v>8624.3887</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C274" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D274" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E274" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F274" t="n">
-        <v>23706.3641</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-3434226.87717543</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C275" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="D275" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="E275" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F275" t="n">
-        <v>20437.1113</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-3413789.76587543</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9607,7 +9535,7 @@
         <v>-3577152.30407543</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>16.73</v>
@@ -9720,11 +9648,9 @@
         <v>-3577091.30407543</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -9944,11 +9870,9 @@
         <v>-3666087.16987543</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -9983,11 +9907,9 @@
         <v>-3666119.16987543</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10022,11 +9944,9 @@
         <v>-3666119.16987543</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>16.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10098,11 +10018,9 @@
         <v>-3667021.16987543</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10248,11 +10166,9 @@
         <v>-3666990.16987543</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10324,11 +10240,9 @@
         <v>-3695584.40677543</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>16.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10363,11 +10277,9 @@
         <v>-3695521.40677543</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>16.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10402,11 +10314,9 @@
         <v>-3714052.40677543</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>16.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10441,11 +10351,9 @@
         <v>-3714021.40677543</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>16.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10480,11 +10388,9 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10519,11 +10425,9 @@
         <v>-3714023.40677543</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>16.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10558,11 +10462,9 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10597,11 +10499,9 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>16.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10636,11 +10536,9 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>16.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10675,11 +10573,9 @@
         <v>-3680008.32037543</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>16.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10714,11 +10610,9 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>16.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10790,11 +10684,9 @@
         <v>-3684335.75907543</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10866,11 +10758,9 @@
         <v>-3687123.57457543</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>16.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -10883,6 +10773,6 @@
       <c r="M309" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FAB.xlsx
+++ b/BackTest/2020-01-23 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3487,7 +3487,7 @@
         <v>-867742.6697820256</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-871698.3115820256</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-901025.1690820256</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-900995.1690820256</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1063087.826482026</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1053087.826482026</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1085313.354082026</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1175313.354082026</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1145313.354082026</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1163852.156482026</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1148110.576082025</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1201679.615282025</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1183219.141782025</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1255512.689882025</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1255482.689882025</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1262111.454582025</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1261928.797182025</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1204285.105982025</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1207777.516182025</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-810663.0368754294</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1037310.49907543</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1047311.08437543</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1059622.66157543</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1056281.14137543</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1085358.04297543</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1078328.04297543</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1089673.17747543</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1123892.62507543</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1118086.49257543</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1183011.065975429</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1183011.065975429</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1184334.65957543</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1190564.67007543</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1191848.82247543</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1191848.82247543</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1191818.82247543</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1245122.49567543</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1267807.78557543</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1424249.09907543</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,10 +7579,14 @@
         <v>-1469002.23437543</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J218" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
@@ -7615,8 +7619,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7658,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7694,19 @@
         <v>-2204082.016175429</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="J221" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7738,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +7777,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +7816,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +7855,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +7894,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +7933,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +7972,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8011,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8050,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8089,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8128,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8167,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8206,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8245,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8284,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8323,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8401,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8440,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8479,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8518,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8557,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8596,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8635,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8674,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8713,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8752,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8791,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8830,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8869,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8908,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8947,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8986,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9025,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9064,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9103,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9142,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9181,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9220,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9259,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9298,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9337,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9376,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9415,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,15 +9451,17 @@
         <v>-3365673.74097543</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>16</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+        <v>16.6</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,17 +9490,15 @@
         <v>-3365673.74097543</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>16.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9241,17 +9529,15 @@
         <v>-3366394.04427543</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>16.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -9285,8 +9571,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9315,15 +9607,17 @@
         <v>-3457963.24127543</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>16.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>16.6</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9356,11 +9650,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>16.13</v>
+        <v>16.6</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9395,11 +9689,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>16.13</v>
+        <v>16.6</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9433,8 +9727,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +9766,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9496,15 +9802,15 @@
         <v>-3413789.76587543</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9535,12 +9841,12 @@
         <v>-3577152.30407543</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9577,7 +9883,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9614,7 +9922,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9651,7 +9961,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9688,7 +10000,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9725,7 +10039,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9762,7 +10078,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9799,7 +10117,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9836,7 +10156,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,7 +10195,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9910,7 +10234,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,7 +10273,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9984,7 +10312,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10021,7 +10351,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10058,7 +10390,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10095,7 +10429,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10132,7 +10468,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10169,7 +10507,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10206,7 +10546,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10243,7 +10585,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10280,7 +10624,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10317,7 +10663,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10354,7 +10702,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10391,7 +10741,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10428,7 +10780,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10465,7 +10819,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10502,7 +10858,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10539,7 +10897,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10576,7 +10936,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,10 +10972,14 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="J305" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10647,10 +11013,14 @@
         <v>-3676753.09767543</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="J306" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10687,7 +11057,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10724,7 +11096,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10758,10 +11132,14 @@
         <v>-3687123.57457543</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="J309" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10773,6 +11151,6 @@
       <c r="M309" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FAB.xlsx
+++ b/BackTest/2020-01-23 BackTest FAB.xlsx
@@ -3487,7 +3487,7 @@
         <v>-867742.6697820256</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-871698.3115820256</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-901025.1690820256</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-900995.1690820256</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1063087.826482026</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1053087.826482026</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1085313.354082026</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1175313.354082026</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1145313.354082026</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1163852.156482026</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1148110.576082025</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1201679.615282025</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1183219.141782025</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1255512.689882025</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1255482.689882025</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1262111.454582025</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1261928.797182025</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1204285.105982025</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1207777.516182025</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-711240.3046191059</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-746284.8475191059</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-746255.8475191059</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-744946.4055754296</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-758236.6401754295</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-799307.5054754295</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-799307.5054754295</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-810663.0368754294</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1037310.49907543</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1047311.08437543</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1059622.66157543</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1078328.04297543</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7579,14 +7579,10 @@
         <v>-1469002.23437543</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J218" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
@@ -7619,3214 +7615,2726 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="C220" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="D220" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="E220" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="F220" t="n">
+        <v>74103.356</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1537151.811775429</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>666930.2044</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-2204082.016175429</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C222" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D222" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E222" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3430.2876</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-2200651.728575429</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C223" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D223" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E223" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3646.9251</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-2200651.728575429</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C224" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D224" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E224" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F224" t="n">
+        <v>469.9367</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-2201121.665275429</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D225" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E225" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10977.8283</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-2201121.665275429</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D226" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F226" t="n">
+        <v>12744.4489</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-2201121.665275429</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D227" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F227" t="n">
+        <v>63882.454</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-2201121.665275429</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C228" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D228" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E228" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6709.7686</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-2201121.665275429</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C229" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D229" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E229" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F229" t="n">
+        <v>50552.8165</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-2201121.665275429</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C230" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D230" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E230" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F230" t="n">
+        <v>51115.0214</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-2150006.643875429</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C231" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D231" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="E231" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F231" t="n">
+        <v>10369.9851</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-2139636.658775429</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C232" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D232" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F232" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-2099636.658775429</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="C233" t="n">
         <v>16.6</v>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="D233" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="E233" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3340.0542</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-2102976.712975429</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C234" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D234" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E234" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-2102946.712975429</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C235" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E235" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F235" t="n">
+        <v>11491.5082</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-2114438.221175429</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C236" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D236" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E236" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F236" t="n">
+        <v>13011.6829</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-2101426.53827543</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C237" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E237" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-2102726.53827543</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C238" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E238" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>30</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-2102696.53827543</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C239" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D239" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E239" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F239" t="n">
+        <v>71523.5404</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-2174220.078675429</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="C240" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="D240" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="E240" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="F240" t="n">
+        <v>65.2497</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-2174285.328375429</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C241" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="D241" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E241" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="F241" t="n">
+        <v>95151.308</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-2269436.63637543</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C242" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D242" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E242" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F242" t="n">
+        <v>30</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-2269406.63637543</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="C243" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D243" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="E243" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="F243" t="n">
+        <v>167.168</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-2269573.80437543</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="D244" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E244" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="F244" t="n">
+        <v>213412.8801</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-2482986.68447543</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="C245" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D245" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="E245" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F245" t="n">
+        <v>610630.1219</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-3093616.80637543</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E246" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>64379.1864</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-3093616.80637543</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2347.3415</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-3093616.80637543</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C248" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1114.0867</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-3093616.80637543</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="C249" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="D249" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E249" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F249" t="n">
+        <v>23738.4852</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-3117355.29157543</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C250" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D250" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="E250" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F250" t="n">
+        <v>43429.9832</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-3160785.27477543</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C251" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D251" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E251" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F251" t="n">
+        <v>58573.4588</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-3160785.27477543</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="C252" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D252" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E252" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="F252" t="n">
+        <v>24130.0183</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-3136655.25647543</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C253" t="n">
+        <v>16</v>
+      </c>
+      <c r="D253" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>16</v>
+      </c>
+      <c r="F253" t="n">
+        <v>236723.4428</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-3373378.69927543</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="F254" t="n">
+        <v>30</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-3373348.69927543</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E255" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2994.87</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-3376343.56927543</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>16</v>
+      </c>
+      <c r="C256" t="n">
+        <v>16</v>
+      </c>
+      <c r="D256" t="n">
+        <v>16</v>
+      </c>
+      <c r="E256" t="n">
+        <v>16</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1567.2571</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-3377910.82637543</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>16</v>
+      </c>
+      <c r="C257" t="n">
+        <v>16</v>
+      </c>
+      <c r="D257" t="n">
+        <v>16</v>
+      </c>
+      <c r="E257" t="n">
+        <v>16</v>
+      </c>
+      <c r="F257" t="n">
+        <v>207547.2419824299</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-3377910.82637543</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>16</v>
+      </c>
+      <c r="C258" t="n">
+        <v>16</v>
+      </c>
+      <c r="D258" t="n">
+        <v>16</v>
+      </c>
+      <c r="E258" t="n">
+        <v>16</v>
+      </c>
+      <c r="F258" t="n">
+        <v>29651.34831757009</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-3377910.82637543</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="C259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="D259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="E259" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F259" t="n">
+        <v>31</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-3377879.82637543</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>16</v>
+      </c>
+      <c r="C260" t="n">
+        <v>16</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" t="n">
+        <v>16</v>
+      </c>
+      <c r="F260" t="n">
+        <v>10528.9992</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-3388408.82557543</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="C261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="D261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="E261" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F261" t="n">
+        <v>31</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-3388377.82557543</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E262" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="F262" t="n">
+        <v>12780.009</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-3401157.83457543</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="D263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="E263" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3497.0109</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-3401157.83457543</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="D264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E264" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F264" t="n">
+        <v>755.404</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-3401913.23857543</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>16</v>
+      </c>
+      <c r="C265" t="n">
+        <v>16</v>
+      </c>
+      <c r="D265" t="n">
+        <v>16</v>
+      </c>
+      <c r="E265" t="n">
+        <v>16</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3791.5024</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-3405704.74097543</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="C266" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D266" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="E266" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F266" t="n">
+        <v>40031</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-3365673.74097543</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="E267" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F267" t="n">
+        <v>31134.6633</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-3365673.74097543</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E268" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F268" t="n">
+        <v>720.3033</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-3366394.04427543</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C269" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D269" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E269" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F269" t="n">
+        <v>35030</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-3366394.04427543</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>16</v>
+      </c>
+      <c r="C270" t="n">
+        <v>16</v>
+      </c>
+      <c r="D270" t="n">
+        <v>16</v>
+      </c>
+      <c r="E270" t="n">
+        <v>16</v>
+      </c>
+      <c r="F270" t="n">
+        <v>91569.197</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-3457963.24127543</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E271" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F271" t="n">
+        <v>30</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-3457933.24127543</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E272" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F272" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-3457933.24127543</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="D273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F273" t="n">
+        <v>8624.3887</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-3457933.24127543</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C274" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F274" t="n">
+        <v>23706.3641</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-3434226.87717543</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="D275" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="E275" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>20437.1113</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-3413789.76587543</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="C276" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="D276" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E276" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="F276" t="n">
+        <v>163362.5382</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-3577152.30407543</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="C277" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="D277" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="E277" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3756.0682</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-3577152.30407543</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D278" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>31</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-3577121.30407543</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C279" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D279" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E279" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F279" t="n">
+        <v>30</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-3577091.30407543</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D280" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E280" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>3104.7164</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-3580196.02047543</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C281" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="D281" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="E281" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="F281" t="n">
+        <v>27635.3344</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-3552560.68607543</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="C282" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="D282" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="E282" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="F282" t="n">
+        <v>30</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-3552530.68607543</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C283" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D283" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E283" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1416.8942</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-3553947.58027543</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C284" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E284" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F284" t="n">
+        <v>31</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-3553916.58027543</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C285" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F285" t="n">
+        <v>112170.5896</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-3666087.16987543</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="C286" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="D286" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="E286" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="F286" t="n">
+        <v>32</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-3666119.16987543</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="C287" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="D287" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="E287" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="F287" t="n">
+        <v>157.1168</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-3666119.16987543</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C288" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D288" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E288" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F288" t="n">
+        <v>31</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-3666088.16987543</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="C289" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D289" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E289" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F289" t="n">
+        <v>933</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-3667021.16987543</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C290" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D290" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E290" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F290" t="n">
+        <v>31</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-3666990.16987543</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C291" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D291" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E291" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F291" t="n">
+        <v>749.417</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-3666990.16987543</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C292" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D292" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E292" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F292" t="n">
+        <v>11365.7087</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-3666990.16987543</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C293" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D293" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E293" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F293" t="n">
+        <v>17310</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-3666990.16987543</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C294" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D294" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E294" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="F294" t="n">
+        <v>28690.2369</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-3695680.40677543</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="C295" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="D295" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="E295" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="F295" t="n">
+        <v>96</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-3695584.40677543</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="C296" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="D296" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="E296" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="F296" t="n">
+        <v>63</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-3695521.40677543</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="C297" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D297" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E297" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F297" t="n">
+        <v>18531</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-3714052.40677543</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C298" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D298" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E298" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F298" t="n">
+        <v>31</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-3714021.40677543</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="C299" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="E299" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F299" t="n">
+        <v>33</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-3714054.40677543</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C300" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D300" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E300" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F300" t="n">
+        <v>31</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-3714023.40677543</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="J300" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="C301" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D301" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="E301" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="F301" t="n">
+        <v>31</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-3714054.40677543</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J301" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="C220" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="D220" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E220" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="F220" t="n">
-        <v>74103.356</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1537151.811775429</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C221" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D221" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E221" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F221" t="n">
-        <v>666930.2044</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-2204082.016175429</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="J221" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C222" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D222" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E222" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F222" t="n">
-        <v>3430.2876</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-2200651.728575429</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C223" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D223" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E223" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3646.9251</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-2200651.728575429</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C224" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D224" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E224" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F224" t="n">
-        <v>469.9367</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C225" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D225" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E225" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F225" t="n">
-        <v>10977.8283</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C226" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D226" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E226" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F226" t="n">
-        <v>12744.4489</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C227" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D227" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E227" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F227" t="n">
-        <v>63882.454</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C228" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D228" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E228" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F228" t="n">
-        <v>6709.7686</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C229" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D229" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E229" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F229" t="n">
-        <v>50552.8165</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C230" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D230" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E230" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F230" t="n">
-        <v>51115.0214</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-2150006.643875429</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C231" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D231" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="E231" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F231" t="n">
-        <v>10369.9851</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-2139636.658775429</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C232" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D232" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E232" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F232" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-2099636.658775429</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="C233" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D233" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="E233" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3340.0542</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-2102976.712975429</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C234" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D234" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E234" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F234" t="n">
-        <v>30</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-2102946.712975429</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C235" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D235" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E235" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F235" t="n">
-        <v>11491.5082</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-2114438.221175429</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C236" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D236" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E236" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F236" t="n">
-        <v>13011.6829</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-2101426.53827543</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C237" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D237" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E237" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-2102726.53827543</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C238" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D238" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E238" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F238" t="n">
-        <v>30</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-2102696.53827543</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C239" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D239" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E239" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F239" t="n">
-        <v>71523.5404</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-2174220.078675429</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="C240" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="D240" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="E240" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="F240" t="n">
-        <v>65.2497</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-2174285.328375429</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C241" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="D241" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E241" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="F241" t="n">
-        <v>95151.308</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-2269436.63637543</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C242" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D242" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E242" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F242" t="n">
-        <v>30</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-2269406.63637543</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="C243" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D243" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="E243" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="F243" t="n">
-        <v>167.168</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-2269573.80437543</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C244" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="D244" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E244" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="F244" t="n">
-        <v>213412.8801</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-2482986.68447543</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="C245" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D245" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="E245" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F245" t="n">
-        <v>610630.1219</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C246" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D246" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E246" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F246" t="n">
-        <v>64379.1864</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C247" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D247" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E247" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2347.3415</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C248" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D248" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E248" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1114.0867</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="C249" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="D249" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="E249" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F249" t="n">
-        <v>23738.4852</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-3117355.29157543</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="C250" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D250" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="E250" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F250" t="n">
-        <v>43429.9832</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-3160785.27477543</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C251" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D251" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E251" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F251" t="n">
-        <v>58573.4588</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-3160785.27477543</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="C252" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D252" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="E252" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="F252" t="n">
-        <v>24130.0183</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-3136655.25647543</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>16</v>
-      </c>
-      <c r="D253" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E253" t="n">
-        <v>16</v>
-      </c>
-      <c r="F253" t="n">
-        <v>236723.4428</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-3373378.69927543</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="C254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="D254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E254" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F254" t="n">
-        <v>30</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-3373348.69927543</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F255" t="n">
-        <v>2994.87</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-3376343.56927543</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>16</v>
-      </c>
-      <c r="C256" t="n">
-        <v>16</v>
-      </c>
-      <c r="D256" t="n">
-        <v>16</v>
-      </c>
-      <c r="E256" t="n">
-        <v>16</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1567.2571</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>16</v>
-      </c>
-      <c r="C257" t="n">
-        <v>16</v>
-      </c>
-      <c r="D257" t="n">
-        <v>16</v>
-      </c>
-      <c r="E257" t="n">
-        <v>16</v>
-      </c>
-      <c r="F257" t="n">
-        <v>207547.2419824299</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>16</v>
-      </c>
-      <c r="C258" t="n">
-        <v>16</v>
-      </c>
-      <c r="D258" t="n">
-        <v>16</v>
-      </c>
-      <c r="E258" t="n">
-        <v>16</v>
-      </c>
-      <c r="F258" t="n">
-        <v>29651.34831757009</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="C259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="D259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="E259" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="F259" t="n">
-        <v>31</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-3377879.82637543</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>16</v>
-      </c>
-      <c r="C260" t="n">
-        <v>16</v>
-      </c>
-      <c r="D260" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" t="n">
-        <v>16</v>
-      </c>
-      <c r="F260" t="n">
-        <v>10528.9992</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-3388408.82557543</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="C261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="D261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="E261" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="F261" t="n">
-        <v>31</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-3388377.82557543</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="C262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="D262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E262" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F262" t="n">
-        <v>12780.009</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-3401157.83457543</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="C263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="D263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="E263" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F263" t="n">
-        <v>3497.0109</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-3401157.83457543</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="D264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="E264" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="F264" t="n">
-        <v>755.404</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-3401913.23857543</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>16</v>
-      </c>
-      <c r="C265" t="n">
-        <v>16</v>
-      </c>
-      <c r="D265" t="n">
-        <v>16</v>
-      </c>
-      <c r="E265" t="n">
-        <v>16</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3791.5024</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-3405704.74097543</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="C266" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D266" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="E266" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F266" t="n">
-        <v>40031</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-3365673.74097543</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="C267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="E267" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F267" t="n">
-        <v>31134.6633</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-3365673.74097543</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E268" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F268" t="n">
-        <v>720.3033</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-3366394.04427543</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="C269" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D269" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E269" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F269" t="n">
-        <v>35030</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-3366394.04427543</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>16</v>
-      </c>
-      <c r="C270" t="n">
-        <v>16</v>
-      </c>
-      <c r="D270" t="n">
-        <v>16</v>
-      </c>
-      <c r="E270" t="n">
-        <v>16</v>
-      </c>
-      <c r="F270" t="n">
-        <v>91569.197</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-3457963.24127543</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E271" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F271" t="n">
-        <v>30</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E272" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F272" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="D273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E273" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F273" t="n">
-        <v>8624.3887</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C274" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D274" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E274" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F274" t="n">
-        <v>23706.3641</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-3434226.87717543</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C275" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="D275" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="E275" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F275" t="n">
-        <v>20437.1113</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-3413789.76587543</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="C276" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="D276" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E276" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="F276" t="n">
-        <v>163362.5382</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-3577152.30407543</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="C277" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="D277" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="E277" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="F277" t="n">
-        <v>3756.0682</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-3577152.30407543</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C278" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D278" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E278" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F278" t="n">
-        <v>31</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-3577121.30407543</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C279" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D279" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E279" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F279" t="n">
-        <v>30</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-3577091.30407543</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C280" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D280" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E280" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F280" t="n">
-        <v>3104.7164</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-3580196.02047543</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C281" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="D281" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="E281" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="F281" t="n">
-        <v>27635.3344</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-3552560.68607543</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="C282" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="D282" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="E282" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="F282" t="n">
-        <v>30</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-3552530.68607543</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C283" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D283" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E283" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F283" t="n">
-        <v>1416.8942</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-3553947.58027543</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C284" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D284" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E284" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F284" t="n">
-        <v>31</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-3553916.58027543</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C285" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D285" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E285" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F285" t="n">
-        <v>112170.5896</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-3666087.16987543</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="C286" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="D286" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="E286" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="F286" t="n">
-        <v>32</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-3666119.16987543</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="C287" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="D287" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="E287" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="F287" t="n">
-        <v>157.1168</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-3666119.16987543</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C288" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D288" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E288" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F288" t="n">
-        <v>31</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-3666088.16987543</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="C289" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D289" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E289" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F289" t="n">
-        <v>933</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-3667021.16987543</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C290" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D290" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E290" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F290" t="n">
-        <v>31</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C291" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D291" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E291" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F291" t="n">
-        <v>749.417</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C292" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D292" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E292" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F292" t="n">
-        <v>11365.7087</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C293" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D293" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E293" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F293" t="n">
-        <v>17310</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="C294" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D294" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E294" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="F294" t="n">
-        <v>28690.2369</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-3695680.40677543</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="C295" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="D295" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="E295" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="F295" t="n">
-        <v>96</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-3695584.40677543</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="C296" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="D296" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="E296" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="F296" t="n">
-        <v>63</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-3695521.40677543</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="C297" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="D297" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E297" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="F297" t="n">
-        <v>18531</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-3714052.40677543</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C298" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D298" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E298" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F298" t="n">
-        <v>31</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-3714021.40677543</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="C299" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="D299" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="E299" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="F299" t="n">
-        <v>33</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-3714054.40677543</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C300" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D300" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E300" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F300" t="n">
-        <v>31</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-3714023.40677543</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="C301" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="D301" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="E301" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="F301" t="n">
-        <v>31</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-3714054.40677543</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10855,15 +10363,17 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>16.16</v>
+      </c>
       <c r="J302" t="n">
-        <v>16.6</v>
+        <v>16.16</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -10894,17 +10404,15 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>16.16</v>
+      </c>
       <c r="J303" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>16.16</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10933,15 +10441,17 @@
         <v>-3680008.32037543</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>16.19</v>
+      </c>
       <c r="J304" t="n">
-        <v>16.6</v>
+        <v>16.16</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -10978,11 +10488,11 @@
         <v>16.16</v>
       </c>
       <c r="J305" t="n">
-        <v>16.6</v>
+        <v>16.16</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -11013,19 +10523,11 @@
         <v>-3676753.09767543</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J306" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11057,14 +10559,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11096,14 +10592,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11138,13 +10628,9 @@
         <v>16.09</v>
       </c>
       <c r="J309" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>16.09</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest FAB.xlsx
+++ b/BackTest/2020-01-23 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M309"/>
+  <dimension ref="A1:L309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>-1138741.936400438</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1433.694</v>
       </c>
       <c r="G3" t="n">
-        <v>-1138741.936400438</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>27422.8444</v>
       </c>
       <c r="G4" t="n">
-        <v>-1111319.092000438</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>202745.3404</v>
       </c>
       <c r="G5" t="n">
-        <v>-908573.7516004377</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>125825.0252</v>
       </c>
       <c r="G6" t="n">
-        <v>-782748.7264004376</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>23215.0248</v>
       </c>
       <c r="G7" t="n">
-        <v>-805963.7512004377</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>13512.7023</v>
       </c>
       <c r="G8" t="n">
-        <v>-805963.7512004377</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>656.9171</v>
       </c>
       <c r="G9" t="n">
-        <v>-805963.7512004377</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2062.2033</v>
       </c>
       <c r="G10" t="n">
-        <v>-808025.9545004377</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4966.1486</v>
       </c>
       <c r="G11" t="n">
-        <v>-812992.1031004377</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>-812957.1031004377</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>19848.4021</v>
       </c>
       <c r="G13" t="n">
-        <v>-793108.7010004377</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>19848.4021</v>
       </c>
       <c r="G14" t="n">
-        <v>-812957.1031004377</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>-812927.1031004377</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>62794.352</v>
       </c>
       <c r="G16" t="n">
-        <v>-875721.4551004376</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2026.2236</v>
       </c>
       <c r="G17" t="n">
-        <v>-877747.6787004377</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4452.1312</v>
       </c>
       <c r="G18" t="n">
-        <v>-877747.6787004377</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>9624.5622</v>
       </c>
       <c r="G19" t="n">
-        <v>-887372.2409004377</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>69058.79059999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-956431.0315004376</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>19645.7011</v>
       </c>
       <c r="G21" t="n">
-        <v>-936785.3304004377</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>29522.14381841177</v>
       </c>
       <c r="G22" t="n">
-        <v>-907263.186582026</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>28873.6866</v>
       </c>
       <c r="G23" t="n">
-        <v>-936136.873182026</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>87.0727</v>
       </c>
       <c r="G24" t="n">
-        <v>-936049.800482026</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>6578.0355</v>
       </c>
       <c r="G25" t="n">
-        <v>-942627.835982026</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>367.5955</v>
       </c>
       <c r="G26" t="n">
-        <v>-942260.2404820259</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>33943.8366</v>
       </c>
       <c r="G27" t="n">
-        <v>-976204.0770820259</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>465.4928</v>
       </c>
       <c r="G28" t="n">
-        <v>-976669.5698820259</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>25111.2661</v>
       </c>
       <c r="G29" t="n">
-        <v>-1001780.835982026</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>30539.4883</v>
       </c>
       <c r="G30" t="n">
-        <v>-971241.347682026</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>36032.1888</v>
       </c>
       <c r="G31" t="n">
-        <v>-971241.347682026</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>531</v>
       </c>
       <c r="G32" t="n">
-        <v>-970710.347682026</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>-970710.347682026</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>-970710.347682026</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2976.1905</v>
       </c>
       <c r="G35" t="n">
-        <v>-973686.538182026</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>17742.2792</v>
       </c>
       <c r="G36" t="n">
-        <v>-991428.817382026</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>143.098</v>
       </c>
       <c r="G37" t="n">
-        <v>-991571.915382026</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>13061.1709</v>
       </c>
       <c r="G38" t="n">
-        <v>-991571.915382026</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7362.6329</v>
       </c>
       <c r="G39" t="n">
-        <v>-998934.548282026</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>-998904.548282026</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>17829.8193</v>
       </c>
       <c r="G41" t="n">
-        <v>-1016734.367582026</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>30</v>
       </c>
       <c r="G42" t="n">
-        <v>-1016704.367582026</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1783.1558</v>
       </c>
       <c r="G43" t="n">
-        <v>-1018487.523382026</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>808.0279</v>
       </c>
       <c r="G44" t="n">
-        <v>-1017679.495482026</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>24225.9802</v>
       </c>
       <c r="G45" t="n">
-        <v>-1017679.495482026</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>31</v>
       </c>
       <c r="G46" t="n">
-        <v>-1017648.495482026</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>103.271</v>
       </c>
       <c r="G47" t="n">
-        <v>-1017648.495482026</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>12010.9053</v>
       </c>
       <c r="G48" t="n">
-        <v>-1029659.400782026</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>6000</v>
       </c>
       <c r="G49" t="n">
-        <v>-1023659.400782026</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>330.8117</v>
       </c>
       <c r="G50" t="n">
-        <v>-1023659.400782026</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>466.6542</v>
       </c>
       <c r="G51" t="n">
-        <v>-1023192.746582026</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>9942.301100000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-1013250.445482026</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>47324.7565</v>
       </c>
       <c r="G53" t="n">
-        <v>-1060575.201982026</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>28598.4091</v>
       </c>
       <c r="G54" t="n">
-        <v>-1089173.611082026</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>31926.9786</v>
       </c>
       <c r="G55" t="n">
-        <v>-1089173.611082026</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>50000</v>
       </c>
       <c r="G56" t="n">
-        <v>-1089173.611082026</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>132023.5749</v>
       </c>
       <c r="G57" t="n">
-        <v>-1221197.185982026</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>38044.9134</v>
       </c>
       <c r="G58" t="n">
-        <v>-1183152.272582026</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>6955.0866</v>
       </c>
       <c r="G59" t="n">
-        <v>-1183152.272582026</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>30</v>
       </c>
       <c r="G60" t="n">
-        <v>-1183152.272582026</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>30000</v>
       </c>
       <c r="G61" t="n">
-        <v>-1153152.272582026</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5738.6509</v>
       </c>
       <c r="G62" t="n">
-        <v>-1158890.923482026</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>101326.314</v>
       </c>
       <c r="G63" t="n">
-        <v>-1260217.237482026</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10000</v>
       </c>
       <c r="G64" t="n">
-        <v>-1260217.237482026</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>38670.2063</v>
       </c>
       <c r="G65" t="n">
-        <v>-1221547.031182026</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>29844.7513</v>
       </c>
       <c r="G66" t="n">
-        <v>-1221547.031182026</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>29522.1438</v>
       </c>
       <c r="G67" t="n">
-        <v>-1251069.174982026</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1316.7986</v>
       </c>
       <c r="G68" t="n">
-        <v>-1249752.376382026</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>321</v>
       </c>
       <c r="G69" t="n">
-        <v>-1249431.376382026</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1474.3322</v>
       </c>
       <c r="G70" t="n">
-        <v>-1249431.376382026</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>202.497</v>
       </c>
       <c r="G71" t="n">
-        <v>-1249633.873382026</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>200000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1249633.873382026</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>66825.6468</v>
       </c>
       <c r="G73" t="n">
-        <v>-1182808.226582026</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>50000</v>
       </c>
       <c r="G74" t="n">
-        <v>-1132808.226582026</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3807.7087</v>
       </c>
       <c r="G75" t="n">
-        <v>-1129000.517882026</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>28320.3984</v>
       </c>
       <c r="G76" t="n">
-        <v>-1100680.119482026</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>20626.3714</v>
       </c>
       <c r="G77" t="n">
-        <v>-1080053.748082025</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>15564.2007</v>
       </c>
       <c r="G78" t="n">
-        <v>-1080053.748082025</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>13800.2852</v>
       </c>
       <c r="G79" t="n">
-        <v>-1066253.462882025</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>5165.6584</v>
       </c>
       <c r="G80" t="n">
-        <v>-1071419.121282025</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>816.7768</v>
       </c>
       <c r="G81" t="n">
-        <v>-1071419.121282025</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>2355.7089</v>
       </c>
       <c r="G82" t="n">
-        <v>-1073774.830182025</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>5767.0342</v>
       </c>
       <c r="G83" t="n">
-        <v>-1079541.864382026</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>-1079541.864382026</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>600</v>
       </c>
       <c r="G85" t="n">
-        <v>-1080141.864382026</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>30</v>
       </c>
       <c r="G86" t="n">
-        <v>-1080111.864382026</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>176.4705</v>
       </c>
       <c r="G87" t="n">
-        <v>-1080288.334882026</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>61.8807</v>
       </c>
       <c r="G88" t="n">
-        <v>-1080288.334882026</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>155467.0369</v>
       </c>
       <c r="G89" t="n">
-        <v>-924821.2979820257</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>50000</v>
       </c>
       <c r="G90" t="n">
-        <v>-874821.2979820257</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>14182.4973</v>
       </c>
       <c r="G91" t="n">
-        <v>-874821.2979820257</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>27611.4915</v>
       </c>
       <c r="G92" t="n">
-        <v>-847209.8064820257</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>25629.8807</v>
       </c>
       <c r="G93" t="n">
-        <v>-872839.6871820256</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>5097.0174</v>
       </c>
       <c r="G94" t="n">
-        <v>-867742.6697820256</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>3955.6418</v>
       </c>
       <c r="G95" t="n">
-        <v>-871698.3115820256</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>29326.8575</v>
       </c>
       <c r="G96" t="n">
-        <v>-901025.1690820256</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>30</v>
       </c>
       <c r="G97" t="n">
-        <v>-900995.1690820256</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>60</v>
       </c>
       <c r="G98" t="n">
-        <v>-901055.1690820256</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>-903055.1690820256</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>160032.6574</v>
       </c>
       <c r="G100" t="n">
-        <v>-1063087.826482026</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>68000</v>
       </c>
       <c r="G101" t="n">
-        <v>-1063087.826482026</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>10000</v>
       </c>
       <c r="G102" t="n">
-        <v>-1053087.826482026</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>32225.5276</v>
       </c>
       <c r="G103" t="n">
-        <v>-1085313.354082026</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>90000</v>
       </c>
       <c r="G104" t="n">
-        <v>-1175313.354082026</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>30000</v>
       </c>
       <c r="G105" t="n">
-        <v>-1145313.354082026</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>18538.8024</v>
       </c>
       <c r="G106" t="n">
-        <v>-1163852.156482026</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>30865.1069</v>
       </c>
       <c r="G107" t="n">
-        <v>-1132987.049582026</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>19919.2991</v>
       </c>
       <c r="G108" t="n">
-        <v>-1132987.049582026</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>15123.5265</v>
       </c>
       <c r="G109" t="n">
-        <v>-1148110.576082025</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>53569.0392</v>
       </c>
       <c r="G110" t="n">
-        <v>-1201679.615282025</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>62702.877</v>
       </c>
       <c r="G111" t="n">
-        <v>-1201679.615282025</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>18460.4735</v>
       </c>
       <c r="G112" t="n">
-        <v>-1183219.141782025</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>26787.2525</v>
       </c>
       <c r="G113" t="n">
-        <v>-1210006.394282025</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>3302.9803</v>
       </c>
       <c r="G114" t="n">
-        <v>-1206703.413982025</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>22326.9004</v>
       </c>
       <c r="G115" t="n">
-        <v>-1229030.314382025</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1754.386</v>
       </c>
       <c r="G116" t="n">
-        <v>-1227275.928382025</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>27744.3132</v>
       </c>
       <c r="G117" t="n">
-        <v>-1255020.241582025</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>2255.6868</v>
       </c>
       <c r="G118" t="n">
-        <v>-1255020.241582025</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>30</v>
       </c>
       <c r="G119" t="n">
-        <v>-1254990.241582025</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>522.4483</v>
       </c>
       <c r="G120" t="n">
-        <v>-1255512.689882025</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>-1255482.689882025</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>6628.7647</v>
       </c>
       <c r="G122" t="n">
-        <v>-1262111.454582025</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>182.6574</v>
       </c>
       <c r="G123" t="n">
-        <v>-1261928.797182025</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>57643.6912</v>
       </c>
       <c r="G124" t="n">
-        <v>-1204285.105982025</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>3492.4102</v>
       </c>
       <c r="G125" t="n">
-        <v>-1207777.516182025</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>3492.4102</v>
       </c>
       <c r="G126" t="n">
-        <v>-1211269.926382025</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>30</v>
       </c>
       <c r="G127" t="n">
-        <v>-1211239.926382025</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>13623.3062</v>
       </c>
       <c r="G128" t="n">
-        <v>-1211239.926382025</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>12390.8072</v>
       </c>
       <c r="G129" t="n">
-        <v>-1223630.733582025</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>-1223600.733582025</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>100000</v>
       </c>
       <c r="G131" t="n">
-        <v>-1323600.733582025</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>30000</v>
       </c>
       <c r="G132" t="n">
-        <v>-1293600.733582025</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>715.6205</v>
       </c>
       <c r="G133" t="n">
-        <v>-1294316.354082025</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>16780.5187</v>
       </c>
       <c r="G134" t="n">
-        <v>-1277535.835382025</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>6762.1837</v>
       </c>
       <c r="G135" t="n">
-        <v>-1284298.019082025</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>3447.2858</v>
       </c>
       <c r="G136" t="n">
-        <v>-1284298.019082025</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>9720.168600000001</v>
       </c>
       <c r="G137" t="n">
-        <v>-1294018.187682025</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>41176.4633</v>
       </c>
       <c r="G138" t="n">
-        <v>-1335194.650982025</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2521.4727</v>
       </c>
       <c r="G139" t="n">
-        <v>-1332673.178282025</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>22693.7831</v>
       </c>
       <c r="G140" t="n">
-        <v>-1332673.178282025</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1177.163037080636</v>
       </c>
       <c r="G141" t="n">
-        <v>-1333850.341319106</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>57.2626</v>
       </c>
       <c r="G142" t="n">
-        <v>-1333907.603919106</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>18152.7406</v>
       </c>
       <c r="G143" t="n">
-        <v>-1333907.603919106</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>7101.0139</v>
       </c>
       <c r="G144" t="n">
-        <v>-1326806.590019106</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>9411.4175</v>
       </c>
       <c r="G145" t="n">
-        <v>-1326806.590019106</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>49281.6865</v>
       </c>
       <c r="G146" t="n">
-        <v>-1376088.276519106</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>3124.2207</v>
       </c>
       <c r="G147" t="n">
-        <v>-1379212.497219106</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>2275.5561</v>
       </c>
       <c r="G148" t="n">
-        <v>-1381488.053319106</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>-1380488.053319106</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>30</v>
       </c>
       <c r="G150" t="n">
-        <v>-1380458.053319106</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>78412.93889999999</v>
       </c>
       <c r="G151" t="n">
-        <v>-1458870.992219106</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>11000.3199</v>
       </c>
       <c r="G152" t="n">
-        <v>-1469871.312119106</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>4083.9518</v>
       </c>
       <c r="G153" t="n">
-        <v>-1465787.360319106</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>5635</v>
       </c>
       <c r="G154" t="n">
-        <v>-1465787.360319106</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>117394.7571</v>
       </c>
       <c r="G155" t="n">
-        <v>-1348392.603219106</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>87687.2522</v>
       </c>
       <c r="G156" t="n">
-        <v>-1260705.351019106</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>145604.466</v>
       </c>
       <c r="G157" t="n">
-        <v>-1115100.885019106</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>168401.3751</v>
       </c>
       <c r="G158" t="n">
-        <v>-946699.5099191058</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>198163.5695</v>
       </c>
       <c r="G159" t="n">
-        <v>-748535.9404191058</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>32109.5291</v>
       </c>
       <c r="G160" t="n">
-        <v>-748535.9404191058</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>13822.2358</v>
       </c>
       <c r="G161" t="n">
-        <v>-762358.1762191058</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>29</v>
       </c>
       <c r="G162" t="n">
-        <v>-762329.1762191058</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>1910.0385</v>
       </c>
       <c r="G163" t="n">
-        <v>-764239.2147191059</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>2157.2959</v>
       </c>
       <c r="G164" t="n">
-        <v>-764239.2147191059</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>15369.7955</v>
       </c>
       <c r="G165" t="n">
-        <v>-748869.4192191059</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>37629.1146</v>
       </c>
       <c r="G166" t="n">
-        <v>-711240.3046191059</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>18422.0621</v>
       </c>
       <c r="G167" t="n">
-        <v>-711240.3046191059</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>35044.5429</v>
       </c>
       <c r="G168" t="n">
-        <v>-746284.8475191059</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>29</v>
       </c>
       <c r="G169" t="n">
-        <v>-746255.8475191059</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>10728.85494367622</v>
       </c>
       <c r="G170" t="n">
-        <v>-735526.9925754296</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>11961.414</v>
       </c>
       <c r="G171" t="n">
-        <v>-735526.9925754296</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>9419.413</v>
       </c>
       <c r="G172" t="n">
-        <v>-744946.4055754296</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>13290.2346</v>
       </c>
       <c r="G173" t="n">
-        <v>-758236.6401754295</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>41070.8653</v>
       </c>
       <c r="G174" t="n">
-        <v>-799307.5054754295</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>38029.5433</v>
       </c>
       <c r="G175" t="n">
-        <v>-799307.5054754295</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>11385.5314</v>
       </c>
       <c r="G176" t="n">
-        <v>-810693.0368754294</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>4095.969</v>
       </c>
       <c r="G177" t="n">
-        <v>-810693.0368754294</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>1918.5387</v>
       </c>
       <c r="G178" t="n">
-        <v>-810693.0368754294</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>30</v>
       </c>
       <c r="G179" t="n">
-        <v>-810663.0368754294</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>226647.4622</v>
       </c>
       <c r="G180" t="n">
-        <v>-1037310.49907543</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>10000.5853</v>
       </c>
       <c r="G181" t="n">
-        <v>-1047311.08437543</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>12311.5772</v>
       </c>
       <c r="G182" t="n">
-        <v>-1059622.66157543</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>3341.5202</v>
       </c>
       <c r="G183" t="n">
-        <v>-1056281.14137543</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>29076.9016</v>
       </c>
       <c r="G184" t="n">
-        <v>-1085358.04297543</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>7030</v>
       </c>
       <c r="G185" t="n">
-        <v>-1078328.04297543</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>26127.9076</v>
       </c>
       <c r="G186" t="n">
-        <v>-1078328.04297543</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>11345.1345</v>
       </c>
       <c r="G187" t="n">
-        <v>-1089673.17747543</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>579</v>
       </c>
       <c r="G188" t="n">
-        <v>-1089094.17747543</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>11345.1345</v>
       </c>
       <c r="G189" t="n">
-        <v>-1100439.31197543</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>30</v>
       </c>
       <c r="G190" t="n">
-        <v>-1100409.31197543</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>57.3685</v>
       </c>
       <c r="G191" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>2222.2833</v>
       </c>
       <c r="G192" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>6698.5255</v>
       </c>
       <c r="G193" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>116.6181</v>
       </c>
       <c r="G194" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>5309.4178</v>
       </c>
       <c r="G195" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>6349.411</v>
       </c>
       <c r="G196" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>1396.4975</v>
       </c>
       <c r="G197" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>4429.9499</v>
       </c>
       <c r="G198" t="n">
-        <v>-1100466.68047543</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>23425.9446</v>
       </c>
       <c r="G199" t="n">
-        <v>-1123892.62507543</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>5806.1325</v>
       </c>
       <c r="G200" t="n">
-        <v>-1118086.49257543</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>15398.5313</v>
       </c>
       <c r="G201" t="n">
-        <v>-1118086.49257543</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>51972.9478</v>
       </c>
       <c r="G202" t="n">
-        <v>-1170059.44037543</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>22685.2899</v>
       </c>
       <c r="G203" t="n">
-        <v>-1170059.44037543</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>7548.5515</v>
       </c>
       <c r="G204" t="n">
-        <v>-1170059.44037543</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>12951.6256</v>
       </c>
       <c r="G205" t="n">
-        <v>-1183011.065975429</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>7049.3474</v>
       </c>
       <c r="G206" t="n">
-        <v>-1183011.065975429</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>1323.5936</v>
       </c>
       <c r="G207" t="n">
-        <v>-1184334.65957543</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>6230.0105</v>
       </c>
       <c r="G208" t="n">
-        <v>-1190564.67007543</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>1284.1524</v>
       </c>
       <c r="G209" t="n">
-        <v>-1191848.82247543</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>6482.2506</v>
       </c>
       <c r="G210" t="n">
-        <v>-1191848.82247543</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>30</v>
       </c>
       <c r="G211" t="n">
-        <v>-1191818.82247543</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>53303.6732</v>
       </c>
       <c r="G212" t="n">
-        <v>-1245122.49567543</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>22685.2899</v>
       </c>
       <c r="G213" t="n">
-        <v>-1267807.78557543</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>6094.4938</v>
       </c>
       <c r="G214" t="n">
-        <v>-1267807.78557543</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>155239.0564</v>
       </c>
       <c r="G215" t="n">
-        <v>-1267807.78557543</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>8220.8397</v>
       </c>
       <c r="G216" t="n">
-        <v>-1267807.78557543</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>156441.3135</v>
       </c>
       <c r="G217" t="n">
-        <v>-1424249.09907543</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>44753.1353</v>
       </c>
       <c r="G218" t="n">
-        <v>-1469002.23437543</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>5953.7786</v>
       </c>
       <c r="G219" t="n">
-        <v>-1463048.455775429</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>74103.356</v>
       </c>
       <c r="G220" t="n">
-        <v>-1537151.811775429</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>666930.2044</v>
       </c>
       <c r="G221" t="n">
-        <v>-2204082.016175429</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>3430.2876</v>
       </c>
       <c r="G222" t="n">
-        <v>-2200651.728575429</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>3646.9251</v>
       </c>
       <c r="G223" t="n">
-        <v>-2200651.728575429</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>469.9367</v>
       </c>
       <c r="G224" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>10977.8283</v>
       </c>
       <c r="G225" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>12744.4489</v>
       </c>
       <c r="G226" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>63882.454</v>
       </c>
       <c r="G227" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>6709.7686</v>
       </c>
       <c r="G228" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>50552.8165</v>
       </c>
       <c r="G229" t="n">
-        <v>-2201121.665275429</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>51115.0214</v>
       </c>
       <c r="G230" t="n">
-        <v>-2150006.643875429</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>10369.9851</v>
       </c>
       <c r="G231" t="n">
-        <v>-2139636.658775429</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>40000</v>
       </c>
       <c r="G232" t="n">
-        <v>-2099636.658775429</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>3340.0542</v>
       </c>
       <c r="G233" t="n">
-        <v>-2102976.712975429</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>30</v>
       </c>
       <c r="G234" t="n">
-        <v>-2102946.712975429</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>11491.5082</v>
       </c>
       <c r="G235" t="n">
-        <v>-2114438.221175429</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>13011.6829</v>
       </c>
       <c r="G236" t="n">
-        <v>-2101426.53827543</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>1300</v>
       </c>
       <c r="G237" t="n">
-        <v>-2102726.53827543</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>30</v>
       </c>
       <c r="G238" t="n">
-        <v>-2102696.53827543</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>71523.5404</v>
       </c>
       <c r="G239" t="n">
-        <v>-2174220.078675429</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>65.2497</v>
       </c>
       <c r="G240" t="n">
-        <v>-2174285.328375429</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>95151.308</v>
       </c>
       <c r="G241" t="n">
-        <v>-2269436.63637543</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>30</v>
       </c>
       <c r="G242" t="n">
-        <v>-2269406.63637543</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>167.168</v>
       </c>
       <c r="G243" t="n">
-        <v>-2269573.80437543</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>213412.8801</v>
       </c>
       <c r="G244" t="n">
-        <v>-2482986.68447543</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>610630.1219</v>
       </c>
       <c r="G245" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>64379.1864</v>
       </c>
       <c r="G246" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>2347.3415</v>
       </c>
       <c r="G247" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>1114.0867</v>
       </c>
       <c r="G248" t="n">
-        <v>-3093616.80637543</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>23738.4852</v>
       </c>
       <c r="G249" t="n">
-        <v>-3117355.29157543</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>43429.9832</v>
       </c>
       <c r="G250" t="n">
-        <v>-3160785.27477543</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>58573.4588</v>
       </c>
       <c r="G251" t="n">
-        <v>-3160785.27477543</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>24130.0183</v>
       </c>
       <c r="G252" t="n">
-        <v>-3136655.25647543</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>236723.4428</v>
       </c>
       <c r="G253" t="n">
-        <v>-3373378.69927543</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,19 @@
         <v>30</v>
       </c>
       <c r="G254" t="n">
-        <v>-3373348.69927543</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="I254" t="n">
+        <v>16</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8037,21 @@
         <v>2994.87</v>
       </c>
       <c r="G255" t="n">
-        <v>-3376343.56927543</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>16</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8073,21 @@
         <v>1567.2571</v>
       </c>
       <c r="G256" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>16</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8109,15 @@
         <v>207547.2419824299</v>
       </c>
       <c r="G257" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8139,15 @@
         <v>29651.34831757009</v>
       </c>
       <c r="G258" t="n">
-        <v>-3377910.82637543</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8169,19 @@
         <v>31</v>
       </c>
       <c r="G259" t="n">
-        <v>-3377879.82637543</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="I259" t="n">
+        <v>16</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8203,21 @@
         <v>10528.9992</v>
       </c>
       <c r="G260" t="n">
-        <v>-3388408.82557543</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>16</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8239,21 @@
         <v>31</v>
       </c>
       <c r="G261" t="n">
-        <v>-3388377.82557543</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>16</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8275,15 @@
         <v>12780.009</v>
       </c>
       <c r="G262" t="n">
-        <v>-3401157.83457543</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8305,15 @@
         <v>3497.0109</v>
       </c>
       <c r="G263" t="n">
-        <v>-3401157.83457543</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8335,15 @@
         <v>755.404</v>
       </c>
       <c r="G264" t="n">
-        <v>-3401913.23857543</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8365,15 @@
         <v>3791.5024</v>
       </c>
       <c r="G265" t="n">
-        <v>-3405704.74097543</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8395,15 @@
         <v>40031</v>
       </c>
       <c r="G266" t="n">
-        <v>-3365673.74097543</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8425,19 @@
         <v>31134.6633</v>
       </c>
       <c r="G267" t="n">
-        <v>-3365673.74097543</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>16.14</v>
+      </c>
+      <c r="I267" t="n">
+        <v>16.14</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8459,21 @@
         <v>720.3033</v>
       </c>
       <c r="G268" t="n">
-        <v>-3366394.04427543</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8495,23 @@
         <v>35030</v>
       </c>
       <c r="G269" t="n">
-        <v>-3366394.04427543</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>16.13</v>
+      </c>
+      <c r="I269" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8533,21 @@
         <v>91569.197</v>
       </c>
       <c r="G270" t="n">
-        <v>-3457963.24127543</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8569,21 @@
         <v>30</v>
       </c>
       <c r="G271" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8605,21 @@
         <v>10000</v>
       </c>
       <c r="G272" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8641,21 @@
         <v>8624.3887</v>
       </c>
       <c r="G273" t="n">
-        <v>-3457933.24127543</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8677,23 @@
         <v>23706.3641</v>
       </c>
       <c r="G274" t="n">
-        <v>-3434226.87717543</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>16.13</v>
+      </c>
+      <c r="I274" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8715,23 @@
         <v>20437.1113</v>
       </c>
       <c r="G275" t="n">
-        <v>-3413789.76587543</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>16.2</v>
+      </c>
+      <c r="I275" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8753,23 @@
         <v>163362.5382</v>
       </c>
       <c r="G276" t="n">
-        <v>-3577152.30407543</v>
+        <v>1</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>16.73</v>
+      </c>
+      <c r="I276" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8791,21 @@
         <v>3756.0682</v>
       </c>
       <c r="G277" t="n">
-        <v>-3577152.30407543</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8827,23 @@
         <v>31</v>
       </c>
       <c r="G278" t="n">
-        <v>-3577121.30407543</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>16.47</v>
+      </c>
+      <c r="I278" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8865,21 @@
         <v>30</v>
       </c>
       <c r="G279" t="n">
-        <v>-3577091.30407543</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8901,21 @@
         <v>3104.7164</v>
       </c>
       <c r="G280" t="n">
-        <v>-3580196.02047543</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8937,21 @@
         <v>27635.3344</v>
       </c>
       <c r="G281" t="n">
-        <v>-3552560.68607543</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8973,21 @@
         <v>30</v>
       </c>
       <c r="G282" t="n">
-        <v>-3552530.68607543</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +9009,21 @@
         <v>1416.8942</v>
       </c>
       <c r="G283" t="n">
-        <v>-3553947.58027543</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +9045,21 @@
         <v>31</v>
       </c>
       <c r="G284" t="n">
-        <v>-3553916.58027543</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +9081,21 @@
         <v>112170.5896</v>
       </c>
       <c r="G285" t="n">
-        <v>-3666087.16987543</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +9117,21 @@
         <v>32</v>
       </c>
       <c r="G286" t="n">
-        <v>-3666119.16987543</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9153,21 @@
         <v>157.1168</v>
       </c>
       <c r="G287" t="n">
-        <v>-3666119.16987543</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9189,21 @@
         <v>31</v>
       </c>
       <c r="G288" t="n">
-        <v>-3666088.16987543</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9225,21 @@
         <v>933</v>
       </c>
       <c r="G289" t="n">
-        <v>-3667021.16987543</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9261,21 @@
         <v>31</v>
       </c>
       <c r="G290" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9297,21 @@
         <v>749.417</v>
       </c>
       <c r="G291" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9333,21 @@
         <v>11365.7087</v>
       </c>
       <c r="G292" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9369,21 @@
         <v>17310</v>
       </c>
       <c r="G293" t="n">
-        <v>-3666990.16987543</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9405,21 @@
         <v>28690.2369</v>
       </c>
       <c r="G294" t="n">
-        <v>-3695680.40677543</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9441,21 @@
         <v>96</v>
       </c>
       <c r="G295" t="n">
-        <v>-3695584.40677543</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9477,21 @@
         <v>63</v>
       </c>
       <c r="G296" t="n">
-        <v>-3695521.40677543</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9513,21 @@
         <v>18531</v>
       </c>
       <c r="G297" t="n">
-        <v>-3714052.40677543</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9549,21 @@
         <v>31</v>
       </c>
       <c r="G298" t="n">
-        <v>-3714021.40677543</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9585,21 @@
         <v>33</v>
       </c>
       <c r="G299" t="n">
-        <v>-3714054.40677543</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,22 +9621,21 @@
         <v>31</v>
       </c>
       <c r="G300" t="n">
-        <v>-3714023.40677543</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="J300" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+        <v>16.14</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10319,26 +9657,21 @@
         <v>31</v>
       </c>
       <c r="G301" t="n">
-        <v>-3714054.40677543</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="J301" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K301" t="inlineStr">
+        <v>16.14</v>
+      </c>
+      <c r="J301" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10360,26 +9693,21 @@
         <v>31.0945</v>
       </c>
       <c r="G302" t="n">
-        <v>-3714054.40677543</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="J302" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K302" t="inlineStr">
+        <v>16.14</v>
+      </c>
+      <c r="J302" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10401,22 +9729,21 @@
         <v>34077.0864</v>
       </c>
       <c r="G303" t="n">
-        <v>-3679977.32037543</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="J303" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+        <v>16.14</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10438,26 +9765,21 @@
         <v>31</v>
       </c>
       <c r="G304" t="n">
-        <v>-3680008.32037543</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="J304" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K304" t="inlineStr">
+        <v>16.14</v>
+      </c>
+      <c r="J304" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10479,26 +9801,21 @@
         <v>31</v>
       </c>
       <c r="G305" t="n">
-        <v>-3679977.32037543</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="J305" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K305" t="inlineStr">
+        <v>16.14</v>
+      </c>
+      <c r="J305" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10520,18 +9837,21 @@
         <v>3224.2227</v>
       </c>
       <c r="G306" t="n">
-        <v>-3676753.09767543</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10553,18 +9873,21 @@
         <v>7582.6614</v>
       </c>
       <c r="G307" t="n">
-        <v>-3684335.75907543</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10586,18 +9909,21 @@
         <v>2818.8155</v>
       </c>
       <c r="G308" t="n">
-        <v>-3687154.57457543</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10619,22 +9945,21 @@
         <v>31</v>
       </c>
       <c r="G309" t="n">
-        <v>-3687123.57457543</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="J309" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+        <v>16.14</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
